--- a/Schlagdifferentialgleichung/Programme/excelDir/CharactExponentenMultiplikatoren_ebeta0dot300_mu0_mu10_Auswahl1.xlsx
+++ b/Schlagdifferentialgleichung/Programme/excelDir/CharactExponentenMultiplikatoren_ebeta0dot300_mu0_mu10_Auswahl1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="87" uniqueCount="29">
   <si>
     <t>muChar</t>
   </si>
@@ -166,9 +166,9 @@
     <col min="13" max="13" width="15.88671875" customWidth="true"/>
     <col min="14" max="14" width="15.88671875" customWidth="true"/>
     <col min="15" max="15" width="15.88671875" customWidth="true"/>
-    <col min="16" max="16" width="15.88671875" customWidth="true"/>
+    <col min="16" max="16" width="15.5546875" customWidth="true"/>
     <col min="17" max="17" width="16.21875" customWidth="true"/>
-    <col min="18" max="18" width="16.21875" customWidth="true"/>
+    <col min="18" max="18" width="15.88671875" customWidth="true"/>
     <col min="19" max="19" width="16.21875" customWidth="true"/>
     <col min="20" max="20" width="15.88671875" customWidth="true"/>
     <col min="21" max="21" width="16.21875" customWidth="true"/>
@@ -383,16 +383,16 @@
         <v>-0.45534392478275421</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.11129459910031715</v>
+        <v>-0.11129459910031718</v>
       </c>
       <c r="I3" s="0">
-        <v>0.11129459910031715</v>
+        <v>0.11129459910031718</v>
       </c>
       <c r="J3" s="0">
-        <v>-0.11129459910031754</v>
+        <v>-0.11129459910031761</v>
       </c>
       <c r="K3" s="0">
-        <v>0.11129459910031754</v>
+        <v>0.11129459910031761</v>
       </c>
       <c r="L3" s="0">
         <v>-0.11129459910031698</v>
@@ -407,34 +407,34 @@
         <v>0.043783691501225533</v>
       </c>
       <c r="P3" s="0">
-        <v>0.043783691501225588</v>
+        <v>0.043783691501225568</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.043783691501225588</v>
+        <v>0.043783691501225568</v>
       </c>
       <c r="R3" s="0">
-        <v>0.043783691501225741</v>
+        <v>0.043783691501225755</v>
       </c>
       <c r="S3" s="0">
-        <v>0.043783691501225741</v>
+        <v>0.043783691501225755</v>
       </c>
       <c r="T3" s="0">
-        <v>-0.036824981239547847</v>
+        <v>-0.036824981239547867</v>
       </c>
       <c r="U3" s="0">
-        <v>0.036824981239547847</v>
+        <v>0.036824981239547867</v>
       </c>
       <c r="V3" s="0">
-        <v>-0.036824981239548083</v>
+        <v>-0.036824981239548096</v>
       </c>
       <c r="W3" s="0">
-        <v>0.036824981239548083</v>
+        <v>0.036824981239548096</v>
       </c>
       <c r="X3" s="0">
-        <v>-0.036824981239547951</v>
+        <v>-0.036824981239547964</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.036824981239547951</v>
+        <v>0.036824981239547964</v>
       </c>
       <c r="Z3" s="0">
         <v>-0.45534392478275476</v>
@@ -460,79 +460,79 @@
         <v>-0.45534392478275471</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.45534392478275376</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.45534392478275376</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.45534392478275404</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.45534392478275404</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.11568597017121431</v>
+        <v>-0.11568597017121432</v>
       </c>
       <c r="I4" s="0">
-        <v>0.11568597017121431</v>
+        <v>0.11568597017121432</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.1156859701712151</v>
+        <v>-0.11568597017121514</v>
       </c>
       <c r="K4" s="0">
-        <v>0.1156859701712151</v>
+        <v>0.11568597017121514</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.11568597017121454</v>
+        <v>-0.11568597017121451</v>
       </c>
       <c r="M4" s="0">
-        <v>0.11568597017121454</v>
+        <v>0.11568597017121451</v>
       </c>
       <c r="N4" s="0">
+        <v>0.042751087603582205</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0.042751087603582205</v>
+      </c>
+      <c r="P4" s="0">
         <v>0.042751087603582219</v>
       </c>
-      <c r="O4" s="0">
+      <c r="Q4" s="0">
         <v>0.042751087603582219</v>
       </c>
-      <c r="P4" s="0">
-        <v>0.042751087603582268</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>0.042751087603582268</v>
-      </c>
       <c r="R4" s="0">
-        <v>0.04275108760358233</v>
+        <v>0.042751087603582358</v>
       </c>
       <c r="S4" s="0">
-        <v>0.04275108760358233</v>
+        <v>0.042751087603582358</v>
       </c>
       <c r="T4" s="0">
-        <v>-0.038018882065079009</v>
+        <v>-0.038018882065079002</v>
       </c>
       <c r="U4" s="0">
-        <v>0.038018882065079009</v>
+        <v>0.038018882065079002</v>
       </c>
       <c r="V4" s="0">
-        <v>-0.038018882065079432</v>
+        <v>-0.038018882065079411</v>
       </c>
       <c r="W4" s="0">
-        <v>0.038018882065079432</v>
+        <v>0.038018882065079411</v>
       </c>
       <c r="X4" s="0">
-        <v>-0.038018882065079217</v>
+        <v>-0.038018882065079238</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.038018882065079217</v>
+        <v>0.038018882065079238</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.45534392478275532</v>
+        <v>-0.45534392478275515</v>
       </c>
       <c r="AA4" s="0">
         <v>-1.1156859701712152</v>
       </c>
       <c r="AB4" s="0">
-        <v>-0.45534392478275376</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="AC4" s="0">
         <v>1.1156859701712152</v>
@@ -543,10 +543,10 @@
         <v>0.30000000000000005</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.45534392478275498</v>
+        <v>-0.45534392478275476</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.45534392478275498</v>
+        <v>-0.45534392478275476</v>
       </c>
       <c r="D5" s="0">
         <v>-0.45534392478275448</v>
@@ -561,58 +561,58 @@
         <v>-0.45534392478275398</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.12167982788020353</v>
+        <v>-0.12167982788020362</v>
       </c>
       <c r="I5" s="0">
-        <v>0.12167982788020353</v>
+        <v>0.12167982788020362</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.12167982788020348</v>
+        <v>-0.1216798278802034</v>
       </c>
       <c r="K5" s="0">
-        <v>0.12167982788020348</v>
+        <v>0.1216798278802034</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.12167982788020282</v>
+        <v>-0.12167982788020289</v>
       </c>
       <c r="M5" s="0">
-        <v>0.12167982788020282</v>
+        <v>0.12167982788020289</v>
       </c>
       <c r="N5" s="0">
-        <v>0.041289301556495739</v>
+        <v>0.041289301556495774</v>
       </c>
       <c r="O5" s="0">
-        <v>0.041289301556495739</v>
+        <v>0.041289301556495774</v>
       </c>
       <c r="P5" s="0">
-        <v>0.041289301556495885</v>
+        <v>0.041289301556495892</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.041289301556495885</v>
+        <v>0.041289301556495892</v>
       </c>
       <c r="R5" s="0">
-        <v>0.041289301556496169</v>
+        <v>0.041289301556496155</v>
       </c>
       <c r="S5" s="0">
-        <v>0.041289301556496169</v>
+        <v>0.041289301556496155</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.039601571455490169</v>
+        <v>-0.039601571455490245</v>
       </c>
       <c r="U5" s="0">
-        <v>0.039601571455490169</v>
+        <v>0.039601571455490245</v>
       </c>
       <c r="V5" s="0">
-        <v>-0.039601571455490286</v>
+        <v>-0.039601571455490252</v>
       </c>
       <c r="W5" s="0">
-        <v>0.039601571455490286</v>
+        <v>0.039601571455490252</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.039601571455490231</v>
+        <v>-0.039601571455490252</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.039601571455490231</v>
+        <v>0.039601571455490252</v>
       </c>
       <c r="Z5" s="0">
         <v>-0.4553439247827546</v>
@@ -632,22 +632,22 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.45534392478275398</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.45534392478275398</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.45534392478275393</v>
+        <v>-0.45534392478275382</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.45534392478275393</v>
+        <v>-0.45534392478275382</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.45534392478275343</v>
+        <v>-0.45534392478275332</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.45534392478275343</v>
+        <v>-0.45534392478275332</v>
       </c>
       <c r="H6" s="0">
         <v>-0.12762867301353001</v>
@@ -656,22 +656,22 @@
         <v>0.12762867301353001</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.12762867301352907</v>
+        <v>-0.12762867301352909</v>
       </c>
       <c r="K6" s="0">
-        <v>0.12762867301352907</v>
+        <v>0.12762867301352909</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.12762867301352832</v>
+        <v>-0.12762867301352837</v>
       </c>
       <c r="M6" s="0">
-        <v>0.12762867301352832</v>
+        <v>0.12762867301352837</v>
       </c>
       <c r="N6" s="0">
-        <v>0.039780591563945172</v>
+        <v>0.039780591563945179</v>
       </c>
       <c r="O6" s="0">
-        <v>0.039780591563945172</v>
+        <v>0.039780591563945179</v>
       </c>
       <c r="P6" s="0">
         <v>0.039780591563945436</v>
@@ -680,10 +680,10 @@
         <v>0.039780591563945436</v>
       </c>
       <c r="R6" s="0">
-        <v>0.039780591563945741</v>
+        <v>0.039780591563945755</v>
       </c>
       <c r="S6" s="0">
-        <v>0.039780591563945741</v>
+        <v>0.039780591563945755</v>
       </c>
       <c r="T6" s="0">
         <v>-0.041116850798549133</v>
@@ -692,25 +692,25 @@
         <v>0.041116850798549133</v>
       </c>
       <c r="V6" s="0">
-        <v>-0.041116850798548911</v>
+        <v>-0.041116850798548932</v>
       </c>
       <c r="W6" s="0">
-        <v>0.041116850798548911</v>
+        <v>0.041116850798548932</v>
       </c>
       <c r="X6" s="0">
-        <v>-0.041116850798548842</v>
+        <v>-0.041116850798548883</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.041116850798548842</v>
+        <v>0.041116850798548883</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.45534392478275398</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="AA6" s="0">
         <v>-1.1276286730135301</v>
       </c>
       <c r="AB6" s="0">
-        <v>-0.45534392478275515</v>
+        <v>-0.45534392478275526</v>
       </c>
       <c r="AC6" s="0">
         <v>1.1276286730135301</v>
@@ -727,22 +727,22 @@
         <v>-0.45534392478275526</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.45534392478275298</v>
+        <v>-0.45534392478275304</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.45534392478275298</v>
+        <v>-0.45534392478275304</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.45534392478275382</v>
+        <v>-0.45534392478275371</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.45534392478275382</v>
+        <v>-0.45534392478275371</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.13157652373531056</v>
+        <v>-0.13157652373531054</v>
       </c>
       <c r="I7" s="0">
-        <v>0.13157652373531056</v>
+        <v>0.13157652373531054</v>
       </c>
       <c r="J7" s="0">
         <v>-0.13157652373531065</v>
@@ -751,55 +751,55 @@
         <v>0.13157652373531065</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.13157652373530882</v>
+        <v>-0.1315765237353089</v>
       </c>
       <c r="M7" s="0">
-        <v>0.13157652373530882</v>
+        <v>0.1315765237353089</v>
       </c>
       <c r="N7" s="0">
-        <v>0.038748551764062847</v>
+        <v>0.038748551764062875</v>
       </c>
       <c r="O7" s="0">
-        <v>0.038748551764062847</v>
+        <v>0.038748551764062875</v>
       </c>
       <c r="P7" s="0">
-        <v>0.038748551764063388</v>
+        <v>0.038748551764063374</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.038748551764063388</v>
+        <v>0.038748551764063374</v>
       </c>
       <c r="R7" s="0">
-        <v>0.038748551764063666</v>
+        <v>0.03874855176406368</v>
       </c>
       <c r="S7" s="0">
-        <v>0.038748551764063666</v>
+        <v>0.03874855176406368</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.042090861489820615</v>
+        <v>-0.042090861489820622</v>
       </c>
       <c r="U7" s="0">
-        <v>0.042090861489820615</v>
+        <v>0.042090861489820622</v>
       </c>
       <c r="V7" s="0">
-        <v>-0.042090861489821239</v>
+        <v>-0.042090861489821225</v>
       </c>
       <c r="W7" s="0">
-        <v>0.042090861489821239</v>
+        <v>0.042090861489821225</v>
       </c>
       <c r="X7" s="0">
-        <v>-0.042090861489820566</v>
+        <v>-0.042090861489820629</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.042090861489820566</v>
+        <v>0.042090861489820629</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.45534392478275609</v>
+        <v>-0.45534392478275604</v>
       </c>
       <c r="AA7" s="0">
         <v>-1.1315765237353106</v>
       </c>
       <c r="AB7" s="0">
-        <v>-0.45534392478275298</v>
+        <v>-0.45534392478275304</v>
       </c>
       <c r="AC7" s="0">
         <v>1.1315765237353106</v>
@@ -816,10 +816,10 @@
         <v>-0.45534392478275509</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.45534392478275426</v>
+        <v>-0.45534392478275421</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.45534392478275426</v>
+        <v>-0.45534392478275421</v>
       </c>
       <c r="F8" s="0">
         <v>-0.45534392478275304</v>
@@ -828,22 +828,22 @@
         <v>-0.45534392478275304</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.1311909839872126</v>
+        <v>-0.13119098398721263</v>
       </c>
       <c r="I8" s="0">
-        <v>0.1311909839872126</v>
+        <v>0.13119098398721263</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.13119098398721205</v>
+        <v>-0.13119098398721196</v>
       </c>
       <c r="K8" s="0">
-        <v>0.13119098398721205</v>
+        <v>0.13119098398721196</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.13119098398721254</v>
+        <v>-0.13119098398721263</v>
       </c>
       <c r="M8" s="0">
-        <v>0.13119098398721254</v>
+        <v>0.13119098398721263</v>
       </c>
       <c r="N8" s="0">
         <v>0.038850399621130051</v>
@@ -852,46 +852,46 @@
         <v>0.038850399621130051</v>
       </c>
       <c r="P8" s="0">
-        <v>0.038850399621130405</v>
+        <v>0.03885039962113046</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.038850399621130405</v>
+        <v>0.03885039962113046</v>
       </c>
       <c r="R8" s="0">
-        <v>0.038850399621130578</v>
+        <v>0.038850399621130544</v>
       </c>
       <c r="S8" s="0">
-        <v>0.038850399621130578</v>
+        <v>0.038850399621130544</v>
       </c>
       <c r="T8" s="0">
-        <v>-0.041996872907944308</v>
+        <v>-0.041996872907944315</v>
       </c>
       <c r="U8" s="0">
-        <v>0.041996872907944308</v>
+        <v>0.041996872907944315</v>
       </c>
       <c r="V8" s="0">
-        <v>-0.041996872907944384</v>
+        <v>-0.041996872907944398</v>
       </c>
       <c r="W8" s="0">
-        <v>0.041996872907944384</v>
+        <v>0.041996872907944398</v>
       </c>
       <c r="X8" s="0">
-        <v>-0.041996872907944828</v>
+        <v>-0.041996872907944842</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.041996872907944828</v>
+        <v>0.041996872907944842</v>
       </c>
       <c r="Z8" s="0">
-        <v>-0.45534392478275482</v>
+        <v>-0.45534392478275487</v>
       </c>
       <c r="AA8" s="0">
-        <v>-1.1311909839872125</v>
+        <v>-1.1311909839872127</v>
       </c>
       <c r="AB8" s="0">
-        <v>-0.45534392478275426</v>
+        <v>-0.45534392478275421</v>
       </c>
       <c r="AC8" s="0">
-        <v>1.1311909839872125</v>
+        <v>1.1311909839872127</v>
       </c>
     </row>
     <row r="9">
@@ -899,88 +899,88 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.45534392478275365</v>
+        <v>-0.45534392478275348</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.45534392478275365</v>
+        <v>-0.45534392478275348</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.45534392478275454</v>
+        <v>-0.4553439247827546</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.45534392478275454</v>
+        <v>-0.4553439247827546</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.45534392478275298</v>
+        <v>-0.45534392478275304</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.45534392478275298</v>
+        <v>-0.45534392478275304</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.1233438025071764</v>
+        <v>-0.12334380250717635</v>
       </c>
       <c r="I9" s="0">
-        <v>0.1233438025071764</v>
+        <v>0.12334380250717635</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.12334380250717399</v>
+        <v>-0.12334380250717433</v>
       </c>
       <c r="K9" s="0">
-        <v>0.12334380250717399</v>
+        <v>0.12334380250717433</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.12334380250717246</v>
+        <v>-0.12334380250717207</v>
       </c>
       <c r="M9" s="0">
-        <v>0.12334380250717246</v>
+        <v>0.12334380250717207</v>
       </c>
       <c r="N9" s="0">
-        <v>0.040873015645893837</v>
+        <v>0.040873015645893879</v>
       </c>
       <c r="O9" s="0">
-        <v>0.040873015645893837</v>
+        <v>0.040873015645893879</v>
       </c>
       <c r="P9" s="0">
-        <v>0.040873015645894205</v>
+        <v>0.040873015645894087</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.040873015645894205</v>
+        <v>0.040873015645894087</v>
       </c>
       <c r="R9" s="0">
-        <v>0.040873015645894989</v>
+        <v>0.040873015645895058</v>
       </c>
       <c r="S9" s="0">
-        <v>0.040873015645894989</v>
+        <v>0.040873015645895058</v>
       </c>
       <c r="T9" s="0">
-        <v>-0.040031081384070917</v>
+        <v>-0.040031081384070931</v>
       </c>
       <c r="U9" s="0">
-        <v>0.040031081384070917</v>
+        <v>0.040031081384070931</v>
       </c>
       <c r="V9" s="0">
-        <v>-0.040031081384070064</v>
+        <v>-0.040031081384070119</v>
       </c>
       <c r="W9" s="0">
-        <v>0.040031081384070064</v>
+        <v>0.040031081384070119</v>
       </c>
       <c r="X9" s="0">
-        <v>-0.040031081384070064</v>
+        <v>-0.040031081384069932</v>
       </c>
       <c r="Y9" s="0">
-        <v>0.040031081384070064</v>
+        <v>0.040031081384069932</v>
       </c>
       <c r="Z9" s="0">
-        <v>-0.45534392478275365</v>
+        <v>-0.45534392478275348</v>
       </c>
       <c r="AA9" s="0">
-        <v>-1.1233438025071765</v>
+        <v>-1.1233438025071763</v>
       </c>
       <c r="AB9" s="0">
-        <v>-0.45534392478275543</v>
+        <v>-0.45534392478275559</v>
       </c>
       <c r="AC9" s="0">
-        <v>1.1233438025071765</v>
+        <v>1.1233438025071763</v>
       </c>
     </row>
     <row r="10">
@@ -988,16 +988,16 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.45534392478275615</v>
+        <v>-0.45534392478275632</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.45534392478275615</v>
+        <v>-0.45534392478275632</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.45534392478275326</v>
+        <v>-0.45534392478275315</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.45534392478275326</v>
+        <v>-0.45534392478275315</v>
       </c>
       <c r="F10" s="0">
         <v>-0.45534392478275348</v>
@@ -1006,70 +1006,70 @@
         <v>-0.45534392478275348</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.10255888171130854</v>
+        <v>-0.1025588817113087</v>
       </c>
       <c r="I10" s="0">
-        <v>0.10255888171130854</v>
+        <v>0.1025588817113087</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.10255888171130836</v>
+        <v>-0.10255888171130848</v>
       </c>
       <c r="K10" s="0">
-        <v>0.10255888171130836</v>
+        <v>0.10255888171130848</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.10255888171130476</v>
+        <v>-0.10255888171130481</v>
       </c>
       <c r="M10" s="0">
-        <v>0.10255888171130476</v>
+        <v>0.10255888171130481</v>
       </c>
       <c r="N10" s="0">
-        <v>0.045737993986938383</v>
+        <v>0.04573799398693832</v>
       </c>
       <c r="O10" s="0">
-        <v>0.045737993986938383</v>
+        <v>0.04573799398693832</v>
       </c>
       <c r="P10" s="0">
-        <v>0.045737993986939257</v>
+        <v>0.045737993986939271</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.045737993986939257</v>
+        <v>0.045737993986939271</v>
       </c>
       <c r="R10" s="0">
-        <v>0.045737993986939979</v>
+        <v>0.045737993986939972</v>
       </c>
       <c r="S10" s="0">
-        <v>0.045737993986939979</v>
+        <v>0.045737993986939972</v>
       </c>
       <c r="T10" s="0">
-        <v>-0.034367525235580648</v>
+        <v>-0.034367525235580676</v>
       </c>
       <c r="U10" s="0">
-        <v>0.034367525235580648</v>
+        <v>0.034367525235580676</v>
       </c>
       <c r="V10" s="0">
-        <v>-0.034367525235581231</v>
+        <v>-0.034367525235581287</v>
       </c>
       <c r="W10" s="0">
-        <v>0.034367525235581231</v>
+        <v>0.034367525235581287</v>
       </c>
       <c r="X10" s="0">
-        <v>-0.034367525235580149</v>
+        <v>-0.034367525235580169</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.034367525235580149</v>
+        <v>0.034367525235580169</v>
       </c>
       <c r="Z10" s="0">
-        <v>-0.45534392478275582</v>
+        <v>-0.45534392478275593</v>
       </c>
       <c r="AA10" s="0">
-        <v>-1.1025588817113086</v>
+        <v>-1.1025588817113088</v>
       </c>
       <c r="AB10" s="0">
-        <v>-0.45534392478275326</v>
+        <v>-0.45534392478275315</v>
       </c>
       <c r="AC10" s="0">
-        <v>1.1025588817113086</v>
+        <v>1.1025588817113088</v>
       </c>
     </row>
     <row r="11">
@@ -1077,88 +1077,88 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B11" s="0">
+        <v>-0.45534392478275537</v>
+      </c>
+      <c r="C11" s="0">
+        <v>-0.45534392478275537</v>
+      </c>
+      <c r="D11" s="0">
+        <v>-0.45534392478275443</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-0.45534392478275443</v>
+      </c>
+      <c r="F11" s="0">
         <v>-0.45534392478275532</v>
       </c>
-      <c r="C11" s="0">
+      <c r="G11" s="0">
         <v>-0.45534392478275532</v>
       </c>
-      <c r="D11" s="0">
-        <v>-0.45534392478275537</v>
-      </c>
-      <c r="E11" s="0">
-        <v>-0.45534392478275537</v>
-      </c>
-      <c r="F11" s="0">
+      <c r="H11" s="0">
+        <v>-0.048979982300459933</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.048979982300459933</v>
+      </c>
+      <c r="J11" s="0">
+        <v>-0.048979982300455326</v>
+      </c>
+      <c r="K11" s="0">
+        <v>0.048979982300455326</v>
+      </c>
+      <c r="L11" s="0">
+        <v>-0.048979982300452155</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0.048979982300452155</v>
+      </c>
+      <c r="N11" s="0">
+        <v>0.054523017627828185</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0.054523017627828185</v>
+      </c>
+      <c r="P11" s="0">
+        <v>0.054523017627829025</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>0.054523017627829025</v>
+      </c>
+      <c r="R11" s="0">
+        <v>0.054523017627829067</v>
+      </c>
+      <c r="S11" s="0">
+        <v>0.054523017627829067</v>
+      </c>
+      <c r="T11" s="0">
+        <v>-0.017330073096298651</v>
+      </c>
+      <c r="U11" s="0">
+        <v>0.017330073096298651</v>
+      </c>
+      <c r="V11" s="0">
+        <v>-0.01733007309629718</v>
+      </c>
+      <c r="W11" s="0">
+        <v>0.01733007309629718</v>
+      </c>
+      <c r="X11" s="0">
+        <v>-0.017330073096295997</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>0.017330073096295997</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>-0.45534392478275465</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>-1.04897998230046</v>
+      </c>
+      <c r="AB11" s="0">
         <v>-0.45534392478275443</v>
       </c>
-      <c r="G11" s="0">
-        <v>-0.45534392478275443</v>
-      </c>
-      <c r="H11" s="0">
-        <v>-0.048979982300460079</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0.048979982300460079</v>
-      </c>
-      <c r="J11" s="0">
-        <v>-0.048979982300451981</v>
-      </c>
-      <c r="K11" s="0">
-        <v>0.048979982300451981</v>
-      </c>
-      <c r="L11" s="0">
-        <v>-0.048979982300455284</v>
-      </c>
-      <c r="M11" s="0">
-        <v>0.048979982300455284</v>
-      </c>
-      <c r="N11" s="0">
-        <v>0.054523017627828199</v>
-      </c>
-      <c r="O11" s="0">
-        <v>0.054523017627828199</v>
-      </c>
-      <c r="P11" s="0">
-        <v>0.054523017627829046</v>
-      </c>
-      <c r="Q11" s="0">
-        <v>0.054523017627829046</v>
-      </c>
-      <c r="R11" s="0">
-        <v>0.054523017627829046</v>
-      </c>
-      <c r="S11" s="0">
-        <v>0.054523017627829046</v>
-      </c>
-      <c r="T11" s="0">
-        <v>-0.01733007309629871</v>
-      </c>
-      <c r="U11" s="0">
-        <v>0.01733007309629871</v>
-      </c>
-      <c r="V11" s="0">
-        <v>-0.017330073096295924</v>
-      </c>
-      <c r="W11" s="0">
-        <v>0.017330073096295924</v>
-      </c>
-      <c r="X11" s="0">
-        <v>-0.01733007309629717</v>
-      </c>
-      <c r="Y11" s="0">
-        <v>0.01733007309629717</v>
-      </c>
-      <c r="Z11" s="0">
-        <v>-0.45534392478275532</v>
-      </c>
-      <c r="AA11" s="0">
-        <v>-1.0489799823004602</v>
-      </c>
-      <c r="AB11" s="0">
-        <v>-0.45534392478275376</v>
-      </c>
       <c r="AC11" s="0">
-        <v>1.0489799823004602</v>
+        <v>1.04897998230046</v>
       </c>
     </row>
     <row r="12">
@@ -1166,22 +1166,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.55379142634747713</v>
+        <v>-0.55379142634747802</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.55379142634747203</v>
+        <v>-0.55379142634747214</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.55379142634746414</v>
+        <v>-0.55379142634746359</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.35689642321803844</v>
+        <v>-0.35689642321803894</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.35689642321803627</v>
+        <v>-0.35689642321803527</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.35689642321803533</v>
+        <v>-0.35689642321803527</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -1196,28 +1196,28 @@
         <v>0</v>
       </c>
       <c r="L12" s="0">
-        <v>0</v>
+        <v>-3.2210747583277372e-16</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>3.2210747583277372e-16</v>
       </c>
       <c r="N12" s="0">
-        <v>0.030820533061833827</v>
+        <v>0.03082053306183364</v>
       </c>
       <c r="O12" s="0">
-        <v>0.030820533061834812</v>
+        <v>0.030820533061834795</v>
       </c>
       <c r="P12" s="0">
-        <v>0.030820533061836339</v>
+        <v>0.030820533061836443</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.10619838658211286</v>
+        <v>0.10619838658211253</v>
       </c>
       <c r="R12" s="0">
-        <v>0.10619838658211433</v>
+        <v>0.10619838658211499</v>
       </c>
       <c r="S12" s="0">
-        <v>0.10619838658211492</v>
+        <v>0.10619838658211499</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -1232,22 +1232,22 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>-2.1493076856385807e-16</v>
       </c>
       <c r="Y12" s="0">
-        <v>0</v>
+        <v>2.1493076856385807e-16</v>
       </c>
       <c r="Z12" s="0">
-        <v>-0.55379142634747058</v>
+        <v>-0.55379142634747014</v>
       </c>
       <c r="AA12" s="0">
-        <v>-1</v>
+        <v>-1.0000000000000002</v>
       </c>
       <c r="AB12" s="0">
-        <v>-0.35689642321803844</v>
+        <v>-0.35689642321803894</v>
       </c>
       <c r="AC12" s="0">
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -1255,22 +1255,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.61681595057091221</v>
+        <v>-0.61681595057091121</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.6168159505709101</v>
+        <v>-0.61681595057090988</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.61681595057089855</v>
+        <v>-0.61681595057089878</v>
       </c>
       <c r="E13" s="0">
         <v>-0.2938718989946047</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.29387189899459904</v>
+        <v>-0.29387189899459892</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.29387189899459826</v>
+        <v>-0.29387189899459842</v>
       </c>
       <c r="H13" s="0">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.02074253371830254</v>
+        <v>0.020742533718302661</v>
       </c>
       <c r="O13" s="0">
-        <v>0.020742533718302821</v>
+        <v>0.020742533718302841</v>
       </c>
       <c r="P13" s="0">
-        <v>0.020742533718304309</v>
+        <v>0.020742533718304288</v>
       </c>
       <c r="Q13" s="0">
         <v>0.15779609806681053</v>
       </c>
       <c r="R13" s="0">
-        <v>0.15779609806681616</v>
+        <v>0.15779609806681624</v>
       </c>
       <c r="S13" s="0">
-        <v>0.15779609806681694</v>
+        <v>0.15779609806681674</v>
       </c>
       <c r="T13" s="0">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.67181622037415312</v>
+        <v>-0.67181622037415267</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.67181622037412958</v>
+        <v>-0.67181622037412925</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.6718162203741177</v>
+        <v>-0.6718162203741167</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.23887162919138394</v>
+        <v>-0.23887162919138397</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.23887162919138316</v>
+        <v>-0.23887162919138324</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.23887162919138316</v>
+        <v>-0.23887162919138324</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
@@ -1374,28 +1374,28 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>-3.9617421975470456e-16</v>
+        <v>-3.9240890001260334e-16</v>
       </c>
       <c r="M14" s="0">
-        <v>3.9617421975470456e-16</v>
+        <v>3.9240890001260334e-16</v>
       </c>
       <c r="N14" s="0">
-        <v>0.014681812369845337</v>
+        <v>0.014681812369845377</v>
       </c>
       <c r="O14" s="0">
-        <v>0.014681812369847518</v>
+        <v>0.014681812369847551</v>
       </c>
       <c r="P14" s="0">
-        <v>0.014681812369848611</v>
+        <v>0.014681812369848703</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.2229350711148923</v>
+        <v>0.22293507111489225</v>
       </c>
       <c r="R14" s="0">
-        <v>0.22293507111489336</v>
+        <v>0.2229350711148933</v>
       </c>
       <c r="S14" s="0">
-        <v>0.22293507111489336</v>
+        <v>0.2229350711148933</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>-5.5493801285145268e-16</v>
+        <v>-5.4966376997738134e-16</v>
       </c>
       <c r="Y14" s="0">
-        <v>5.5493801285145268e-16</v>
+        <v>5.4966376997738134e-16</v>
       </c>
       <c r="Z14" s="0">
         <v>-0.67181622037412514</v>
@@ -1422,7 +1422,7 @@
         <v>-1.0000000000000005</v>
       </c>
       <c r="AB14" s="0">
-        <v>-0.23887162919138394</v>
+        <v>-0.23887162919138397</v>
       </c>
       <c r="AC14" s="0">
         <v>1.0000000000000005</v>
@@ -1433,16 +1433,16 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.7237648413218416</v>
+        <v>-0.72376484132184182</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.72376484132183327</v>
+        <v>-0.72376484132183339</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.7237648413218144</v>
+        <v>-0.72376484132181429</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.18692300824367133</v>
+        <v>-0.18692300824367131</v>
       </c>
       <c r="F15" s="0">
         <v>-0.18692300824366842</v>
@@ -1469,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.010593140427260056</v>
+        <v>0.010593140427260034</v>
       </c>
       <c r="O15" s="0">
-        <v>0.010593140427260605</v>
+        <v>0.010593140427260598</v>
       </c>
       <c r="P15" s="0">
-        <v>0.010593140427261864</v>
+        <v>0.010593140427261867</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.30898211038009132</v>
+        <v>0.30898211038009138</v>
       </c>
       <c r="R15" s="0">
-        <v>0.30898211038009699</v>
+        <v>0.30898211038009693</v>
       </c>
       <c r="S15" s="0">
         <v>0.30898211038009932</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>-0.72376484132183772</v>
+        <v>-0.72376484132183783</v>
       </c>
       <c r="AA15" s="0">
         <v>-1</v>
       </c>
       <c r="AB15" s="0">
-        <v>-0.18692300824367133</v>
+        <v>-0.18692300824367131</v>
       </c>
       <c r="AC15" s="0">
         <v>1</v>
@@ -1522,28 +1522,28 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.77412056578850319</v>
+        <v>-0.77412056578850186</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.77412056578850319</v>
+        <v>-0.77412056578850186</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.77412056578846755</v>
+        <v>-0.77412056578846888</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.13656728377700617</v>
+        <v>-0.1365672837770063</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.1365672837770025</v>
+        <v>-0.13656728377700256</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.13656728377700061</v>
+        <v>-0.13656728377700039</v>
       </c>
       <c r="H16" s="0">
-        <v>-5.39725210653059e-15</v>
+        <v>-9.0510342030364202e-15</v>
       </c>
       <c r="I16" s="0">
-        <v>5.39725210653059e-15</v>
+        <v>9.0510342030364202e-15</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -1558,28 +1558,28 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.007719984173997543</v>
+        <v>0.0077199841739976132</v>
       </c>
       <c r="O16" s="0">
-        <v>0.007719984173997543</v>
+        <v>0.0077199841739976132</v>
       </c>
       <c r="P16" s="0">
-        <v>0.0077199841739992716</v>
+        <v>0.0077199841739992127</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.42397637235992958</v>
+        <v>0.42397637235992924</v>
       </c>
       <c r="R16" s="0">
-        <v>0.42397637235993929</v>
+        <v>0.42397637235993918</v>
       </c>
       <c r="S16" s="0">
-        <v>0.42397637235994434</v>
+        <v>0.42397637235994495</v>
       </c>
       <c r="T16" s="0">
-        <v>-2.6179960255103664e-16</v>
+        <v>-4.3903028990690801e-16</v>
       </c>
       <c r="U16" s="0">
-        <v>2.6179960255103664e-16</v>
+        <v>4.3903028990690801e-16</v>
       </c>
       <c r="V16" s="0">
         <v>0</v>
@@ -1594,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>-0.77412056578850286</v>
+        <v>-0.77412056578850275</v>
       </c>
       <c r="AA16" s="0">
-        <v>-1.0000000000000053</v>
+        <v>-1.0000000000000091</v>
       </c>
       <c r="AB16" s="0">
-        <v>-0.13656728377700617</v>
+        <v>-0.1365672837770063</v>
       </c>
       <c r="AC16" s="0">
-        <v>1.0000000000000053</v>
+        <v>1.0000000000000091</v>
       </c>
     </row>
     <row r="17">
@@ -1611,28 +1611,28 @@
         <v>1.5</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.82357711669351685</v>
+        <v>-0.82357711669351841</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.82357711669351685</v>
+        <v>-0.82357711669351841</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.82357711669347811</v>
+        <v>-0.823577116693478</v>
       </c>
       <c r="E17" s="0">
         <v>-0.08711073287200577</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.087110732872004618</v>
+        <v>-0.08711073287200459</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.087110732872004618</v>
+        <v>-0.08711073287200459</v>
       </c>
       <c r="H17" s="0">
-        <v>-1.7058907264709963e-14</v>
+        <v>-1.610173602144067e-14</v>
       </c>
       <c r="I17" s="0">
-        <v>1.7058907264709963e-14</v>
+        <v>1.610173602144067e-14</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -1641,34 +1641,34 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>-9.5307921151803683e-16</v>
+        <v>-1.0346902501111341e-15</v>
       </c>
       <c r="M17" s="0">
-        <v>9.5307921151803683e-16</v>
+        <v>1.0346902501111341e-15</v>
       </c>
       <c r="N17" s="0">
-        <v>0.0056579839718407408</v>
+        <v>0.0056579839718406844</v>
       </c>
       <c r="O17" s="0">
-        <v>0.0056579839718407408</v>
+        <v>0.0056579839718406844</v>
       </c>
       <c r="P17" s="0">
-        <v>0.0056579839718421173</v>
+        <v>0.005657983971842119</v>
       </c>
       <c r="Q17" s="0">
         <v>0.57849066046442388</v>
       </c>
       <c r="R17" s="0">
-        <v>0.5784906604644281</v>
+        <v>0.57849066046442821</v>
       </c>
       <c r="S17" s="0">
-        <v>0.5784906604644281</v>
+        <v>0.57849066046442821</v>
       </c>
       <c r="T17" s="0">
-        <v>-6.064469127114506e-16</v>
+        <v>-5.7241932018107934e-16</v>
       </c>
       <c r="U17" s="0">
-        <v>6.064469127114506e-16</v>
+        <v>5.7241932018107934e-16</v>
       </c>
       <c r="V17" s="0">
         <v>0</v>
@@ -1677,22 +1677,22 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>-3.4642180244922711e-15</v>
+        <v>-3.7608548910560026e-15</v>
       </c>
       <c r="Y17" s="0">
-        <v>3.4642180244922711e-15</v>
+        <v>3.7608548910560026e-15</v>
       </c>
       <c r="Z17" s="0">
         <v>-0.82357711669350331</v>
       </c>
       <c r="AA17" s="0">
-        <v>-1.0000000000000171</v>
+        <v>-1.0000000000000162</v>
       </c>
       <c r="AB17" s="0">
         <v>-0.08711073287200577</v>
       </c>
       <c r="AC17" s="0">
-        <v>1.0000000000000171</v>
+        <v>1.0000000000000162</v>
       </c>
     </row>
     <row r="18">
@@ -1700,31 +1700,31 @@
         <v>1.6000000000000001</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.87258661357535472</v>
+        <v>-0.87258661357535294</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.87258661357524692</v>
+        <v>-0.87258661357524769</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.87258661357524692</v>
+        <v>-0.87258661357524769</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.038101235990285962</v>
+        <v>-0.038101235990285691</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.038101235990285462</v>
+        <v>-0.03810123599028533</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.038101235990284477</v>
+        <v>-0.038101235990284435</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>-1.8543521718001531e-14</v>
+        <v>-1.8618725367712832e-14</v>
       </c>
       <c r="J18" s="0">
-        <v>1.8543521718001531e-14</v>
+        <v>1.8618725367712832e-14</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -1736,31 +1736,31 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0.0041584062559797963</v>
+        <v>0.0041584062559798414</v>
       </c>
       <c r="O18" s="0">
-        <v>0.0041584062559826118</v>
+        <v>0.0041584062559825927</v>
       </c>
       <c r="P18" s="0">
-        <v>0.0041584062559826118</v>
+        <v>0.0041584062559825927</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.78710224140754304</v>
+        <v>0.78710224140754437</v>
       </c>
       <c r="R18" s="0">
-        <v>0.78710224140754548</v>
+        <v>0.78710224140754614</v>
       </c>
       <c r="S18" s="0">
-        <v>0.78710224140755036</v>
+        <v>0.78710224140755059</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>-4.8450582320627744e-16</v>
+        <v>-4.8647074695515069e-16</v>
       </c>
       <c r="V18" s="0">
-        <v>4.8450582320627744e-16</v>
+        <v>4.8647074695515069e-16</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="Z18" s="0">
-        <v>-0.87258661357522316</v>
+        <v>-0.87258661357522338</v>
       </c>
       <c r="AA18" s="0">
         <v>-1.0000000000000187</v>
       </c>
       <c r="AB18" s="0">
-        <v>-0.038101235990285962</v>
+        <v>-0.038101235990285691</v>
       </c>
       <c r="AC18" s="0">
         <v>1.0000000000000187</v>
@@ -1789,88 +1789,88 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.92148172390886629</v>
+        <v>-0.92148172390885941</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.92148172390877869</v>
+        <v>-0.92148172390877581</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.92148172390877869</v>
+        <v>-0.92148172390877581</v>
       </c>
       <c r="E19" s="0">
-        <v>0.01079387434329367</v>
+        <v>0.010793874343293571</v>
       </c>
       <c r="F19" s="0">
-        <v>0.01079387434329466</v>
+        <v>0.01079387434329453</v>
       </c>
       <c r="G19" s="0">
-        <v>0.01079387434329466</v>
+        <v>0.01079387434329453</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>-8.0687484334055122e-14</v>
+        <v>-8.2932515663286317e-14</v>
       </c>
       <c r="J19" s="0">
-        <v>8.0687484334055122e-14</v>
+        <v>8.2932515663286317e-14</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>-1.380481743655359e-15</v>
+        <v>-1.4789208908362786e-15</v>
       </c>
       <c r="M19" s="0">
-        <v>1.380481743655359e-15</v>
+        <v>1.4789208908362786e-15</v>
       </c>
       <c r="N19" s="0">
-        <v>0.0030584701821650033</v>
+        <v>0.0030584701821651347</v>
       </c>
       <c r="O19" s="0">
-        <v>0.0030584701821666873</v>
+        <v>0.0030584701821667398</v>
       </c>
       <c r="P19" s="0">
-        <v>0.0030584701821666873</v>
+        <v>0.0030584701821667398</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.0701725666160717</v>
+        <v>1.0701725666160711</v>
       </c>
       <c r="R19" s="0">
-        <v>1.0701725666160784</v>
+        <v>1.0701725666160775</v>
       </c>
       <c r="S19" s="0">
-        <v>1.0701725666160784</v>
+        <v>1.0701725666160775</v>
       </c>
       <c r="T19" s="0">
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>-1.5505661345828227e-15</v>
+        <v>-1.5937087555099241e-15</v>
       </c>
       <c r="V19" s="0">
-        <v>1.5505661345828227e-15</v>
+        <v>1.5937087555099241e-15</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>-9.2824870033805826e-15</v>
+        <v>-9.9444009392441682e-15</v>
       </c>
       <c r="Y19" s="0">
-        <v>9.2824870033805826e-15</v>
+        <v>9.9444009392441682e-15</v>
       </c>
       <c r="Z19" s="0">
         <v>-0.92148172390880268</v>
       </c>
       <c r="AA19" s="0">
-        <v>-1.0000000000000806</v>
+        <v>-1.0000000000000828</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.01079387434329367</v>
+        <v>0.010793874343293571</v>
       </c>
       <c r="AC19" s="0">
-        <v>1.0000000000000806</v>
+        <v>1.0000000000000828</v>
       </c>
     </row>
     <row r="20">
@@ -1878,28 +1878,28 @@
         <v>1.8</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.97049442158560528</v>
+        <v>-0.9704944215856115</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.97049442158560528</v>
+        <v>-0.9704944215856115</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.97049442158546007</v>
+        <v>-0.97049442158547983</v>
       </c>
       <c r="E20" s="0">
-        <v>0.059806572020101083</v>
+        <v>0.059806572020101277</v>
       </c>
       <c r="F20" s="0">
-        <v>0.059806572020105066</v>
+        <v>0.059806572020105017</v>
       </c>
       <c r="G20" s="0">
-        <v>0.059806572020105475</v>
+        <v>0.059806572020105406</v>
       </c>
       <c r="H20" s="0">
-        <v>-6.7240050518865274e-14</v>
+        <v>-7.9106181301297764e-14</v>
       </c>
       <c r="I20" s="0">
-        <v>6.7240050518865274e-14</v>
+        <v>7.9106181301297764e-14</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
@@ -1914,28 +1914,28 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0.0022478157986586616</v>
+        <v>0.0022478157986585735</v>
       </c>
       <c r="O20" s="0">
-        <v>0.0022478157986586616</v>
+        <v>0.0022478157986585735</v>
       </c>
       <c r="P20" s="0">
-        <v>0.0022478157986607111</v>
+        <v>0.0022478157986604332</v>
       </c>
       <c r="Q20" s="0">
-        <v>1.4561205979247962</v>
+        <v>1.456120597924798</v>
       </c>
       <c r="R20" s="0">
-        <v>1.4561205979248326</v>
+        <v>1.4561205979248322</v>
       </c>
       <c r="S20" s="0">
-        <v>1.4561205979248364</v>
+        <v>1.4561205979248357</v>
       </c>
       <c r="T20" s="0">
-        <v>-9.4966103422651769e-16</v>
+        <v>-1.1172516583285529e-15</v>
       </c>
       <c r="U20" s="0">
-        <v>9.4966103422651769e-16</v>
+        <v>1.1172516583285529e-15</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -1950,16 +1950,16 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>-0.97049442158561017</v>
+        <v>-0.97049442158561039</v>
       </c>
       <c r="AA20" s="0">
-        <v>-1.0000000000000673</v>
+        <v>-1.000000000000079</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.059806572020101083</v>
+        <v>0.059806572020101277</v>
       </c>
       <c r="AC20" s="0">
-        <v>1.0000000000000673</v>
+        <v>1.000000000000079</v>
       </c>
     </row>
     <row r="21">
@@ -1967,31 +1967,31 @@
         <v>1.9000000000000001</v>
       </c>
       <c r="B21" s="0">
-        <v>-1.0197519792289289</v>
+        <v>-1.0197519792289402</v>
       </c>
       <c r="C21" s="0">
-        <v>-1.0197519792289094</v>
+        <v>-1.0197519792289103</v>
       </c>
       <c r="D21" s="0">
-        <v>-1.0197519792289094</v>
+        <v>-1.0197519792289103</v>
       </c>
       <c r="E21" s="0">
-        <v>0.10906412966347866</v>
+        <v>0.10906412966347873</v>
       </c>
       <c r="F21" s="0">
-        <v>0.10906412966348289</v>
+        <v>0.10906412966348275</v>
       </c>
       <c r="G21" s="0">
-        <v>0.1090641296634843</v>
+        <v>0.10906412966348442</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
       </c>
       <c r="I21" s="0">
-        <v>-2.3367297225495288e-13</v>
+        <v>-2.4003756482171444e-13</v>
       </c>
       <c r="J21" s="0">
-        <v>2.3367297225495288e-13</v>
+        <v>2.4003756482171444e-13</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -2003,31 +2003,31 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0.0016494874876615006</v>
+        <v>0.0016494874876613833</v>
       </c>
       <c r="O21" s="0">
-        <v>0.0016494874876617038</v>
+        <v>0.0016494874876616951</v>
       </c>
       <c r="P21" s="0">
-        <v>0.0016494874876617038</v>
+        <v>0.0016494874876616951</v>
       </c>
       <c r="Q21" s="0">
-        <v>1.9843077981810355</v>
+        <v>1.9843077981810364</v>
       </c>
       <c r="R21" s="0">
-        <v>1.9843077981810884</v>
+        <v>1.9843077981810866</v>
       </c>
       <c r="S21" s="0">
-        <v>1.9843077981811059</v>
+        <v>1.9843077981811073</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
       </c>
       <c r="U21" s="0">
-        <v>-2.4217949907890299e-15</v>
+        <v>-2.4877578543921673e-15</v>
       </c>
       <c r="V21" s="0">
-        <v>2.4217949907890299e-15</v>
+        <v>2.4877578543921673e-15</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>0</v>
       </c>
       <c r="Z21" s="0">
-        <v>-1.0197519792289877</v>
+        <v>-1.019751979228988</v>
       </c>
       <c r="AA21" s="0">
-        <v>-1.0000000000002336</v>
+        <v>-1.00000000000024</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.10906412966347866</v>
+        <v>0.10906412966347873</v>
       </c>
       <c r="AC21" s="0">
-        <v>1.0000000000002336</v>
+        <v>1.00000000000024</v>
       </c>
     </row>
     <row r="22">
@@ -2056,19 +2056,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>-1.0692767938341308</v>
+        <v>-1.0692767938341727</v>
       </c>
       <c r="C22" s="0">
-        <v>-1.0692767938339054</v>
+        <v>-1.0692767938338732</v>
       </c>
       <c r="D22" s="0">
-        <v>-1.0692767938339054</v>
+        <v>-1.0692767938338732</v>
       </c>
       <c r="E22" s="0">
-        <v>0.15858894426865408</v>
+        <v>0.15858894426865405</v>
       </c>
       <c r="F22" s="0">
-        <v>0.15858894426865408</v>
+        <v>0.15858894426865405</v>
       </c>
       <c r="G22" s="0">
         <v>0.15858894426865494</v>
@@ -2077,34 +2077,34 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>-6.0009006647958648e-13</v>
+        <v>-6.2154907021788055e-13</v>
       </c>
       <c r="J22" s="0">
-        <v>6.0009006647958648e-13</v>
+        <v>6.2154907021788055e-13</v>
       </c>
       <c r="K22" s="0">
-        <v>-4.412892604556327e-16</v>
+        <v>-3.7746185948243229e-16</v>
       </c>
       <c r="L22" s="0">
-        <v>4.412892604556327e-16</v>
+        <v>3.7746185948243229e-16</v>
       </c>
       <c r="M22" s="0">
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>0.0012083925902650311</v>
+        <v>0.0012083925902647116</v>
       </c>
       <c r="O22" s="0">
-        <v>0.0012083925902667415</v>
+        <v>0.0012083925902669859</v>
       </c>
       <c r="P22" s="0">
-        <v>0.0012083925902667415</v>
+        <v>0.0012083925902669859</v>
       </c>
       <c r="Q22" s="0">
-        <v>2.7086320382437554</v>
+        <v>2.7086320382437545</v>
       </c>
       <c r="R22" s="0">
-        <v>2.7086320382437554</v>
+        <v>2.7086320382437545</v>
       </c>
       <c r="S22" s="0">
         <v>2.7086320382437701</v>
@@ -2113,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>-4.556216575742253e-15</v>
+        <v>-4.7191452326111788e-15</v>
       </c>
       <c r="V22" s="0">
-        <v>4.556216575742253e-15</v>
+        <v>4.7191452326111788e-15</v>
       </c>
       <c r="W22" s="0">
-        <v>-7.5102300046870965e-15</v>
+        <v>-6.4239618697789746e-15</v>
       </c>
       <c r="X22" s="0">
-        <v>7.5102300046870965e-15</v>
+        <v>6.4239618697789746e-15</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>-1.0692767938341632</v>
       </c>
       <c r="AA22" s="0">
-        <v>-1.0000000000006002</v>
+        <v>-1.0000000000006215</v>
       </c>
       <c r="AB22" s="0">
-        <v>0.15858894426865408</v>
+        <v>0.15858894426865405</v>
       </c>
       <c r="AC22" s="0">
-        <v>1.0000000000006002</v>
+        <v>1.0000000000006215</v>
       </c>
     </row>
     <row r="23">
@@ -2145,22 +2145,22 @@
         <v>2.1000000000000001</v>
       </c>
       <c r="B23" s="0">
-        <v>-1.1189973699712705</v>
+        <v>-1.1189973699712776</v>
       </c>
       <c r="C23" s="0">
-        <v>-1.1189973699700937</v>
+        <v>-1.1189973699700744</v>
       </c>
       <c r="D23" s="0">
-        <v>-1.1189973699697195</v>
+        <v>-1.1189973699696931</v>
       </c>
       <c r="E23" s="0">
-        <v>0.20830952040458947</v>
+        <v>0.20830952040458936</v>
       </c>
       <c r="F23" s="0">
-        <v>0.20830952040459433</v>
+        <v>0.20830952040459419</v>
       </c>
       <c r="G23" s="0">
-        <v>0.20830952040459433</v>
+        <v>0.20830952040459419</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -2175,28 +2175,28 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>-7.1883086871371765e-16</v>
+        <v>-7.6958460165480667e-16</v>
       </c>
       <c r="M23" s="0">
-        <v>7.1883086871371765e-16</v>
+        <v>7.6958460165480667e-16</v>
       </c>
       <c r="N23" s="0">
-        <v>0.00088416414004745703</v>
+        <v>0.00088416414004741746</v>
       </c>
       <c r="O23" s="0">
-        <v>0.00088416414005399553</v>
+        <v>0.00088416414005410211</v>
       </c>
       <c r="P23" s="0">
-        <v>0.00088416414005607427</v>
+        <v>0.00088416414005622053</v>
       </c>
       <c r="Q23" s="0">
-        <v>3.7019041335105119</v>
+        <v>3.7019041335105101</v>
       </c>
       <c r="R23" s="0">
-        <v>3.7019041335106246</v>
+        <v>3.7019041335106215</v>
       </c>
       <c r="S23" s="0">
-        <v>3.7019041335106246</v>
+        <v>3.7019041335106215</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>-1.6719826054349254e-14</v>
+        <v>-1.7900345176882727e-14</v>
       </c>
       <c r="Y23" s="0">
-        <v>1.6719826054349254e-14</v>
+        <v>1.7900345176882727e-14</v>
       </c>
       <c r="Z23" s="0">
-        <v>-1.1189973699700986</v>
+        <v>-1.1189973699700984</v>
       </c>
       <c r="AA23" s="0">
         <v>-1.0000000000000007</v>
       </c>
       <c r="AB23" s="0">
-        <v>0.20830952040458947</v>
+        <v>0.20830952040458936</v>
       </c>
       <c r="AC23" s="0">
         <v>1.0000000000000007</v>
@@ -2234,13 +2234,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B24" s="0">
-        <v>-1.168769061072781</v>
+        <v>-1.1687690610730051</v>
       </c>
       <c r="C24" s="0">
-        <v>-1.168769061072781</v>
+        <v>-1.1687690610726085</v>
       </c>
       <c r="D24" s="0">
-        <v>-1.1687690610727106</v>
+        <v>-1.1687690610726085</v>
       </c>
       <c r="E24" s="0">
         <v>0.25808121150772417</v>
@@ -2249,34 +2249,34 @@
         <v>0.25808121150772417</v>
       </c>
       <c r="G24" s="0">
-        <v>0.25808121150772667</v>
+        <v>0.25808121150772656</v>
       </c>
       <c r="H24" s="0">
-        <v>-1.0988380189935256e-12</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>1.0988380189935256e-12</v>
+        <v>-1.1427045506236382e-12</v>
       </c>
       <c r="J24" s="0">
-        <v>0</v>
+        <v>1.1427045506236382e-12</v>
       </c>
       <c r="K24" s="0">
-        <v>-4.2556973386419312e-16</v>
+        <v>-4.5219090303849863e-16</v>
       </c>
       <c r="L24" s="0">
-        <v>4.2556973386419312e-16</v>
+        <v>4.5219090303849863e-16</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0.00064672293076735107</v>
+        <v>0.00064672293076644088</v>
       </c>
       <c r="O24" s="0">
-        <v>0.00064672293076735107</v>
+        <v>0.00064672293076805179</v>
       </c>
       <c r="P24" s="0">
-        <v>0.00064672293076763741</v>
+        <v>0.00064672293076805179</v>
       </c>
       <c r="Q24" s="0">
         <v>5.0610404070461197</v>
@@ -2285,22 +2285,22 @@
         <v>5.0610404070461197</v>
       </c>
       <c r="S24" s="0">
-        <v>5.0610404070461996</v>
+        <v>5.061040407046197</v>
       </c>
       <c r="T24" s="0">
-        <v>-4.4651063314556341e-15</v>
+        <v>0</v>
       </c>
       <c r="U24" s="0">
-        <v>4.4651063314556341e-15</v>
+        <v>-4.6433571061289999e-15</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>4.6433571061289999e-15</v>
       </c>
       <c r="W24" s="0">
-        <v>-1.3532885484172085e-14</v>
+        <v>-1.437942414804618e-14</v>
       </c>
       <c r="X24" s="0">
-        <v>1.3532885484172085e-14</v>
+        <v>1.437942414804618e-14</v>
       </c>
       <c r="Y24" s="0">
         <v>0</v>
@@ -2309,13 +2309,13 @@
         <v>-1.1687690610732333</v>
       </c>
       <c r="AA24" s="0">
-        <v>-1.0000000000010989</v>
+        <v>-1.0000000000011427</v>
       </c>
       <c r="AB24" s="0">
         <v>0.25808121150772417</v>
       </c>
       <c r="AC24" s="0">
-        <v>1.0000000000010989</v>
+        <v>1.0000000000011427</v>
       </c>
     </row>
     <row r="25">
@@ -2323,19 +2323,19 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="B25" s="0">
-        <v>-1.2183994827593354</v>
+        <v>-1.2183994827594473</v>
       </c>
       <c r="C25" s="0">
-        <v>-1.218399482757577</v>
+        <v>-1.2183994827575564</v>
       </c>
       <c r="D25" s="0">
-        <v>-1.218399482757577</v>
+        <v>-1.2183994827575564</v>
       </c>
       <c r="E25" s="0">
-        <v>0.30771163319269834</v>
+        <v>0.3077116331926984</v>
       </c>
       <c r="F25" s="0">
-        <v>0.30771163319269945</v>
+        <v>0.3077116331926994</v>
       </c>
       <c r="G25" s="0">
         <v>0.30771163319270156</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>-3.6367052550805904e-13</v>
+        <v>-4.5123711531476047e-13</v>
       </c>
       <c r="J25" s="0">
-        <v>3.6367052550805904e-13</v>
+        <v>4.5123711531476047e-13</v>
       </c>
       <c r="K25" s="0">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>0.00047346634339073823</v>
+        <v>0.00047346634339040517</v>
       </c>
       <c r="O25" s="0">
-        <v>0.0004734663433959694</v>
+        <v>0.00047346634339603066</v>
       </c>
       <c r="P25" s="0">
-        <v>0.0004734663433959694</v>
+        <v>0.00047346634339603066</v>
       </c>
       <c r="Q25" s="0">
-        <v>6.913038129181583</v>
+        <v>6.9130381291815857</v>
       </c>
       <c r="R25" s="0">
-        <v>6.9130381291816319</v>
+        <v>6.9130381291816283</v>
       </c>
       <c r="S25" s="0">
         <v>6.9130381291817225</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="U25" s="0">
-        <v>-1.0818749990930037e-15</v>
+        <v>-1.3423748131359933e-15</v>
       </c>
       <c r="V25" s="0">
-        <v>1.0818749990930037e-15</v>
+        <v>1.3423748131359933e-15</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
@@ -2398,13 +2398,13 @@
         <v>-1.2183994827582074</v>
       </c>
       <c r="AA25" s="0">
-        <v>-1.0000000000003637</v>
+        <v>-1.0000000000004512</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.30771163319269834</v>
+        <v>0.3077116331926984</v>
       </c>
       <c r="AC25" s="0">
-        <v>1.0000000000003637</v>
+        <v>1.0000000000004512</v>
       </c>
     </row>
     <row r="26">
@@ -2412,28 +2412,28 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="B26" s="0">
-        <v>-1.2676731399938235</v>
+        <v>-1.2676731399932446</v>
       </c>
       <c r="C26" s="0">
-        <v>-1.2676731399938235</v>
+        <v>-1.2676731399932446</v>
       </c>
       <c r="D26" s="0">
-        <v>-1.2676731399894805</v>
+        <v>-1.2676731399897856</v>
       </c>
       <c r="E26" s="0">
-        <v>0.35698529042494104</v>
+        <v>0.35698529042494087</v>
       </c>
       <c r="F26" s="0">
-        <v>0.35698529042494437</v>
+        <v>0.3569852904249442</v>
       </c>
       <c r="G26" s="0">
-        <v>0.35698529042494503</v>
+        <v>0.35698529042494492</v>
       </c>
       <c r="H26" s="0">
-        <v>-2.1117402507466482e-12</v>
+        <v>-1.1037090318082387e-12</v>
       </c>
       <c r="I26" s="0">
-        <v>2.1117402507466482e-12</v>
+        <v>1.1037090318082387e-12</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -2448,28 +2448,28 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>0.00034740293784980684</v>
+        <v>0.00034740293785107048</v>
       </c>
       <c r="O26" s="0">
-        <v>0.00034740293784980684</v>
+        <v>0.00034740293785107048</v>
       </c>
       <c r="P26" s="0">
-        <v>0.00034740293785928689</v>
+        <v>0.00034740293785862075</v>
       </c>
       <c r="Q26" s="0">
-        <v>9.4215981734536633</v>
+        <v>9.4215981734536563</v>
       </c>
       <c r="R26" s="0">
-        <v>9.4215981734538623</v>
+        <v>9.4215981734538534</v>
       </c>
       <c r="S26" s="0">
-        <v>9.4215981734539032</v>
+        <v>9.4215981734538961</v>
       </c>
       <c r="T26" s="0">
-        <v>-4.6095003575319788e-15</v>
+        <v>-2.4091728018874723e-15</v>
       </c>
       <c r="U26" s="0">
-        <v>4.6095003575319788e-15</v>
+        <v>2.4091728018874723e-15</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="Z26" s="0">
-        <v>-1.2676731399904502</v>
+        <v>-1.2676731399904499</v>
       </c>
       <c r="AA26" s="0">
-        <v>-1.0000000000021117</v>
+        <v>-1.0000000000011038</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.35698529042494104</v>
+        <v>0.35698529042494087</v>
       </c>
       <c r="AC26" s="0">
-        <v>1.0000000000021117</v>
+        <v>1.0000000000011038</v>
       </c>
     </row>
     <row r="27">
@@ -2501,13 +2501,13 @@
         <v>2.5</v>
       </c>
       <c r="B27" s="0">
-        <v>-1.3163713946913833</v>
+        <v>-1.3163713946909452</v>
       </c>
       <c r="C27" s="0">
-        <v>-1.3163713946874205</v>
+        <v>-1.316371394688068</v>
       </c>
       <c r="D27" s="0">
-        <v>-1.3163713946874205</v>
+        <v>-1.316371394688068</v>
       </c>
       <c r="E27" s="0">
         <v>0.40568354512593696</v>
@@ -2516,16 +2516,16 @@
         <v>0.40568354512594451</v>
       </c>
       <c r="G27" s="0">
-        <v>0.40568354512594529</v>
+        <v>0.40568354512594546</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
       </c>
       <c r="I27" s="0">
-        <v>-1.1472376040548702e-11</v>
+        <v>-1.1571130677142123e-11</v>
       </c>
       <c r="J27" s="0">
-        <v>1.1472376040548702e-11</v>
+        <v>1.1571130677142123e-11</v>
       </c>
       <c r="K27" s="0">
         <v>0</v>
@@ -2537,31 +2537,31 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0.00025582795097759602</v>
+        <v>0.0002558279509783001</v>
       </c>
       <c r="O27" s="0">
-        <v>0.00025582795098396592</v>
+        <v>0.00025582795098292525</v>
       </c>
       <c r="P27" s="0">
-        <v>0.00025582795098396592</v>
+        <v>0.00025582795098292525</v>
       </c>
       <c r="Q27" s="0">
-        <v>12.794109761116303</v>
+        <v>12.794109761116299</v>
       </c>
       <c r="R27" s="0">
-        <v>12.794109761116911</v>
+        <v>12.794109761116907</v>
       </c>
       <c r="S27" s="0">
-        <v>12.794109761116973</v>
+        <v>12.794109761116982</v>
       </c>
       <c r="T27" s="0">
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>-1.8440862711229076e-14</v>
+        <v>-1.8599602338330896e-14</v>
       </c>
       <c r="V27" s="0">
-        <v>1.8440862711229076e-14</v>
+        <v>1.8599602338330896e-14</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>-1.3163713946914459</v>
       </c>
       <c r="AA27" s="0">
-        <v>-1.0000000000114724</v>
+        <v>-1.0000000000115712</v>
       </c>
       <c r="AB27" s="0">
         <v>0.40568354512593696</v>
       </c>
       <c r="AC27" s="0">
-        <v>1.0000000000114724</v>
+        <v>1.0000000000115712</v>
       </c>
     </row>
     <row r="28">
@@ -2590,22 +2590,22 @@
         <v>2.6000000000000001</v>
       </c>
       <c r="B28" s="0">
-        <v>-1.3642860804128394</v>
+        <v>-1.3642860804119712</v>
       </c>
       <c r="C28" s="0">
-        <v>-1.364286080393196</v>
+        <v>-1.3642860803958821</v>
       </c>
       <c r="D28" s="0">
-        <v>-1.3642860803930717</v>
+        <v>-1.3642860803917236</v>
       </c>
       <c r="E28" s="0">
-        <v>0.45359823083294598</v>
+        <v>0.45359823083294609</v>
       </c>
       <c r="F28" s="0">
         <v>0.45359823083295753</v>
       </c>
       <c r="G28" s="0">
-        <v>0.45359823083296069</v>
+        <v>0.45359823083296075</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -2626,22 +2626,22 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>0.00018932181704275577</v>
+        <v>0.00018932181704378869</v>
       </c>
       <c r="O28" s="0">
-        <v>0.00018932181706612228</v>
+        <v>0.00018932181706292724</v>
       </c>
       <c r="P28" s="0">
-        <v>0.00018932181706627052</v>
+        <v>0.00018932181706787386</v>
       </c>
       <c r="Q28" s="0">
-        <v>17.28850343609659</v>
+        <v>17.288503436096605</v>
       </c>
       <c r="R28" s="0">
-        <v>17.288503436097848</v>
+        <v>17.288503436097844</v>
       </c>
       <c r="S28" s="0">
-        <v>17.288503436098186</v>
+        <v>17.288503436098193</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -2662,13 +2662,13 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>-1.3642860803984549</v>
+        <v>-1.3642860803984553</v>
       </c>
       <c r="AA28" s="0">
         <v>-1</v>
       </c>
       <c r="AB28" s="0">
-        <v>0.45359823083294598</v>
+        <v>0.45359823083294609</v>
       </c>
       <c r="AC28" s="0">
         <v>1</v>
@@ -2679,19 +2679,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="B29" s="0">
-        <v>-1.4112268676219222</v>
+        <v>-1.4112268676179083</v>
       </c>
       <c r="C29" s="0">
-        <v>-1.4112268675999564</v>
+        <v>-1.411226867602198</v>
       </c>
       <c r="D29" s="0">
-        <v>-1.4112268675999564</v>
+        <v>-1.411226867602198</v>
       </c>
       <c r="E29" s="0">
-        <v>0.50053901804061973</v>
+        <v>0.50053901804061984</v>
       </c>
       <c r="F29" s="0">
-        <v>0.50053901804062628</v>
+        <v>0.50053901804062639</v>
       </c>
       <c r="G29" s="0">
         <v>0.50053901804062839</v>
@@ -2700,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>-1.1398393586764151e-11</v>
+        <v>-9.6690918159490695e-12</v>
       </c>
       <c r="J29" s="0">
-        <v>1.1398393586764151e-11</v>
+        <v>9.6690918159490695e-12</v>
       </c>
       <c r="K29" s="0">
         <v>0</v>
@@ -2715,31 +2715,31 @@
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>0.00014096485982598709</v>
+        <v>0.00014096485982954227</v>
       </c>
       <c r="O29" s="0">
-        <v>0.00014096485984544248</v>
+        <v>0.000140964859843457</v>
       </c>
       <c r="P29" s="0">
-        <v>0.00014096485984544248</v>
+        <v>0.000140964859843457</v>
       </c>
       <c r="Q29" s="0">
-        <v>23.219197241661451</v>
+        <v>23.219197241661465</v>
       </c>
       <c r="R29" s="0">
-        <v>23.219197241662407</v>
+        <v>23.219197241662414</v>
       </c>
       <c r="S29" s="0">
-        <v>23.219197241662709</v>
+        <v>23.219197241662712</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>-1.0095652219194069e-14</v>
+        <v>-8.5639952248406529e-15</v>
       </c>
       <c r="V29" s="0">
-        <v>1.0095652219194069e-14</v>
+        <v>8.5639952248406529e-15</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>-1.4112268676061288</v>
       </c>
       <c r="AA29" s="0">
-        <v>-1.0000000000113984</v>
+        <v>-1.0000000000096692</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.50053901804061973</v>
+        <v>0.50053901804061984</v>
       </c>
       <c r="AC29" s="0">
-        <v>1.0000000000113984</v>
+        <v>1.0000000000096692</v>
       </c>
     </row>
     <row r="30">
@@ -2768,22 +2768,22 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="B30" s="0">
-        <v>-1.4570235054284373</v>
+        <v>-1.4570235054257657</v>
       </c>
       <c r="C30" s="0">
-        <v>-1.4570235053602869</v>
+        <v>-1.4570235053586693</v>
       </c>
       <c r="D30" s="0">
-        <v>-1.4570235053126883</v>
+        <v>-1.4570235053133289</v>
       </c>
       <c r="E30" s="0">
-        <v>0.54633565579967203</v>
+        <v>0.54633565579967214</v>
       </c>
       <c r="F30" s="0">
-        <v>0.54633565579967891</v>
+        <v>0.54633565579967902</v>
       </c>
       <c r="G30" s="0">
-        <v>0.54633565579968235</v>
+        <v>0.54633565579968246</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0.00010571659446529744</v>
+        <v>0.00010571659446707213</v>
       </c>
       <c r="O30" s="0">
-        <v>0.0001057165945105654</v>
+        <v>0.00010571659451164007</v>
       </c>
       <c r="P30" s="0">
-        <v>0.00010571659454218231</v>
+        <v>0.00010571659454175673</v>
       </c>
       <c r="Q30" s="0">
-        <v>30.960994345510102</v>
+        <v>30.96099434551013</v>
       </c>
       <c r="R30" s="0">
-        <v>30.960994345511452</v>
+        <v>30.960994345511466</v>
       </c>
       <c r="S30" s="0">
-        <v>30.960994345512105</v>
+        <v>30.960994345512137</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>-1</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.54633565579967203</v>
+        <v>0.54633565579967214</v>
       </c>
       <c r="AC30" s="0">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="B31" s="0">
-        <v>-1.5015243734766757</v>
+        <v>-1.5015243734735579</v>
       </c>
       <c r="C31" s="0">
-        <v>-1.501524373407737</v>
+        <v>-1.5015243734038179</v>
       </c>
       <c r="D31" s="0">
         <v>-1.5015243733465333</v>
@@ -2869,10 +2869,10 @@
         <v>0.59083652383153329</v>
       </c>
       <c r="F31" s="0">
-        <v>0.59083652383153818</v>
+        <v>0.59083652383153806</v>
       </c>
       <c r="G31" s="0">
-        <v>0.59083652383154106</v>
+        <v>0.59083652383154139</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>7.9930273722805031e-05</v>
+        <v>7.9930273724370863e-05</v>
       </c>
       <c r="O31" s="0">
-        <v>7.9930273757427184e-05</v>
+        <v>7.9930273759395445e-05</v>
       </c>
       <c r="P31" s="0">
         <v>7.9930273788164641e-05</v>
@@ -2905,10 +2905,10 @@
         <v>40.949326590333023</v>
       </c>
       <c r="R31" s="0">
-        <v>40.949326590334287</v>
+        <v>40.949326590334273</v>
       </c>
       <c r="S31" s="0">
-        <v>40.949326590335048</v>
+        <v>40.949326590335112</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -2946,19 +2946,19 @@
         <v>3</v>
       </c>
       <c r="B32" s="0">
-        <v>-1.5445926293419472</v>
+        <v>-1.5445926293538217</v>
       </c>
       <c r="C32" s="0">
-        <v>-1.5445926293354817</v>
+        <v>-1.5445926293308456</v>
       </c>
       <c r="D32" s="0">
-        <v>-1.5445926292168988</v>
+        <v>-1.5445926292279004</v>
       </c>
       <c r="E32" s="0">
         <v>0.63390477970272796</v>
       </c>
       <c r="F32" s="0">
-        <v>0.63390477970273107</v>
+        <v>0.63390477970273118</v>
       </c>
       <c r="G32" s="0">
         <v>0.63390477970274184</v>
@@ -2982,22 +2982,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>6.0980176973056356e-05</v>
+        <v>6.0980176968506691e-05</v>
       </c>
       <c r="O32" s="0">
-        <v>6.0980176975533595e-05</v>
+        <v>6.0980176977309952e-05</v>
       </c>
       <c r="P32" s="0">
-        <v>6.0980177020968619e-05</v>
+        <v>6.0980177016753295e-05</v>
       </c>
       <c r="Q32" s="0">
-        <v>53.674670125963445</v>
+        <v>53.674670125963424</v>
       </c>
       <c r="R32" s="0">
-        <v>53.674670125964497</v>
+        <v>53.674670125964525</v>
       </c>
       <c r="S32" s="0">
-        <v>53.674670125968113</v>
+        <v>53.674670125968085</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>3.1000000000000001</v>
       </c>
       <c r="B33" s="0">
-        <v>-1.5861008772755065</v>
+        <v>-1.5861008773019321</v>
       </c>
       <c r="C33" s="0">
-        <v>-1.5861008772523979</v>
+        <v>-1.5861008772215828</v>
       </c>
       <c r="D33" s="0">
-        <v>-1.5861008769123426</v>
+        <v>-1.586100876893022</v>
       </c>
       <c r="E33" s="0">
-        <v>0.67541302758190958</v>
+        <v>0.6754130275819098</v>
       </c>
       <c r="F33" s="0">
         <v>0.67541302758192268</v>
@@ -3071,22 +3071,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>4.6981073549022575e-05</v>
+        <v>4.6981073541221997e-05</v>
       </c>
       <c r="O33" s="0">
-        <v>4.6981073555844009e-05</v>
+        <v>4.6981073564940397e-05</v>
       </c>
       <c r="P33" s="0">
-        <v>4.6981073656225246e-05</v>
+        <v>4.6981073661928468e-05</v>
       </c>
       <c r="Q33" s="0">
-        <v>69.668286288052798</v>
+        <v>69.66828628805284</v>
       </c>
       <c r="R33" s="0">
-        <v>69.668286288058511</v>
+        <v>69.668286288058496</v>
       </c>
       <c r="S33" s="0">
-        <v>69.668286288061097</v>
+        <v>69.668286288061111</v>
       </c>
       <c r="T33" s="0">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>-1</v>
       </c>
       <c r="AB33" s="0">
-        <v>0.67541302758190958</v>
+        <v>0.6754130275819098</v>
       </c>
       <c r="AC33" s="0">
         <v>1</v>
@@ -3124,22 +3124,22 @@
         <v>3.2000000000000002</v>
       </c>
       <c r="B34" s="0">
-        <v>-1.625924880814648</v>
+        <v>-1.6259248808069831</v>
       </c>
       <c r="C34" s="0">
-        <v>-1.6259248804174185</v>
+        <v>-1.6259248804016802</v>
       </c>
       <c r="D34" s="0">
-        <v>-1.625924879981272</v>
+        <v>-1.6259248800397885</v>
       </c>
       <c r="E34" s="0">
         <v>0.71523703079773204</v>
       </c>
       <c r="F34" s="0">
-        <v>0.71523703079773415</v>
+        <v>0.71523703079773393</v>
       </c>
       <c r="G34" s="0">
-        <v>0.71523703079774848</v>
+        <v>0.71523703079774859</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -3160,22 +3160,22 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>3.6580789891048469e-05</v>
+        <v>3.6580789892810244e-05</v>
       </c>
       <c r="O34" s="0">
-        <v>3.658078998234927e-05</v>
+        <v>3.6580789985966616e-05</v>
       </c>
       <c r="P34" s="0">
-        <v>3.6580790082594867e-05</v>
+        <v>3.658079006914521e-05</v>
       </c>
       <c r="Q34" s="0">
-        <v>89.475675217311661</v>
+        <v>89.475675217311732</v>
       </c>
       <c r="R34" s="0">
-        <v>89.475675217312883</v>
+        <v>89.475675217312713</v>
       </c>
       <c r="S34" s="0">
-        <v>89.475675217320926</v>
+        <v>89.475675217320998</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -3213,31 +3213,31 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="B35" s="0">
-        <v>-1.6639364586768071</v>
+        <v>-1.6639364585451031</v>
       </c>
       <c r="C35" s="0">
-        <v>-1.6639364582865099</v>
+        <v>-1.6639364582855831</v>
       </c>
       <c r="D35" s="0">
-        <v>-1.6639364582865099</v>
+        <v>-1.6639364582855831</v>
       </c>
       <c r="E35" s="0">
         <v>0.75324860903474034</v>
       </c>
       <c r="F35" s="0">
-        <v>0.75324860903474689</v>
+        <v>0.75324860903474677</v>
       </c>
       <c r="G35" s="0">
-        <v>0.75324860903476176</v>
+        <v>0.75324860903476187</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>-5.4234754411220516e-10</v>
+        <v>-5.2269641822460244e-10</v>
       </c>
       <c r="J35" s="0">
-        <v>5.4234754411220516e-10</v>
+        <v>5.2269641822460244e-10</v>
       </c>
       <c r="K35" s="0">
         <v>0</v>
@@ -3249,31 +3249,31 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>2.8809046394102334e-05</v>
+        <v>2.8809046417942357e-05</v>
       </c>
       <c r="O35" s="0">
-        <v>2.8809046464750987e-05</v>
+        <v>2.8809046464918733e-05</v>
       </c>
       <c r="P35" s="0">
-        <v>2.8809046464750987e-05</v>
+        <v>2.8809046464918733e-05</v>
       </c>
       <c r="Q35" s="0">
-        <v>113.61330182255425</v>
+        <v>113.61330182255423</v>
       </c>
       <c r="R35" s="0">
-        <v>113.6133018225589</v>
+        <v>113.61330182255882</v>
       </c>
       <c r="S35" s="0">
-        <v>113.61330182256953</v>
+        <v>113.61330182256955</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>-9.8171726839489864e-14</v>
+        <v>-9.4614625893111733e-14</v>
       </c>
       <c r="V35" s="0">
-        <v>9.8171726839489864e-14</v>
+        <v>9.4614625893111733e-14</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -3288,13 +3288,13 @@
         <v>-1.6639364586002494</v>
       </c>
       <c r="AA35" s="0">
-        <v>-1.0000000005423475</v>
+        <v>-1.0000000005226963</v>
       </c>
       <c r="AB35" s="0">
         <v>0.75324860903474034</v>
       </c>
       <c r="AC35" s="0">
-        <v>1.0000000005423475</v>
+        <v>1.0000000005226963</v>
       </c>
     </row>
     <row r="36">
@@ -3302,28 +3302,28 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="B36" s="0">
-        <v>-1.6999953531013672</v>
+        <v>-1.6999953529765521</v>
       </c>
       <c r="C36" s="0">
-        <v>-1.6999953531013672</v>
+        <v>-1.6999953529765521</v>
       </c>
       <c r="D36" s="0">
-        <v>-1.6999953520844391</v>
+        <v>-1.6999953522023112</v>
       </c>
       <c r="E36" s="0">
-        <v>0.78930750266384242</v>
+        <v>0.78930750266384209</v>
       </c>
       <c r="F36" s="0">
-        <v>0.78930750266384997</v>
+        <v>0.7893075026638503</v>
       </c>
       <c r="G36" s="0">
-        <v>0.78930750266388861</v>
+        <v>0.78930750266388872</v>
       </c>
       <c r="H36" s="0">
-        <v>-3.8581943503858713e-10</v>
+        <v>-5.0392942969507815e-10</v>
       </c>
       <c r="I36" s="0">
-        <v>3.8581943503858713e-10</v>
+        <v>5.0392942969507815e-10</v>
       </c>
       <c r="J36" s="0">
         <v>0</v>
@@ -3338,28 +3338,28 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>2.2968523452781165e-05</v>
+        <v>2.2968523470793921e-05</v>
       </c>
       <c r="O36" s="0">
-        <v>2.2968523452781165e-05</v>
+        <v>2.2968523470793921e-05</v>
       </c>
       <c r="P36" s="0">
-        <v>2.2968523599539659e-05</v>
+        <v>2.2968523582528873e-05</v>
       </c>
       <c r="Q36" s="0">
-        <v>142.5033208409331</v>
+        <v>142.50332084093279</v>
       </c>
       <c r="R36" s="0">
-        <v>142.50332084093989</v>
+        <v>142.50332084094009</v>
       </c>
       <c r="S36" s="0">
-        <v>142.50332084097445</v>
+        <v>142.5033208409746</v>
       </c>
       <c r="T36" s="0">
-        <v>-5.5679720466525886e-14</v>
+        <v>-7.2724822168370377e-14</v>
       </c>
       <c r="U36" s="0">
-        <v>5.5679720466525886e-14</v>
+        <v>7.2724822168370377e-14</v>
       </c>
       <c r="V36" s="0">
         <v>0</v>
@@ -3374,16 +3374,16 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>-1.6999953522293514</v>
+        <v>-1.699995352229351</v>
       </c>
       <c r="AA36" s="0">
-        <v>-1.0000000003858194</v>
+        <v>-1.0000000005039293</v>
       </c>
       <c r="AB36" s="0">
-        <v>0.78930750266384242</v>
+        <v>0.78930750266384209</v>
       </c>
       <c r="AC36" s="0">
-        <v>1.0000000003858194</v>
+        <v>1.0000000005039293</v>
       </c>
     </row>
     <row r="37">
@@ -3391,22 +3391,22 @@
         <v>3.5</v>
       </c>
       <c r="B37" s="0">
-        <v>-1.7339394530532486</v>
+        <v>-1.7339394529708148</v>
       </c>
       <c r="C37" s="0">
-        <v>-1.7339394526389633</v>
+        <v>-1.7339394527879326</v>
       </c>
       <c r="D37" s="0">
-        <v>-1.7339394514513644</v>
+        <v>-1.7339394513875028</v>
       </c>
       <c r="E37" s="0">
-        <v>0.82325160238043682</v>
+        <v>0.82325160238043749</v>
       </c>
       <c r="F37" s="0">
-        <v>0.82325160238044004</v>
+        <v>0.8232516023804396</v>
       </c>
       <c r="G37" s="0">
-        <v>0.82325160238049411</v>
+        <v>0.82325160238049433</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="N37" s="0">
-        <v>1.855701088626114e-05</v>
+        <v>1.8557010895872666e-05</v>
       </c>
       <c r="O37" s="0">
-        <v>1.8557010934565582e-05</v>
+        <v>1.8557010917196206e-05</v>
       </c>
       <c r="P37" s="0">
-        <v>1.8557011073036255e-05</v>
+        <v>1.8557011080482325e-05</v>
       </c>
       <c r="Q37" s="0">
-        <v>176.3802846297113</v>
+        <v>176.38028462971204</v>
       </c>
       <c r="R37" s="0">
-        <v>176.38028462971488</v>
+        <v>176.38028462971428</v>
       </c>
       <c r="S37" s="0">
-        <v>176.38028462977491</v>
+        <v>176.38028462977496</v>
       </c>
       <c r="T37" s="0">
         <v>0</v>
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>-1.7339394519459459</v>
+        <v>-1.7339394519459463</v>
       </c>
       <c r="AA37" s="0">
         <v>-1</v>
       </c>
       <c r="AB37" s="0">
-        <v>0.82325160238043682</v>
+        <v>0.82325160238043749</v>
       </c>
       <c r="AC37" s="0">
         <v>1</v>
@@ -3569,28 +3569,28 @@
         <v>3.7000000000000002</v>
       </c>
       <c r="B39" s="0">
-        <v>-1.7946458326102055</v>
+        <v>-1.7946458327553398</v>
       </c>
       <c r="C39" s="0">
-        <v>-1.7946458326102055</v>
+        <v>-1.7946458327553398</v>
       </c>
       <c r="D39" s="0">
-        <v>-1.7946458315076059</v>
+        <v>-1.7946458313494691</v>
       </c>
       <c r="E39" s="0">
-        <v>0.88395798283309923</v>
+        <v>0.88395798283309934</v>
       </c>
       <c r="F39" s="0">
-        <v>0.88395798283310068</v>
+        <v>0.88395798283310079</v>
       </c>
       <c r="G39" s="0">
         <v>0.88395798283315297</v>
       </c>
       <c r="H39" s="0">
-        <v>-6.6764279313088503e-09</v>
+        <v>-6.7325201958492043e-09</v>
       </c>
       <c r="I39" s="0">
-        <v>6.6764279313088503e-09</v>
+        <v>6.7325201958492043e-09</v>
       </c>
       <c r="J39" s="0">
         <v>0</v>
@@ -3605,28 +3605,28 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>1.2672296475611974e-05</v>
+        <v>1.2672296464056061e-05</v>
       </c>
       <c r="O39" s="0">
-        <v>1.2672296475611974e-05</v>
+        <v>1.2672296464056061e-05</v>
       </c>
       <c r="P39" s="0">
-        <v>1.2672296563403605e-05</v>
+        <v>1.2672296575994855e-05</v>
       </c>
       <c r="Q39" s="0">
-        <v>258.28711368259667</v>
+        <v>258.28711368259684</v>
       </c>
       <c r="R39" s="0">
-        <v>258.28711368259894</v>
+        <v>258.28711368259917</v>
       </c>
       <c r="S39" s="0">
-        <v>258.2871136826837</v>
+        <v>258.28711368268375</v>
       </c>
       <c r="T39" s="0">
-        <v>-5.3159312868310725e-13</v>
+        <v>-5.3605932819054574e-13</v>
       </c>
       <c r="U39" s="0">
-        <v>5.3159312868310725e-13</v>
+        <v>5.3605932819054574e-13</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>-1.7946458323986083</v>
       </c>
       <c r="AA39" s="0">
-        <v>-1.0000000066764279</v>
+        <v>-1.0000000067325201</v>
       </c>
       <c r="AB39" s="0">
-        <v>0.88395798283309923</v>
+        <v>0.88395798283309934</v>
       </c>
       <c r="AC39" s="0">
-        <v>1.0000000066764279</v>
+        <v>1.0000000067325201</v>
       </c>
     </row>
     <row r="40">
@@ -3658,13 +3658,13 @@
         <v>3.8000000000000003</v>
       </c>
       <c r="B40" s="0">
-        <v>-1.8208353219928419</v>
+        <v>-1.8208353226050242</v>
       </c>
       <c r="C40" s="0">
-        <v>-1.8208353219928419</v>
+        <v>-1.8208353217043798</v>
       </c>
       <c r="D40" s="0">
-        <v>-1.8208353099198948</v>
+        <v>-1.8208353097384493</v>
       </c>
       <c r="E40" s="0">
         <v>0.91014746936570212</v>
@@ -3676,10 +3676,10 @@
         <v>0.91014746936574231</v>
       </c>
       <c r="H40" s="0">
-        <v>-1.0736618317887724e-09</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>1.0736618317887724e-09</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>-1.3485177853492446e-15</v>
+        <v>-1.2283885093429819e-15</v>
       </c>
       <c r="M40" s="0">
-        <v>1.3485177853492446e-15</v>
+        <v>1.2283885093429819e-15</v>
       </c>
       <c r="N40" s="0">
-        <v>1.0749559919612548e-05</v>
+        <v>1.0749559878264833e-05</v>
       </c>
       <c r="O40" s="0">
-        <v>1.0749559919612548e-05</v>
+        <v>1.0749559939095694e-05</v>
       </c>
       <c r="P40" s="0">
-        <v>1.074956073503724e-05</v>
+        <v>1.0749560747292333e-05</v>
       </c>
       <c r="Q40" s="0">
-        <v>304.48602977988304</v>
+        <v>304.4860297798831</v>
       </c>
       <c r="R40" s="0">
         <v>304.48602977995984</v>
@@ -3712,10 +3712,10 @@
         <v>304.48602977995984</v>
       </c>
       <c r="T40" s="0">
-        <v>-7.2516705859084934e-14</v>
+        <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>7.2516705859084934e-14</v>
+        <v>0</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -3724,22 +3724,22 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>-2.5799062132275351e-12</v>
+        <v>-2.3500818320245707e-12</v>
       </c>
       <c r="Y40" s="0">
-        <v>2.5799062132275351e-12</v>
+        <v>2.3500818320245707e-12</v>
       </c>
       <c r="Z40" s="0">
         <v>-1.820835318931211</v>
       </c>
       <c r="AA40" s="0">
-        <v>-1.0000000010736618</v>
+        <v>-1.0000000000000013</v>
       </c>
       <c r="AB40" s="0">
         <v>0.91014746936570212</v>
       </c>
       <c r="AC40" s="0">
-        <v>1.0000000010736618</v>
+        <v>1.0000000000000013</v>
       </c>
     </row>
     <row r="41">
@@ -3747,31 +3747,31 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="B41" s="0">
-        <v>-1.8436996913201977</v>
+        <v>-1.8436996920937736</v>
       </c>
       <c r="C41" s="0">
-        <v>-1.8436996868103293</v>
+        <v>-1.8436996883057675</v>
       </c>
       <c r="D41" s="0">
-        <v>-1.8436996868103293</v>
+        <v>-1.8436996847307214</v>
       </c>
       <c r="E41" s="0">
-        <v>0.93301183925100084</v>
+        <v>0.93301183925100062</v>
       </c>
       <c r="F41" s="0">
-        <v>0.93301183925131692</v>
+        <v>0.93301183925131714</v>
       </c>
       <c r="G41" s="0">
-        <v>0.93301183925132281</v>
+        <v>0.9330118392513227</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>-5.486587294381606e-10</v>
+        <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>5.486587294381606e-10</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0">
         <v>0</v>
@@ -3783,31 +3783,31 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>9.311067502231892e-06</v>
+        <v>9.3110674569752655e-06</v>
       </c>
       <c r="O41" s="0">
-        <v>9.3110677660734664e-06</v>
+        <v>9.3110676785856017e-06</v>
       </c>
       <c r="P41" s="0">
-        <v>9.3110677660734664e-06</v>
+        <v>9.3110678877371048e-06</v>
       </c>
       <c r="Q41" s="0">
-        <v>351.52691487775684</v>
+        <v>351.52691487775638</v>
       </c>
       <c r="R41" s="0">
-        <v>351.52691487845493</v>
+        <v>351.52691487845544</v>
       </c>
       <c r="S41" s="0">
-        <v>351.52691487846795</v>
+        <v>351.52691487846772</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>-3.2098271728178739e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" s="0">
-        <v>3.2098271728178739e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>-1.84369968881651</v>
+        <v>-1.8436996888165096</v>
       </c>
       <c r="AA41" s="0">
-        <v>-1.0000000005486587</v>
+        <v>-1</v>
       </c>
       <c r="AB41" s="0">
-        <v>0.93301183925100084</v>
+        <v>0.93301183925100062</v>
       </c>
       <c r="AC41" s="0">
-        <v>1.0000000005486587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3836,13 +3836,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="0">
-        <v>-1.8626154518171816</v>
+        <v>-1.8626154530820995</v>
       </c>
       <c r="C42" s="0">
-        <v>-1.8626154400071433</v>
+        <v>-1.8626154394224481</v>
       </c>
       <c r="D42" s="0">
-        <v>-1.8626154212236108</v>
+        <v>-1.8626154215386348</v>
       </c>
       <c r="E42" s="0">
         <v>0.9519275886679951</v>
@@ -3851,7 +3851,7 @@
         <v>0.9519275886680002</v>
       </c>
       <c r="G42" s="0">
-        <v>0.95192758866821037</v>
+        <v>0.95192758866821048</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>8.2676682644110784e-06</v>
+        <v>8.267668198702013e-06</v>
       </c>
       <c r="O42" s="0">
-        <v>8.2676688779106165e-06</v>
+        <v>8.2676689082839372e-06</v>
       </c>
       <c r="P42" s="0">
-        <v>8.2676698536643824e-06</v>
+        <v>8.2676698372997398e-06</v>
       </c>
       <c r="Q42" s="0">
-        <v>395.89041320182406</v>
+        <v>395.890413201824</v>
       </c>
       <c r="R42" s="0">
-        <v>395.89041320183674</v>
+        <v>395.89041320183685</v>
       </c>
       <c r="S42" s="0">
-        <v>395.89041320235953</v>
+        <v>395.89041320235998</v>
       </c>
       <c r="T42" s="0">
         <v>0</v>
@@ -3925,22 +3925,22 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="B43" s="0">
-        <v>-1.8766572692949979</v>
+        <v>-1.876657270185941</v>
       </c>
       <c r="C43" s="0">
-        <v>-1.8766572588999146</v>
+        <v>-1.876657259318252</v>
       </c>
       <c r="D43" s="0">
-        <v>-1.8766572437606475</v>
+        <v>-1.8766572431991178</v>
       </c>
       <c r="E43" s="0">
-        <v>0.96596939942987547</v>
+        <v>0.96596939942987559</v>
       </c>
       <c r="F43" s="0">
-        <v>0.96596939942987547</v>
+        <v>0.96596939942987559</v>
       </c>
       <c r="G43" s="0">
-        <v>0.96596939942991145</v>
+        <v>0.96596939942991134</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -3952,31 +3952,31 @@
         <v>0</v>
       </c>
       <c r="K43" s="0">
-        <v>-6.9287350485133017e-15</v>
+        <v>-6.821070175567248e-15</v>
       </c>
       <c r="L43" s="0">
-        <v>6.9287350485133017e-15</v>
+        <v>6.821070175567248e-15</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
       </c>
       <c r="N43" s="0">
-        <v>7.5694860861241207e-06</v>
+        <v>7.5694860437504437e-06</v>
       </c>
       <c r="O43" s="0">
-        <v>7.5694865805193347e-06</v>
+        <v>7.5694865606230051e-06</v>
       </c>
       <c r="P43" s="0">
-        <v>7.5694873005502845e-06</v>
+        <v>7.5694873272569106e-06</v>
       </c>
       <c r="Q43" s="0">
-        <v>432.40590312956368</v>
+        <v>432.4059031295642</v>
       </c>
       <c r="R43" s="0">
-        <v>432.40590312956368</v>
+        <v>432.4059031295642</v>
       </c>
       <c r="S43" s="0">
-        <v>432.4059031296614</v>
+        <v>432.40590312966106</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>-1.8824586142247329e-11</v>
+        <v>-1.853207291132189e-11</v>
       </c>
       <c r="X43" s="0">
-        <v>1.8824586142247329e-11</v>
+        <v>1.853207291132189e-11</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>-1.0000000000000069</v>
       </c>
       <c r="AB43" s="0">
-        <v>0.96596939942987547</v>
+        <v>0.96596939942987559</v>
       </c>
       <c r="AC43" s="0">
         <v>1.0000000000000069</v>
@@ -4014,13 +4014,13 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="B44" s="0">
-        <v>-1.8843623327298689</v>
+        <v>-1.8843623319180465</v>
       </c>
       <c r="C44" s="0">
-        <v>-1.8843622796950024</v>
+        <v>-1.8843622792954582</v>
       </c>
       <c r="D44" s="0">
-        <v>-1.8843622533840061</v>
+        <v>-1.8843622548131851</v>
       </c>
       <c r="E44" s="0">
         <v>0.97367442991085718</v>
@@ -4029,7 +4029,7 @@
         <v>0.97367442991087894</v>
       </c>
       <c r="G44" s="0">
-        <v>0.97367442991123188</v>
+        <v>0.9736744299112321</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -4050,22 +4050,22 @@
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>7.2117586199301803e-06</v>
+        <v>7.2117586567161249e-06</v>
       </c>
       <c r="O44" s="0">
-        <v>7.2117610230897125e-06</v>
+        <v>7.2117610411941821e-06</v>
       </c>
       <c r="P44" s="0">
-        <v>7.2117622153155384e-06</v>
+        <v>7.2117621505553778e-06</v>
       </c>
       <c r="Q44" s="0">
-        <v>453.85459526346404</v>
+        <v>453.85459526346386</v>
       </c>
       <c r="R44" s="0">
-        <v>453.85459526352616</v>
+        <v>453.85459526352594</v>
       </c>
       <c r="S44" s="0">
-        <v>453.85459526453286</v>
+        <v>453.85459526453309</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>4.2999999999999998</v>
       </c>
       <c r="B45" s="0">
-        <v>-1.8832058045168736</v>
+        <v>-1.8832058039768191</v>
       </c>
       <c r="C45" s="0">
-        <v>-1.8832057926309285</v>
+        <v>-1.8832057927080688</v>
       </c>
       <c r="D45" s="0">
-        <v>-1.8832057926309285</v>
+        <v>-1.8832057927080688</v>
       </c>
       <c r="E45" s="0">
         <v>0.97251795285436027</v>
@@ -4124,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>-2.9355487285865973e-08</v>
+        <v>-2.6975796688728542e-08</v>
       </c>
       <c r="J45" s="0">
-        <v>2.9355487285865973e-08</v>
+        <v>2.6975796688728542e-08</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -4139,31 +4139,31 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>7.2643550390701025e-06</v>
+        <v>7.2643550637199666e-06</v>
       </c>
       <c r="O45" s="0">
-        <v>7.2643555815836302e-06</v>
+        <v>7.2643555780627176e-06</v>
       </c>
       <c r="P45" s="0">
-        <v>7.2643555815836302e-06</v>
+        <v>7.2643555780627176e-06</v>
       </c>
       <c r="Q45" s="0">
-        <v>450.5686773344612</v>
+        <v>450.56867733446109</v>
       </c>
       <c r="R45" s="0">
-        <v>450.56867733453214</v>
+        <v>450.56867733453197</v>
       </c>
       <c r="S45" s="0">
-        <v>450.56867733494733</v>
+        <v>450.56867733494721</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>-1.339881085515901e-12</v>
+        <v>-1.2312641715143297e-12</v>
       </c>
       <c r="V45" s="0">
-        <v>1.339881085515901e-12</v>
+        <v>1.2312641715143297e-12</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>-1.8832058024198695</v>
       </c>
       <c r="AA45" s="0">
-        <v>-1.0000000293554874</v>
+        <v>-1.0000000269757967</v>
       </c>
       <c r="AB45" s="0">
         <v>0.97251795285436027</v>
       </c>
       <c r="AC45" s="0">
-        <v>1.0000000293554874</v>
+        <v>1.0000000269757967</v>
       </c>
     </row>
     <row r="46">
@@ -4192,13 +4192,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B46" s="0">
-        <v>-1.8682175625521755</v>
+        <v>-1.8682175616080046</v>
       </c>
       <c r="C46" s="0">
-        <v>-1.8682175275058284</v>
+        <v>-1.8682175268809516</v>
       </c>
       <c r="D46" s="0">
-        <v>-1.8682174934083617</v>
+        <v>-1.868217495044356</v>
       </c>
       <c r="E46" s="0">
         <v>0.95752964196395696</v>
@@ -4207,7 +4207,7 @@
         <v>0.95752964196411339</v>
       </c>
       <c r="G46" s="0">
-        <v>0.95752964196471369</v>
+        <v>0.95752964196471357</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -4228,22 +4228,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>7.981715939204487e-06</v>
+        <v>7.9817159865552313e-06</v>
       </c>
       <c r="O46" s="0">
-        <v>7.9817176968000209e-06</v>
+        <v>7.9817177281379801e-06</v>
       </c>
       <c r="P46" s="0">
-        <v>7.9817194068090118e-06</v>
+        <v>7.9817193247628815e-06</v>
       </c>
       <c r="Q46" s="0">
-        <v>410.07340390029867</v>
+        <v>410.07340390029844</v>
       </c>
       <c r="R46" s="0">
-        <v>410.07340390070141</v>
+        <v>410.07340390070152</v>
       </c>
       <c r="S46" s="0">
-        <v>410.07340390224812</v>
+        <v>410.073403902248</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -4281,16 +4281,16 @@
         <v>4.5</v>
       </c>
       <c r="B47" s="0">
-        <v>-1.8271678628678014</v>
+        <v>-1.827167863581739</v>
       </c>
       <c r="C47" s="0">
-        <v>-1.8271677496110148</v>
+        <v>-1.8271677490391127</v>
       </c>
       <c r="D47" s="0">
-        <v>-1.8271677334458676</v>
+        <v>-1.8271677333172702</v>
       </c>
       <c r="E47" s="0">
-        <v>0.91647988117044044</v>
+        <v>0.91647988117044055</v>
       </c>
       <c r="F47" s="0">
         <v>0.91647988117047818</v>
@@ -4317,22 +4317,22 @@
         <v>0</v>
       </c>
       <c r="N47" s="0">
-        <v>1.0330247975773302e-05</v>
+        <v>1.0330247929433852e-05</v>
       </c>
       <c r="O47" s="0">
-        <v>1.0330255326918568e-05</v>
+        <v>1.0330255364038947e-05</v>
       </c>
       <c r="P47" s="0">
-        <v>1.0330256376148351e-05</v>
+        <v>1.0330256384495193e-05</v>
       </c>
       <c r="Q47" s="0">
-        <v>316.84507236375885</v>
+        <v>316.84507236375913</v>
       </c>
       <c r="R47" s="0">
-        <v>316.84507236383388</v>
+        <v>316.84507236383405</v>
       </c>
       <c r="S47" s="0">
-        <v>316.84507236644242</v>
+        <v>316.84507236644231</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -4353,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>-1.8271677307359493</v>
+        <v>-1.8271677307359497</v>
       </c>
       <c r="AA47" s="0">
         <v>-1</v>
       </c>
       <c r="AB47" s="0">
-        <v>0.91647988117044044</v>
+        <v>0.91647988117044055</v>
       </c>
       <c r="AC47" s="0">
         <v>1</v>
@@ -4370,16 +4370,16 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="B48" s="0">
-        <v>-1.7105694472451878</v>
+        <v>-1.7105694419209525</v>
       </c>
       <c r="C48" s="0">
-        <v>-1.7105693488435976</v>
+        <v>-1.7105693507038975</v>
       </c>
       <c r="D48" s="0">
-        <v>-1.7105693013578207</v>
+        <v>-1.7105693009598701</v>
       </c>
       <c r="E48" s="0">
-        <v>0.79988144888162693</v>
+        <v>0.79988144888162727</v>
       </c>
       <c r="F48" s="0">
         <v>0.79988144888183033</v>
@@ -4406,22 +4406,22 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>2.1492106756540328e-05</v>
+        <v>2.1492107475519133e-05</v>
       </c>
       <c r="O48" s="0">
-        <v>2.1492120044585868e-05</v>
+        <v>2.1492119793372874e-05</v>
       </c>
       <c r="P48" s="0">
-        <v>2.149212645701738e-05</v>
+        <v>2.149212651075621e-05</v>
       </c>
       <c r="Q48" s="0">
-        <v>152.29255380820447</v>
+        <v>152.2925538082047</v>
       </c>
       <c r="R48" s="0">
-        <v>152.29255380839908</v>
+        <v>152.29255380839902</v>
       </c>
       <c r="S48" s="0">
-        <v>152.29255381933098</v>
+        <v>152.29255381933103</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="Z48" s="0">
-        <v>-1.7105692984471359</v>
+        <v>-1.7105692984471363</v>
       </c>
       <c r="AA48" s="0">
         <v>-1</v>
       </c>
       <c r="AB48" s="0">
-        <v>0.79988144888162693</v>
+        <v>0.79988144888162727</v>
       </c>
       <c r="AC48" s="0">
         <v>1</v>
@@ -4459,22 +4459,22 @@
         <v>4.7000000000000002</v>
       </c>
       <c r="B49" s="0">
-        <v>0.74052589073863406</v>
+        <v>0.74052589073863351</v>
       </c>
       <c r="C49" s="0">
-        <v>0.74052589073857078</v>
+        <v>0.74052589073857123</v>
       </c>
       <c r="D49" s="0">
         <v>0.74052589072878261</v>
       </c>
       <c r="E49" s="0">
-        <v>-1.6512137014249981</v>
+        <v>-1.6512137014282573</v>
       </c>
       <c r="F49" s="0">
-        <v>-1.6512137447538302</v>
+        <v>-1.6512137452494884</v>
       </c>
       <c r="G49" s="0">
-        <v>-1.6512137672948719</v>
+        <v>-1.6512137664513209</v>
       </c>
       <c r="H49" s="0">
         <v>-0</v>
@@ -4495,22 +4495,22 @@
         <v>-0</v>
       </c>
       <c r="N49" s="0">
-        <v>-104.88467322335268</v>
+        <v>-104.88467322335227</v>
       </c>
       <c r="O49" s="0">
-        <v>-104.8846732233109</v>
+        <v>-104.88467322331115</v>
       </c>
       <c r="P49" s="0">
-        <v>-104.88467321686042</v>
+        <v>-104.88467321686039</v>
       </c>
       <c r="Q49" s="0">
-        <v>-3.1206577507889748e-05</v>
+        <v>-3.1206577507250706e-05</v>
       </c>
       <c r="R49" s="0">
-        <v>-3.120656901211609e-05</v>
+        <v>-3.1206568914929048e-05</v>
       </c>
       <c r="S49" s="0">
-        <v>-3.1206564592344304e-05</v>
+        <v>-3.1206564757744929e-05</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -4531,13 +4531,13 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0.74052589073863406</v>
+        <v>0.74052589073863351</v>
       </c>
       <c r="AA49" s="0">
         <v>-1.5</v>
       </c>
       <c r="AB49" s="0">
-        <v>-1.6512137403041431</v>
+        <v>-1.6512137403041427</v>
       </c>
       <c r="AC49" s="0">
         <v>1.5</v>
@@ -4548,22 +4548,22 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="B50" s="0">
-        <v>0.98184152011954162</v>
+        <v>0.98184152011954129</v>
       </c>
       <c r="C50" s="0">
         <v>0.98184152011945802</v>
       </c>
       <c r="D50" s="0">
-        <v>0.98184152011627379</v>
+        <v>0.98184152011627413</v>
       </c>
       <c r="E50" s="0">
-        <v>-1.8925293780761494</v>
+        <v>-1.8925293825274157</v>
       </c>
       <c r="F50" s="0">
-        <v>-1.8925294575466116</v>
+        <v>-1.8925294534593435</v>
       </c>
       <c r="G50" s="0">
-        <v>-1.8925294575466116</v>
+        <v>-1.8925294534593435</v>
       </c>
       <c r="H50" s="0">
         <v>-0</v>
@@ -4578,28 +4578,28 @@
         <v>-0</v>
       </c>
       <c r="L50" s="0">
-        <v>7.6140033255544526e-08</v>
+        <v>6.8338374455080408e-08</v>
       </c>
       <c r="M50" s="0">
-        <v>-7.6140033255544526e-08</v>
+        <v>-6.8338374455080408e-08</v>
       </c>
       <c r="N50" s="0">
-        <v>-477.75221202277891</v>
+        <v>-477.75221202277834</v>
       </c>
       <c r="O50" s="0">
-        <v>-477.75221202252834</v>
+        <v>-477.75221202252817</v>
       </c>
       <c r="P50" s="0">
-        <v>-477.75221201296984</v>
+        <v>-477.75221201297075</v>
       </c>
       <c r="Q50" s="0">
-        <v>-6.8510215752698318e-06</v>
+        <v>-6.851021383659573e-06</v>
       </c>
       <c r="R50" s="0">
-        <v>-6.8510181543654749e-06</v>
+        <v>-6.8510183303070557e-06</v>
       </c>
       <c r="S50" s="0">
-        <v>-6.8510181543654749e-06</v>
+        <v>-6.8510183303070557e-06</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>0</v>
       </c>
       <c r="X50" s="0">
-        <v>-3.2775403639620268e-12</v>
+        <v>-2.9417085448916451e-12</v>
       </c>
       <c r="Y50" s="0">
-        <v>3.2775403639620268e-12</v>
+        <v>2.9417085448916451e-12</v>
       </c>
       <c r="Z50" s="0">
-        <v>0.98184152011954162</v>
+        <v>0.98184152011954129</v>
       </c>
       <c r="AA50" s="0">
-        <v>-1.5000000761400332</v>
+        <v>-1.5000000683383745</v>
       </c>
       <c r="AB50" s="0">
-        <v>-1.8925293696850507</v>
+        <v>-1.8925293696850503</v>
       </c>
       <c r="AC50" s="0">
-        <v>1.5000000761400332</v>
+        <v>1.5000000683383745</v>
       </c>
     </row>
     <row r="51">
@@ -4643,16 +4643,16 @@
         <v>1.0976957001695928</v>
       </c>
       <c r="D51" s="0">
-        <v>1.0976957001691592</v>
+        <v>1.097695700169159</v>
       </c>
       <c r="E51" s="0">
-        <v>-2.0083833940413878</v>
+        <v>-2.0083833792139476</v>
       </c>
       <c r="F51" s="0">
-        <v>-2.0083833940413878</v>
+        <v>-2.0083833792139476</v>
       </c>
       <c r="G51" s="0">
-        <v>-2.0083835330056505</v>
+        <v>-2.0083835343522582</v>
       </c>
       <c r="H51" s="0">
         <v>-0</v>
@@ -4664,31 +4664,31 @@
         <v>-0</v>
       </c>
       <c r="K51" s="0">
-        <v>1.8188054916446348e-07</v>
+        <v>1.5674963793515839e-07</v>
       </c>
       <c r="L51" s="0">
-        <v>-1.8188054916446348e-07</v>
+        <v>-1.5674963793515839e-07</v>
       </c>
       <c r="M51" s="0">
         <v>-0</v>
       </c>
       <c r="N51" s="0">
-        <v>-989.32757487703975</v>
+        <v>-989.32757487703918</v>
       </c>
       <c r="O51" s="0">
-        <v>-989.32757487669176</v>
+        <v>-989.32757487669153</v>
       </c>
       <c r="P51" s="0">
-        <v>-989.32757487399533</v>
+        <v>-989.32757487399431</v>
       </c>
       <c r="Q51" s="0">
-        <v>-3.30840276748997e-06</v>
+        <v>-3.3084030757130978e-06</v>
       </c>
       <c r="R51" s="0">
-        <v>-3.30840276748997e-06</v>
+        <v>-3.3084030757130978e-06</v>
       </c>
       <c r="S51" s="0">
-        <v>-3.3083998788004997e-06</v>
+        <v>-3.30839985080818e-06</v>
       </c>
       <c r="T51" s="0">
         <v>0</v>
@@ -4700,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>-3.7808069326576295e-12</v>
+        <v>-3.2584032527492917e-12</v>
       </c>
       <c r="X51" s="0">
-        <v>3.7808069326576295e-12</v>
+        <v>3.2584032527492917e-12</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -4712,13 +4712,13 @@
         <v>1.0976957001696488</v>
       </c>
       <c r="AA51" s="0">
-        <v>-1.5000001818805491</v>
+        <v>-1.5000001567496379</v>
       </c>
       <c r="AB51" s="0">
         <v>-2.0083835497351577</v>
       </c>
       <c r="AC51" s="0">
-        <v>1.5000001818805491</v>
+        <v>1.5000001567496379</v>
       </c>
     </row>
     <row r="52">
@@ -4726,31 +4726,31 @@
         <v>5</v>
       </c>
       <c r="B52" s="0">
-        <v>1.1800210496663677</v>
+        <v>1.1800210496663675</v>
       </c>
       <c r="C52" s="0">
-        <v>1.1800210496661627</v>
+        <v>1.1800210496661629</v>
       </c>
       <c r="D52" s="0">
-        <v>1.1800210496661627</v>
+        <v>1.1800210496661629</v>
       </c>
       <c r="E52" s="0">
-        <v>-2.0907083301366267</v>
+        <v>-2.0907082920259903</v>
       </c>
       <c r="F52" s="0">
-        <v>-2.0907088237914207</v>
+        <v>-2.0907088341163296</v>
       </c>
       <c r="G52" s="0">
-        <v>-2.0907090498469243</v>
+        <v>-2.0907090117515463</v>
       </c>
       <c r="H52" s="0">
         <v>-0</v>
       </c>
       <c r="I52" s="0">
-        <v>1.0755708660698435e-13</v>
+        <v>1.0719978488303926e-13</v>
       </c>
       <c r="J52" s="0">
-        <v>-1.0755708660698435e-13</v>
+        <v>-1.0719978488303926e-13</v>
       </c>
       <c r="K52" s="0">
         <v>-0</v>
@@ -4762,31 +4762,31 @@
         <v>-0</v>
       </c>
       <c r="N52" s="0">
-        <v>-1659.5320125057306</v>
+        <v>-1659.5320125057285</v>
       </c>
       <c r="O52" s="0">
-        <v>-1659.5320125035933</v>
+        <v>-1659.5320125035942</v>
       </c>
       <c r="P52" s="0">
-        <v>-1659.5320125035933</v>
+        <v>-1659.5320125035942</v>
       </c>
       <c r="Q52" s="0">
-        <v>-1.972304579734303e-06</v>
+        <v>-1.9723050520148979e-06</v>
       </c>
       <c r="R52" s="0">
-        <v>-1.9722984621982632e-06</v>
+        <v>-1.9722983342487217e-06</v>
       </c>
       <c r="S52" s="0">
-        <v>-1.9722956608488512e-06</v>
+        <v>-1.9722961329382284e-06</v>
       </c>
       <c r="T52" s="0">
         <v>0</v>
       </c>
       <c r="U52" s="0">
-        <v>-1.121513569910613e-09</v>
+        <v>-1.1177879322553181e-09</v>
       </c>
       <c r="V52" s="0">
-        <v>1.121513569910613e-09</v>
+        <v>1.1177879322553181e-09</v>
       </c>
       <c r="W52" s="0">
         <v>0</v>
@@ -4798,16 +4798,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>1.1800210496663677</v>
+        <v>1.1800210496663675</v>
       </c>
       <c r="AA52" s="0">
-        <v>-1.5000000000001075</v>
+        <v>-1.5000000000001072</v>
       </c>
       <c r="AB52" s="0">
-        <v>-2.0907088992318768</v>
+        <v>-2.0907088992318763</v>
       </c>
       <c r="AC52" s="0">
-        <v>1.5000000000001075</v>
+        <v>1.5000000000001072</v>
       </c>
     </row>
     <row r="53">
@@ -4824,13 +4824,13 @@
         <v>1.2452633958984105</v>
       </c>
       <c r="E53" s="0">
-        <v>-2.1559502119669838</v>
+        <v>-2.1559502236205388</v>
       </c>
       <c r="F53" s="0">
-        <v>-2.1559502119669838</v>
+        <v>-2.1559502236205388</v>
       </c>
       <c r="G53" s="0">
-        <v>-2.1559513513959612</v>
+        <v>-2.1559512950448214</v>
       </c>
       <c r="H53" s="0">
         <v>-0</v>
@@ -4842,31 +4842,31 @@
         <v>-0</v>
       </c>
       <c r="K53" s="0">
-        <v>8.2876909969127623e-07</v>
+        <v>8.4854242642030809e-07</v>
       </c>
       <c r="L53" s="0">
-        <v>-8.2876909969127623e-07</v>
+        <v>-8.4854242642030809e-07</v>
       </c>
       <c r="M53" s="0">
         <v>-0</v>
       </c>
       <c r="N53" s="0">
-        <v>-2500.4366927000592</v>
+        <v>-2500.4366927000583</v>
       </c>
       <c r="O53" s="0">
-        <v>-2500.4366926908692</v>
+        <v>-2500.4366926908701</v>
       </c>
       <c r="P53" s="0">
-        <v>-2500.4366926885532</v>
+        <v>-2500.4366926885536</v>
       </c>
       <c r="Q53" s="0">
-        <v>-1.3090162005215529e-06</v>
+        <v>-1.3090161046726427e-06</v>
       </c>
       <c r="R53" s="0">
-        <v>-1.3090162005215529e-06</v>
+        <v>-1.3090161046726427e-06</v>
       </c>
       <c r="S53" s="0">
-        <v>-1.3090068290072408e-06</v>
+        <v>-1.3090072924803738e-06</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>-6.8164529289608548e-12</v>
+        <v>-6.9790839047415786e-12</v>
       </c>
       <c r="X53" s="0">
-        <v>6.8164529289608548e-12</v>
+        <v>6.9790839047415786e-12</v>
       </c>
       <c r="Y53" s="0">
         <v>0</v>
@@ -4890,13 +4890,13 @@
         <v>1.245263395899143</v>
       </c>
       <c r="AA53" s="0">
-        <v>-1.5000008287690998</v>
+        <v>-1.5000008485424263</v>
       </c>
       <c r="AB53" s="0">
         <v>-2.1559512454646521</v>
       </c>
       <c r="AC53" s="0">
-        <v>1.5000008287690998</v>
+        <v>1.5000008485424263</v>
       </c>
     </row>
     <row r="54">
@@ -4913,79 +4913,79 @@
         <v>1.2992054455326585</v>
       </c>
       <c r="E54" s="0">
-        <v>-2.2098930407013762</v>
+        <v>-2.2098930907797447</v>
       </c>
       <c r="F54" s="0">
-        <v>-2.2098937248002555</v>
+        <v>-2.2098937475330747</v>
       </c>
       <c r="G54" s="0">
-        <v>-2.2098937248002555</v>
+        <v>-2.2098937475330747</v>
       </c>
       <c r="H54" s="0">
         <v>-0</v>
       </c>
       <c r="I54" s="0">
-        <v>2.8742858489078791e-13</v>
+        <v>2.874761212407023e-13</v>
       </c>
       <c r="J54" s="0">
-        <v>-2.8742858489078791e-13</v>
+        <v>-2.874761212407023e-13</v>
       </c>
       <c r="K54" s="0">
         <v>-0</v>
       </c>
       <c r="L54" s="0">
-        <v>1.9654934458780122e-06</v>
+        <v>1.8873341034260852e-06</v>
       </c>
       <c r="M54" s="0">
-        <v>-1.9654934458780122e-06</v>
+        <v>-1.8873341034260852e-06</v>
       </c>
       <c r="N54" s="0">
-        <v>-3509.218234287951</v>
+        <v>-3509.2182342879492</v>
       </c>
       <c r="O54" s="0">
-        <v>-3509.2182342866927</v>
+        <v>-3509.2182342866936</v>
       </c>
       <c r="P54" s="0">
-        <v>-3509.2182342866927</v>
+        <v>-3509.2182342866936</v>
       </c>
       <c r="Q54" s="0">
-        <v>-9.3271375503898163e-07</v>
+        <v>-9.3271346155908823e-07</v>
       </c>
       <c r="R54" s="0">
-        <v>-9.3270974587426005e-07</v>
+        <v>-9.3270961265666771e-07</v>
       </c>
       <c r="S54" s="0">
-        <v>-9.3270974587426005e-07</v>
+        <v>-9.3270961265666771e-07</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
       </c>
       <c r="U54" s="0">
-        <v>-6.3375325425587545e-09</v>
+        <v>-6.3385806747918512e-09</v>
       </c>
       <c r="V54" s="0">
-        <v>6.3375325425587545e-09</v>
+        <v>6.3385806747918512e-09</v>
       </c>
       <c r="W54" s="0">
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>-1.1518554541262971e-11</v>
+        <v>-1.1060508875469665e-11</v>
       </c>
       <c r="Y54" s="0">
-        <v>1.1518554541262971e-11</v>
+        <v>1.1060508875469665e-11</v>
       </c>
       <c r="Z54" s="0">
         <v>1.2992054455327153</v>
       </c>
       <c r="AA54" s="0">
-        <v>-1.5000019654934458</v>
+        <v>-1.5000018873341034</v>
       </c>
       <c r="AB54" s="0">
         <v>-2.2098932950982242</v>
       </c>
       <c r="AC54" s="0">
-        <v>1.5000019654934458</v>
+        <v>1.5000018873341034</v>
       </c>
     </row>
     <row r="55">
@@ -4996,19 +4996,19 @@
         <v>1.3442807391393714</v>
       </c>
       <c r="C55" s="0">
-        <v>1.3442807391392568</v>
+        <v>1.3442807391392571</v>
       </c>
       <c r="D55" s="0">
         <v>1.3442807391389853</v>
       </c>
       <c r="E55" s="0">
-        <v>-2.2549686677448237</v>
+        <v>-2.2549689875938133</v>
       </c>
       <c r="F55" s="0">
-        <v>-2.2549686677448237</v>
+        <v>-2.2549689875938133</v>
       </c>
       <c r="G55" s="0">
-        <v>-2.25497083499251</v>
+        <v>-2.2549706011415465</v>
       </c>
       <c r="H55" s="0">
         <v>-0</v>
@@ -5020,10 +5020,10 @@
         <v>-0</v>
       </c>
       <c r="K55" s="0">
-        <v>8.1758599283153248e-07</v>
+        <v>8.5825052723691004e-07</v>
       </c>
       <c r="L55" s="0">
-        <v>-8.1758599283153248e-07</v>
+        <v>-8.5825052723691004e-07</v>
       </c>
       <c r="M55" s="0">
         <v>-0</v>
@@ -5032,19 +5032,19 @@
         <v>-4658.1096433473158</v>
       </c>
       <c r="O55" s="0">
-        <v>-4658.1096433439607</v>
+        <v>-4658.1096433439707</v>
       </c>
       <c r="P55" s="0">
-        <v>-4658.1096433360081</v>
+        <v>-4658.1096433360071</v>
       </c>
       <c r="Q55" s="0">
-        <v>-7.0266470947252924e-07</v>
+        <v>-7.0266329734848568e-07</v>
       </c>
       <c r="R55" s="0">
-        <v>-7.0266470947252924e-07</v>
+        <v>-7.0266329734848568e-07</v>
       </c>
       <c r="S55" s="0">
-        <v>-7.0265514120784375e-07</v>
+        <v>-7.0265617364013277e-07</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -5056,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>-3.6096197388925852e-12</v>
+        <v>-3.7891449282665659e-12</v>
       </c>
       <c r="X55" s="0">
-        <v>3.6096197388925852e-12</v>
+        <v>3.7891449282665659e-12</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -5068,13 +5068,13 @@
         <v>1.3442807391393714</v>
       </c>
       <c r="AA55" s="0">
-        <v>-1.5000008175859929</v>
+        <v>-1.5000008582505273</v>
       </c>
       <c r="AB55" s="0">
         <v>-2.2549685887048803</v>
       </c>
       <c r="AC55" s="0">
-        <v>1.5000008175859929</v>
+        <v>1.5000008582505273</v>
       </c>
     </row>
     <row r="56">
@@ -5082,22 +5082,22 @@
         <v>5.3999999999999995</v>
       </c>
       <c r="B56" s="0">
-        <v>1.3813689005075311</v>
+        <v>1.3813689005075307</v>
       </c>
       <c r="C56" s="0">
-        <v>1.3813689005073577</v>
+        <v>1.3813689005073575</v>
       </c>
       <c r="D56" s="0">
-        <v>1.3813689005072243</v>
+        <v>1.3813689005072245</v>
       </c>
       <c r="E56" s="0">
-        <v>-2.292053048580474</v>
+        <v>-2.2920531224902612</v>
       </c>
       <c r="F56" s="0">
-        <v>-2.2920563706572743</v>
+        <v>-2.292056786070892</v>
       </c>
       <c r="G56" s="0">
-        <v>-2.2920604166035443</v>
+        <v>-2.2920600335898946</v>
       </c>
       <c r="H56" s="0">
         <v>-0</v>
@@ -5118,22 +5118,22 @@
         <v>-0</v>
       </c>
       <c r="N56" s="0">
-        <v>-5880.4982839095046</v>
+        <v>-5880.4982839094946</v>
       </c>
       <c r="O56" s="0">
-        <v>-5880.4982839030945</v>
+        <v>-5880.4982839030927</v>
       </c>
       <c r="P56" s="0">
-        <v>-5880.4982838981732</v>
+        <v>-5880.4982838981769</v>
       </c>
       <c r="Q56" s="0">
-        <v>-5.5661388719719327e-07</v>
+        <v>-5.566136287119496e-07</v>
       </c>
       <c r="R56" s="0">
-        <v>-5.5660226899202102e-07</v>
+        <v>-5.5660081619479099e-07</v>
       </c>
       <c r="S56" s="0">
-        <v>-5.5658811954616482e-07</v>
+        <v>-5.5658945900254118e-07</v>
       </c>
       <c r="T56" s="0">
         <v>0</v>
@@ -5154,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>1.3813689005075311</v>
+        <v>1.3813689005075307</v>
       </c>
       <c r="AA56" s="0">
         <v>-1.5</v>
       </c>
       <c r="AB56" s="0">
-        <v>-2.2920567500730402</v>
+        <v>-2.2920567500730398</v>
       </c>
       <c r="AC56" s="0">
         <v>1.5</v>
@@ -5171,10 +5171,10 @@
         <v>5.5</v>
       </c>
       <c r="B57" s="0">
-        <v>1.4102868444253771</v>
+        <v>1.4102868444253773</v>
       </c>
       <c r="C57" s="0">
-        <v>1.4102868444253141</v>
+        <v>1.4102868444253138</v>
       </c>
       <c r="D57" s="0">
         <v>1.4102868444199122</v>
@@ -5183,10 +5183,10 @@
         <v>-2.3209721136086205</v>
       </c>
       <c r="F57" s="0">
-        <v>-2.3209736738323308</v>
+        <v>-2.320973198488832</v>
       </c>
       <c r="G57" s="0">
-        <v>-2.3209814658655357</v>
+        <v>-2.3209803033152778</v>
       </c>
       <c r="H57" s="0">
         <v>-0</v>
@@ -5207,10 +5207,10 @@
         <v>-0</v>
       </c>
       <c r="N57" s="0">
-        <v>-7052.1906624552066</v>
+        <v>-7052.1906624552103</v>
       </c>
       <c r="O57" s="0">
-        <v>-7052.1906624524045</v>
+        <v>-7052.1906624523981</v>
       </c>
       <c r="P57" s="0">
         <v>-7052.1906622130564</v>
@@ -5219,10 +5219,10 @@
         <v>-4.6413151721935719e-07</v>
       </c>
       <c r="R57" s="0">
-        <v>-4.6412696727931549e-07</v>
+        <v>-4.6412835347607314e-07</v>
       </c>
       <c r="S57" s="0">
-        <v>-4.6410424474150484e-07</v>
+        <v>-4.641076348120204e-07</v>
       </c>
       <c r="T57" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1.4102868444253771</v>
+        <v>1.4102868444253773</v>
       </c>
       <c r="AA57" s="0">
         <v>-1.5</v>
@@ -5441,19 +5441,19 @@
         <v>1.4219547038848779</v>
       </c>
       <c r="C60" s="0">
-        <v>1.42195470388028</v>
+        <v>1.4219547038802802</v>
       </c>
       <c r="D60" s="0">
         <v>1.4219547038802074</v>
       </c>
       <c r="E60" s="0">
-        <v>-2.3325790864347855</v>
+        <v>-2.332581068880669</v>
       </c>
       <c r="F60" s="0">
-        <v>-2.3326365455766482</v>
+        <v>-2.3326354876309283</v>
       </c>
       <c r="G60" s="0">
-        <v>-2.3326440204283707</v>
+        <v>-2.3326438296019343</v>
       </c>
       <c r="H60" s="0">
         <v>-0</v>
@@ -5474,22 +5474,22 @@
         <v>-0</v>
       </c>
       <c r="N60" s="0">
-        <v>-7588.618992591304</v>
+        <v>-7588.6189925913022</v>
       </c>
       <c r="O60" s="0">
-        <v>-7588.6189923720776</v>
+        <v>-7588.6189923720822</v>
       </c>
       <c r="P60" s="0">
-        <v>-7588.6189923686106</v>
+        <v>-7588.6189923686152</v>
       </c>
       <c r="Q60" s="0">
-        <v>-4.3148778125869959e-07</v>
+        <v>-4.3148240664807422e-07</v>
       </c>
       <c r="R60" s="0">
-        <v>-4.3133203087958563e-07</v>
+        <v>-4.3133489806915369e-07</v>
       </c>
       <c r="S60" s="0">
-        <v>-4.3131177346753036e-07</v>
+        <v>-4.3131229060973334e-07</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         <v>5.8999999999999995</v>
       </c>
       <c r="B61" s="0">
-        <v>1.3600550424386084</v>
+        <v>1.3600550424386089</v>
       </c>
       <c r="C61" s="0">
-        <v>1.3600550424309135</v>
+        <v>1.3600550424309133</v>
       </c>
       <c r="D61" s="0">
-        <v>1.360055042430872</v>
+        <v>1.3600550424308717</v>
       </c>
       <c r="E61" s="0">
-        <v>-2.2706886536157929</v>
+        <v>-2.2706879826604438</v>
       </c>
       <c r="F61" s="0">
-        <v>-2.2707407106267645</v>
+        <v>-2.2707405320731544</v>
       </c>
       <c r="G61" s="0">
-        <v>-2.2707443557563769</v>
+        <v>-2.2707443324134351</v>
       </c>
       <c r="H61" s="0">
         <v>-0</v>
@@ -5563,22 +5563,22 @@
         <v>-0</v>
       </c>
       <c r="N61" s="0">
-        <v>-5143.4423881575731</v>
+        <v>-5143.442388157584</v>
       </c>
       <c r="O61" s="0">
-        <v>-5143.4423879088927</v>
+        <v>-5143.442387908889</v>
       </c>
       <c r="P61" s="0">
-        <v>-5143.4423879075566</v>
+        <v>-5143.442387907543</v>
       </c>
       <c r="Q61" s="0">
-        <v>-6.3657882482098671e-07</v>
+        <v>-6.3658150847541642e-07</v>
       </c>
       <c r="R61" s="0">
-        <v>-6.3637064421849404e-07</v>
+        <v>-6.363713581538426e-07</v>
       </c>
       <c r="S61" s="0">
-        <v>-6.3635606957273503e-07</v>
+        <v>-6.3635616290583171e-07</v>
       </c>
       <c r="T61" s="0">
         <v>0</v>
@@ -5599,13 +5599,13 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1.3600550424386084</v>
+        <v>1.3600550424386089</v>
       </c>
       <c r="AA61" s="0">
         <v>-1.5</v>
       </c>
       <c r="AB61" s="0">
-        <v>-2.2707428920041175</v>
+        <v>-2.270742892004118</v>
       </c>
       <c r="AC61" s="0">
         <v>1.5</v>
@@ -5616,22 +5616,22 @@
         <v>6</v>
       </c>
       <c r="B62" s="0">
-        <v>0.52510133805571246</v>
+        <v>0.52510133805631831</v>
       </c>
       <c r="C62" s="0">
-        <v>0.52510133800572811</v>
+        <v>0.52510133800522774</v>
       </c>
       <c r="D62" s="0">
-        <v>0.5251013370651566</v>
+        <v>0.52510133712409135</v>
       </c>
       <c r="E62" s="0">
-        <v>-1.4355537896894584</v>
+        <v>-1.4355670241455951</v>
       </c>
       <c r="F62" s="0">
-        <v>-1.4357891087556352</v>
+        <v>-1.4357891234465843</v>
       </c>
       <c r="G62" s="0">
-        <v>-1.4357891837183869</v>
+        <v>-1.4357891769199631</v>
       </c>
       <c r="H62" s="0">
         <v>-0</v>
@@ -5652,22 +5652,22 @@
         <v>-0</v>
       </c>
       <c r="N62" s="0">
-        <v>-27.093910885093667</v>
+        <v>-27.093910885196792</v>
       </c>
       <c r="O62" s="0">
-        <v>-27.093910876584509</v>
+        <v>-27.09391087649934</v>
       </c>
       <c r="P62" s="0">
-        <v>-27.093910716465327</v>
+        <v>-27.093910726498152</v>
       </c>
       <c r="Q62" s="0">
-        <v>-0.0001209842145620545</v>
+        <v>-0.00012097415459357512</v>
       </c>
       <c r="R62" s="0">
-        <v>-0.00012080546513031944</v>
+        <v>-0.00012080545397925625</v>
       </c>
       <c r="S62" s="0">
-        <v>-0.00012080540823037175</v>
+        <v>-0.00012080541339066628</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -5688,13 +5688,13 @@
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>0.52510133805571246</v>
+        <v>0.52510133805631831</v>
       </c>
       <c r="AA62" s="0">
         <v>-1.5</v>
       </c>
       <c r="AB62" s="0">
-        <v>-1.4357891876212214</v>
+        <v>-1.4357891876218274</v>
       </c>
       <c r="AC62" s="0">
         <v>1.5</v>
@@ -5705,28 +5705,28 @@
         <v>6.0999999999999997</v>
       </c>
       <c r="B63" s="0">
-        <v>-2.3604007259411346</v>
+        <v>-2.3604011606330744</v>
       </c>
       <c r="C63" s="0">
-        <v>-2.3604007259411346</v>
+        <v>-2.3603994605855942</v>
       </c>
       <c r="D63" s="0">
-        <v>-2.3601724357291252</v>
+        <v>-2.3601724456381046</v>
       </c>
       <c r="E63" s="0">
-        <v>1.4497180370549194</v>
+        <v>1.4497180370549192</v>
       </c>
       <c r="F63" s="0">
-        <v>1.4497180370550622</v>
+        <v>1.4497180370550602</v>
       </c>
       <c r="G63" s="0">
-        <v>1.4497180370583098</v>
+        <v>1.4497180370583118</v>
       </c>
       <c r="H63" s="0">
-        <v>-1.8144465688155829e-06</v>
+        <v>0</v>
       </c>
       <c r="I63" s="0">
-        <v>1.8144465688155829e-06</v>
+        <v>0</v>
       </c>
       <c r="J63" s="0">
         <v>0</v>
@@ -5741,28 +5741,28 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>3.62284812228107e-07</v>
+        <v>3.6228382276260518e-07</v>
       </c>
       <c r="O63" s="0">
-        <v>3.62284812228107e-07</v>
+        <v>3.6228769259521931e-07</v>
       </c>
       <c r="P63" s="0">
-        <v>3.628048427309586e-07</v>
+        <v>3.6280482014274661e-07</v>
       </c>
       <c r="Q63" s="0">
-        <v>9034.8723087989492</v>
+        <v>9034.8723087989292</v>
       </c>
       <c r="R63" s="0">
-        <v>9034.8723088070492</v>
+        <v>9034.8723088069401</v>
       </c>
       <c r="S63" s="0">
-        <v>9034.8723089914147</v>
+        <v>9034.8723089915184</v>
       </c>
       <c r="T63" s="0">
-        <v>-4.1302294590386449e-12</v>
+        <v>0</v>
       </c>
       <c r="U63" s="0">
-        <v>4.1302294590386449e-12</v>
+        <v>0</v>
       </c>
       <c r="V63" s="0">
         <v>0</v>
@@ -5780,13 +5780,13 @@
         <v>-2.3604058866204283</v>
       </c>
       <c r="AA63" s="0">
-        <v>-2.000001814446569</v>
+        <v>-2</v>
       </c>
       <c r="AB63" s="0">
-        <v>1.4497180370549194</v>
+        <v>1.4497180370549192</v>
       </c>
       <c r="AC63" s="0">
-        <v>2.000001814446569</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5794,22 +5794,22 @@
         <v>6.1999999999999993</v>
       </c>
       <c r="B64" s="0">
-        <v>-2.5145245622589338</v>
+        <v>-2.5145496539632792</v>
       </c>
       <c r="C64" s="0">
-        <v>-2.5141336352680179</v>
+        <v>-2.5141236136815874</v>
       </c>
       <c r="D64" s="0">
-        <v>-2.5140951786735681</v>
+        <v>-2.5140746582745179</v>
       </c>
       <c r="E64" s="0">
-        <v>1.6034102124969527</v>
+        <v>1.6034102124969534</v>
       </c>
       <c r="F64" s="0">
-        <v>1.6034102124969527</v>
+        <v>1.6034102124969534</v>
       </c>
       <c r="G64" s="0">
-        <v>1.6034102125006813</v>
+        <v>1.6034102125006804</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -5821,31 +5821,31 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>-5.9990427996526542e-14</v>
+        <v>-6.0208091499116725e-14</v>
       </c>
       <c r="L64" s="0">
-        <v>5.9990427996526542e-14</v>
+        <v>6.0208091499116725e-14</v>
       </c>
       <c r="M64" s="0">
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>1.3755750568218932e-07</v>
+        <v>1.3753582064915367e-07</v>
       </c>
       <c r="O64" s="0">
-        <v>1.3789579890534946e-07</v>
+        <v>1.3790448213032284e-07</v>
       </c>
       <c r="P64" s="0">
-        <v>1.3792912268056801e-07</v>
+        <v>1.3794690750744785e-07</v>
       </c>
       <c r="Q64" s="0">
-        <v>23730.667750540277</v>
+        <v>23730.667750540371</v>
       </c>
       <c r="R64" s="0">
-        <v>23730.667750540277</v>
+        <v>23730.667750540371</v>
       </c>
       <c r="S64" s="0">
-        <v>23730.667751096218</v>
+        <v>23730.667751096091</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -5857,25 +5857,25 @@
         <v>0</v>
       </c>
       <c r="W64" s="0">
-        <v>-8.9448237506283008e-09</v>
+        <v>-8.9772782893378513e-09</v>
       </c>
       <c r="X64" s="0">
-        <v>8.9448237506283008e-09</v>
+        <v>8.9772782893378513e-09</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>-2.5140980620624616</v>
+        <v>-2.5140980620624624</v>
       </c>
       <c r="AA64" s="0">
-        <v>-2.00000000000006</v>
+        <v>-2.0000000000000604</v>
       </c>
       <c r="AB64" s="0">
-        <v>1.6034102124969527</v>
+        <v>1.6034102124969534</v>
       </c>
       <c r="AC64" s="0">
-        <v>2.00000000000006</v>
+        <v>2.0000000000000604</v>
       </c>
     </row>
     <row r="65">
@@ -5886,10 +5886,10 @@
         <v>-2.6204073218165398</v>
       </c>
       <c r="C65" s="0">
-        <v>-2.6202628867609343</v>
+        <v>-2.6202895458528111</v>
       </c>
       <c r="D65" s="0">
-        <v>-2.6202628867609343</v>
+        <v>-2.6202895458528111</v>
       </c>
       <c r="E65" s="0">
         <v>1.7096178333374112</v>
@@ -5904,16 +5904,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="0">
-        <v>-2.0810894517056759e-05</v>
+        <v>-2.4998822563717783e-05</v>
       </c>
       <c r="J65" s="0">
-        <v>2.0810894517056759e-05</v>
+        <v>2.4998822563717783e-05</v>
       </c>
       <c r="K65" s="0">
-        <v>-4.3298253971277942e-14</v>
+        <v>-4.3380373625614575e-14</v>
       </c>
       <c r="L65" s="0">
-        <v>4.3298253971277942e-14</v>
+        <v>4.3380373625614575e-14</v>
       </c>
       <c r="M65" s="0">
         <v>0</v>
@@ -5922,34 +5922,34 @@
         <v>7.07223080098629e-08</v>
       </c>
       <c r="O65" s="0">
-        <v>7.0786517894900293e-08</v>
+        <v>7.0774661593964819e-08</v>
       </c>
       <c r="P65" s="0">
-        <v>7.0786517894900293e-08</v>
+        <v>7.0774661593964819e-08</v>
       </c>
       <c r="Q65" s="0">
-        <v>46251.337031773422</v>
+        <v>46251.337031773408</v>
       </c>
       <c r="R65" s="0">
-        <v>46251.337031773422</v>
+        <v>46251.337031773408</v>
       </c>
       <c r="S65" s="0">
-        <v>46251.337032600852</v>
+        <v>46251.337032600808</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>-9.2559535815719273e-12</v>
+        <v>-1.1116734343108167e-11</v>
       </c>
       <c r="V65" s="0">
-        <v>9.2559535815719273e-12</v>
+        <v>1.1116734343108167e-11</v>
       </c>
       <c r="W65" s="0">
-        <v>-1.2582720325290837e-08</v>
+        <v>-1.2606584766670221e-08</v>
       </c>
       <c r="X65" s="0">
-        <v>1.2582720325290837e-08</v>
+        <v>1.2606584766670221e-08</v>
       </c>
       <c r="Y65" s="0">
         <v>0</v>
@@ -5958,13 +5958,13 @@
         <v>-2.6203056829029201</v>
       </c>
       <c r="AA65" s="0">
-        <v>-2.000020810894517</v>
+        <v>-2.0000249988225636</v>
       </c>
       <c r="AB65" s="0">
         <v>1.7096178333374112</v>
       </c>
       <c r="AC65" s="0">
-        <v>2.000020810894517</v>
+        <v>2.0000249988225636</v>
       </c>
     </row>
     <row r="66">
@@ -5972,16 +5972,16 @@
         <v>6.4000000000000004</v>
       </c>
       <c r="B66" s="0">
-        <v>-2.7066025530998314</v>
+        <v>-2.7066836076863687</v>
       </c>
       <c r="C66" s="0">
-        <v>-2.7061351498064337</v>
+        <v>-2.7062474284305558</v>
       </c>
       <c r="D66" s="0">
-        <v>-2.7060385005405201</v>
+        <v>-2.7060173662526266</v>
       </c>
       <c r="E66" s="0">
-        <v>1.7955969137741654</v>
+        <v>1.7955969137741656</v>
       </c>
       <c r="F66" s="0">
         <v>1.7955969137786092</v>
@@ -6008,22 +6008,22 @@
         <v>0</v>
       </c>
       <c r="N66" s="0">
-        <v>4.1148210664556315e-08</v>
+        <v>4.1127259998547926e-08</v>
       </c>
       <c r="O66" s="0">
-        <v>4.1269231587648392e-08</v>
+        <v>4.1240127757191658e-08</v>
       </c>
       <c r="P66" s="0">
-        <v>4.1294300568774315e-08</v>
+        <v>4.1299784429765926e-08</v>
       </c>
       <c r="Q66" s="0">
-        <v>79385.272587222076</v>
+        <v>79385.272587222134</v>
       </c>
       <c r="R66" s="0">
-        <v>79385.272589438522</v>
+        <v>79385.27258943858</v>
       </c>
       <c r="S66" s="0">
-        <v>79385.272589486121</v>
+        <v>79385.272589486136</v>
       </c>
       <c r="T66" s="0">
         <v>0</v>
@@ -6044,13 +6044,13 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>-2.7062847633396743</v>
+        <v>-2.7062847633396747</v>
       </c>
       <c r="AA66" s="0">
         <v>-2</v>
       </c>
       <c r="AB66" s="0">
-        <v>1.7955969137741654</v>
+        <v>1.7955969137741656</v>
       </c>
       <c r="AC66" s="0">
         <v>2</v>
@@ -6061,31 +6061,31 @@
         <v>6.5</v>
       </c>
       <c r="B67" s="0">
-        <v>-2.7817281305305475</v>
+        <v>-2.78098345261705</v>
       </c>
       <c r="C67" s="0">
-        <v>-2.7806091103649595</v>
+        <v>-2.7809457763109733</v>
       </c>
       <c r="D67" s="0">
-        <v>-2.7806091103649595</v>
+        <v>-2.7809457763109733</v>
       </c>
       <c r="E67" s="0">
-        <v>1.8698936167250935</v>
+        <v>1.8698936167250937</v>
       </c>
       <c r="F67" s="0">
-        <v>1.869893616725216</v>
+        <v>1.8698936167252165</v>
       </c>
       <c r="G67" s="0">
-        <v>1.8698936167349376</v>
+        <v>1.8698936167349374</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>-0.00012954790205881443</v>
+        <v>-0.00018415018207595252</v>
       </c>
       <c r="J67" s="0">
-        <v>0.00012954790205881443</v>
+        <v>0.00018415018207595252</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -6097,31 +6097,31 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>2.5665624247543316e-08</v>
+        <v>2.5785993784666061e-08</v>
       </c>
       <c r="O67" s="0">
-        <v>2.5846706854141495e-08</v>
+        <v>2.5792081488915444e-08</v>
       </c>
       <c r="P67" s="0">
-        <v>2.5846706854141495e-08</v>
+        <v>2.5792081488915444e-08</v>
       </c>
       <c r="Q67" s="0">
-        <v>126612.69987077067</v>
+        <v>126612.69987077077</v>
       </c>
       <c r="R67" s="0">
-        <v>126612.6998708683</v>
+        <v>126612.6998708684</v>
       </c>
       <c r="S67" s="0">
-        <v>126612.69987860195</v>
+        <v>126612.69987860181</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
       </c>
       <c r="U67" s="0">
-        <v>-2.1038538436373906e-11</v>
+        <v>-2.9842733939459987e-11</v>
       </c>
       <c r="V67" s="0">
-        <v>2.1038538436373906e-11</v>
+        <v>2.9842733939459987e-11</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -6133,16 +6133,16 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>-2.7805814662906023</v>
+        <v>-2.7805814662906028</v>
       </c>
       <c r="AA67" s="0">
-        <v>-2.0001295479020587</v>
+        <v>-2.0001841501820761</v>
       </c>
       <c r="AB67" s="0">
-        <v>1.8698936167250935</v>
+        <v>1.8698936167250937</v>
       </c>
       <c r="AC67" s="0">
-        <v>2.0001295479020587</v>
+        <v>2.0001841501820761</v>
       </c>
     </row>
     <row r="68">
@@ -6150,22 +6150,22 @@
         <v>6.5999999999999997</v>
       </c>
       <c r="B68" s="0">
-        <v>-2.8491168624901411</v>
+        <v>-2.8493332227015502</v>
       </c>
       <c r="C68" s="0">
-        <v>-2.8473609022157205</v>
+        <v>-2.8470891715648485</v>
       </c>
       <c r="D68" s="0">
-        <v>-2.8458701097845589</v>
+        <v>-2.8461602995831403</v>
       </c>
       <c r="E68" s="0">
-        <v>1.9363185567563974</v>
+        <v>1.9363185567563972</v>
       </c>
       <c r="F68" s="0">
         <v>1.9363185567565402</v>
       </c>
       <c r="G68" s="0">
-        <v>1.9363185567577681</v>
+        <v>1.9363185567577685</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -6186,22 +6186,22 @@
         <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>1.6806011135738782e-08</v>
+        <v>1.6783180040318414e-08</v>
       </c>
       <c r="O68" s="0">
-        <v>1.6992458906548789e-08</v>
+        <v>1.7021495490465991e-08</v>
       </c>
       <c r="P68" s="0">
-        <v>1.715237378248277e-08</v>
+        <v>1.7121128074206779e-08</v>
       </c>
       <c r="Q68" s="0">
-        <v>192191.64530768048</v>
+        <v>192191.64530767984</v>
       </c>
       <c r="R68" s="0">
-        <v>192191.64530785274</v>
+        <v>192191.64530785283</v>
       </c>
       <c r="S68" s="0">
-        <v>192191.64530933541</v>
+        <v>192191.64530933622</v>
       </c>
       <c r="T68" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>-2</v>
       </c>
       <c r="AB68" s="0">
-        <v>1.9363185567563974</v>
+        <v>1.9363185567563972</v>
       </c>
       <c r="AC68" s="0">
         <v>2</v>
@@ -6239,28 +6239,28 @@
         <v>6.6999999999999993</v>
       </c>
       <c r="B69" s="0">
-        <v>-2.9082763224774775</v>
+        <v>-2.9090545269071706</v>
       </c>
       <c r="C69" s="0">
-        <v>-2.9082763224774775</v>
+        <v>-2.9090545269071706</v>
       </c>
       <c r="D69" s="0">
-        <v>-2.9007302164175757</v>
+        <v>-2.9009095779922416</v>
       </c>
       <c r="E69" s="0">
         <v>1.9969016807935536</v>
       </c>
       <c r="F69" s="0">
-        <v>1.9969016808002273</v>
+        <v>1.9969016808002278</v>
       </c>
       <c r="G69" s="0">
-        <v>1.9969016808002273</v>
+        <v>1.9969016808002278</v>
       </c>
       <c r="H69" s="0">
-        <v>-0.0016227663309692287</v>
+        <v>-0.0010261393912009322</v>
       </c>
       <c r="I69" s="0">
-        <v>0.0016227663309692287</v>
+        <v>0.0010261393912009322</v>
       </c>
       <c r="J69" s="0">
         <v>0</v>
@@ -6269,34 +6269,34 @@
         <v>0</v>
       </c>
       <c r="L69" s="0">
-        <v>-2.3549381944548804e-14</v>
+        <v>-2.3519859534847158e-14</v>
       </c>
       <c r="M69" s="0">
-        <v>2.3549381944548804e-14</v>
+        <v>2.3519859534847158e-14</v>
       </c>
       <c r="N69" s="0">
-        <v>1.1588054659316018e-08</v>
+        <v>1.1531891728187293e-08</v>
       </c>
       <c r="O69" s="0">
-        <v>1.1588054659316018e-08</v>
+        <v>1.1531891728187293e-08</v>
       </c>
       <c r="P69" s="0">
-        <v>1.2151351049078998e-08</v>
+        <v>1.2137664651542611e-08</v>
       </c>
       <c r="Q69" s="0">
-        <v>281223.02045948151</v>
+        <v>281223.02045948122</v>
       </c>
       <c r="R69" s="0">
-        <v>281223.02047127392</v>
+        <v>281223.02047127404</v>
       </c>
       <c r="S69" s="0">
-        <v>281223.02047127392</v>
+        <v>281223.02047127404</v>
       </c>
       <c r="T69" s="0">
-        <v>-1.1815754043332576e-10</v>
+        <v>-7.4352025126106379e-11</v>
       </c>
       <c r="U69" s="0">
-        <v>1.1815754043332576e-10</v>
+        <v>7.4352025126106379e-11</v>
       </c>
       <c r="V69" s="0">
         <v>0</v>
@@ -6305,22 +6305,22 @@
         <v>0</v>
       </c>
       <c r="X69" s="0">
-        <v>-4.1611200959393521e-08</v>
+        <v>-4.1559035559647873e-08</v>
       </c>
       <c r="Y69" s="0">
-        <v>4.1611200959393521e-08</v>
+        <v>4.1559035559647873e-08</v>
       </c>
       <c r="Z69" s="0">
         <v>-2.9075895303590626</v>
       </c>
       <c r="AA69" s="0">
-        <v>-2.0016227663309691</v>
+        <v>-2.0010261393912008</v>
       </c>
       <c r="AB69" s="0">
         <v>1.9969016807935536</v>
       </c>
       <c r="AC69" s="0">
-        <v>2.0016227663309691</v>
+        <v>2.0010261393912008</v>
       </c>
     </row>
     <row r="70">
@@ -6328,31 +6328,31 @@
         <v>6.7999999999999998</v>
       </c>
       <c r="B70" s="0">
-        <v>-2.9631982211100216</v>
+        <v>-2.9634271495764462</v>
       </c>
       <c r="C70" s="0">
-        <v>-2.9624750374589666</v>
+        <v>-2.9634271495764462</v>
       </c>
       <c r="D70" s="0">
-        <v>-2.9624750374589666</v>
+        <v>-2.9624999315110991</v>
       </c>
       <c r="E70" s="0">
-        <v>2.0528462719975065</v>
+        <v>2.052846271997506</v>
       </c>
       <c r="F70" s="0">
         <v>2.0528462719976273</v>
       </c>
       <c r="G70" s="0">
-        <v>2.0528462720239249</v>
+        <v>2.0528462720239245</v>
       </c>
       <c r="H70" s="0">
-        <v>0</v>
+        <v>-0.0051213084073470977</v>
       </c>
       <c r="I70" s="0">
-        <v>-0.0060523258954500898</v>
+        <v>0.0051213084073470977</v>
       </c>
       <c r="J70" s="0">
-        <v>0.0060523258954500898</v>
+        <v>0</v>
       </c>
       <c r="K70" s="0">
         <v>0</v>
@@ -6364,31 +6364,31 @@
         <v>0</v>
       </c>
       <c r="N70" s="0">
-        <v>8.2066295703114204e-09</v>
+        <v>8.1905914096299234e-09</v>
       </c>
       <c r="O70" s="0">
-        <v>8.2380443067255044e-09</v>
+        <v>8.1905914096299234e-09</v>
       </c>
       <c r="P70" s="0">
-        <v>8.2380443067255044e-09</v>
+        <v>8.2427151220969339e-09</v>
       </c>
       <c r="Q70" s="0">
-        <v>399677.61319561262</v>
+        <v>399677.6131956121</v>
       </c>
       <c r="R70" s="0">
-        <v>399677.61319591675</v>
+        <v>399677.61319591629</v>
       </c>
       <c r="S70" s="0">
-        <v>399677.6132619555</v>
+        <v>399677.61326195527</v>
       </c>
       <c r="T70" s="0">
-        <v>0</v>
+        <v>-2.636489161412358e-10</v>
       </c>
       <c r="U70" s="0">
-        <v>-3.1342650136244008e-10</v>
+        <v>2.636489161412358e-10</v>
       </c>
       <c r="V70" s="0">
-        <v>3.1342650136244008e-10</v>
+        <v>0</v>
       </c>
       <c r="W70" s="0">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>0</v>
       </c>
       <c r="Z70" s="0">
-        <v>-2.9635341215630153</v>
+        <v>-2.9635341215630149</v>
       </c>
       <c r="AA70" s="0">
-        <v>-2.0060523258954501</v>
+        <v>-2.0051213084073472</v>
       </c>
       <c r="AB70" s="0">
-        <v>2.0528462719975065</v>
+        <v>2.052846271997506</v>
       </c>
       <c r="AC70" s="0">
-        <v>2.0060523258954501</v>
+        <v>2.0051213084073472</v>
       </c>
     </row>
     <row r="71">
@@ -6417,22 +6417,22 @@
         <v>6.9000000000000004</v>
       </c>
       <c r="B71" s="0">
-        <v>-3.0495341319961655</v>
+        <v>-3.0502935671164062</v>
       </c>
       <c r="C71" s="0">
-        <v>-3.0171548808048074</v>
+        <v>-3.0156575449838883</v>
       </c>
       <c r="D71" s="0">
-        <v>-3.0095440845590558</v>
+        <v>-3.0081918548175737</v>
       </c>
       <c r="E71" s="0">
-        <v>2.1049153211684697</v>
+        <v>2.1049153211684701</v>
       </c>
       <c r="F71" s="0">
-        <v>2.1049153211685803</v>
+        <v>2.1049153211685798</v>
       </c>
       <c r="G71" s="0">
-        <v>2.1049153211736762</v>
+        <v>2.1049153211736758</v>
       </c>
       <c r="H71" s="0">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>0</v>
       </c>
       <c r="N71" s="0">
-        <v>4.7706272015239906e-09</v>
+        <v>4.7479175598089922e-09</v>
       </c>
       <c r="O71" s="0">
-        <v>5.8469643988651822e-09</v>
+        <v>5.9022324388976035e-09</v>
       </c>
       <c r="P71" s="0">
-        <v>6.1333596306015384e-09</v>
+        <v>6.1856925592116061e-09</v>
       </c>
       <c r="Q71" s="0">
-        <v>554361.90957402508</v>
+        <v>554361.90957402601</v>
       </c>
       <c r="R71" s="0">
-        <v>554361.90957440878</v>
+        <v>554361.90957440832</v>
       </c>
       <c r="S71" s="0">
-        <v>554361.90959215886</v>
+        <v>554361.90959215758</v>
       </c>
       <c r="T71" s="0">
         <v>0</v>
@@ -6489,13 +6489,13 @@
         <v>0</v>
       </c>
       <c r="Z71" s="0">
-        <v>-3.0156031707339785</v>
+        <v>-3.015603170733979</v>
       </c>
       <c r="AA71" s="0">
         <v>-2</v>
       </c>
       <c r="AB71" s="0">
-        <v>2.1049153211684697</v>
+        <v>2.1049153211684701</v>
       </c>
       <c r="AC71" s="0">
         <v>2</v>
@@ -6506,13 +6506,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="0">
-        <v>-3.0765927057503974</v>
+        <v>-3.0789959116620911</v>
       </c>
       <c r="C72" s="0">
-        <v>-3.0615475842756328</v>
+        <v>-3.0605039415648778</v>
       </c>
       <c r="D72" s="0">
-        <v>-3.0520132800030835</v>
+        <v>-3.0555016172303304</v>
       </c>
       <c r="E72" s="0">
         <v>2.1536123213975875</v>
@@ -6533,31 +6533,31 @@
         <v>0</v>
       </c>
       <c r="K72" s="0">
-        <v>-5.2919244186352202e-14</v>
+        <v>-5.2867775827157663e-14</v>
       </c>
       <c r="L72" s="0">
-        <v>5.2919244186352202e-14</v>
+        <v>5.2867775827157663e-14</v>
       </c>
       <c r="M72" s="0">
         <v>0</v>
       </c>
       <c r="N72" s="0">
-        <v>4.0247538430720346e-09</v>
+        <v>3.964437441455989e-09</v>
       </c>
       <c r="O72" s="0">
-        <v>4.423782229423523e-09</v>
+        <v>4.4528860598802567e-09</v>
       </c>
       <c r="P72" s="0">
-        <v>4.6968911796108374e-09</v>
+        <v>4.595065312386636e-09</v>
       </c>
       <c r="Q72" s="0">
-        <v>752792.79416734492</v>
+        <v>752792.79416734551</v>
       </c>
       <c r="R72" s="0">
-        <v>752792.79416734492</v>
+        <v>752792.79416734551</v>
       </c>
       <c r="S72" s="0">
-        <v>752792.79422888777</v>
+        <v>752792.7942288873</v>
       </c>
       <c r="T72" s="0">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="W72" s="0">
-        <v>-2.5030467117358878e-07</v>
+        <v>-2.5006122909647485e-07</v>
       </c>
       <c r="X72" s="0">
-        <v>2.5030467117358878e-07</v>
+        <v>2.5006122909647485e-07</v>
       </c>
       <c r="Y72" s="0">
         <v>0</v>
@@ -6595,13 +6595,13 @@
         <v>7.0999999999999997</v>
       </c>
       <c r="B73" s="0">
-        <v>-3.1772030061258159</v>
+        <v>-3.1846646639996288</v>
       </c>
       <c r="C73" s="0">
-        <v>-3.0915839652377661</v>
+        <v>-3.094454851807714</v>
       </c>
       <c r="D73" s="0">
-        <v>-3.0915839652377661</v>
+        <v>-3.094454851807714</v>
       </c>
       <c r="E73" s="0">
         <v>2.1992745686014099</v>
@@ -6616,10 +6616,10 @@
         <v>0</v>
       </c>
       <c r="I73" s="0">
-        <v>-0.0048603930889700147</v>
+        <v>-0.0063276836024445142</v>
       </c>
       <c r="J73" s="0">
-        <v>0.0048603930889700147</v>
+        <v>0.0063276836024445142</v>
       </c>
       <c r="K73" s="0">
         <v>0</v>
@@ -6631,31 +6631,31 @@
         <v>0</v>
       </c>
       <c r="N73" s="0">
-        <v>2.1389404528434001e-09</v>
+        <v>2.040974952965405e-09</v>
       </c>
       <c r="O73" s="0">
-        <v>3.6612496022211965e-09</v>
+        <v>3.5946334337853032e-09</v>
       </c>
       <c r="P73" s="0">
-        <v>3.6612496022211965e-09</v>
+        <v>3.5946334337853032e-09</v>
       </c>
       <c r="Q73" s="0">
-        <v>1002943.4213087154</v>
+        <v>1002943.4213087149</v>
       </c>
       <c r="R73" s="0">
         <v>1002943.4213094381</v>
       </c>
       <c r="S73" s="0">
-        <v>1002943.4219745039</v>
+        <v>1002943.4219745033</v>
       </c>
       <c r="T73" s="0">
         <v>0</v>
       </c>
       <c r="U73" s="0">
-        <v>-1.1184475945357587e-10</v>
+        <v>-1.429908168821973e-10</v>
       </c>
       <c r="V73" s="0">
-        <v>1.1184475945357587e-10</v>
+        <v>1.429908168821973e-10</v>
       </c>
       <c r="W73" s="0">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>-3.1099624181669188</v>
       </c>
       <c r="AA73" s="0">
-        <v>-2.0048603930889701</v>
+        <v>-2.0063276836024446</v>
       </c>
       <c r="AB73" s="0">
         <v>2.1992745686014099</v>
       </c>
       <c r="AC73" s="0">
-        <v>2.0048603930889701</v>
+        <v>2.0063276836024446</v>
       </c>
     </row>
     <row r="74">
@@ -6684,31 +6684,31 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="B74" s="0">
-        <v>-3.4461602916429093</v>
+        <v>-3.4664776695670572</v>
       </c>
       <c r="C74" s="0">
-        <v>-3.1624077354964411</v>
+        <v>-3.1451904530471064</v>
       </c>
       <c r="D74" s="0">
-        <v>-3.1278825476188099</v>
+        <v>-3.1451904530471064</v>
       </c>
       <c r="E74" s="0">
-        <v>2.2421244902202937</v>
+        <v>2.2421244902202941</v>
       </c>
       <c r="F74" s="0">
         <v>2.2421244902245623</v>
       </c>
       <c r="G74" s="0">
-        <v>2.2421244902272202</v>
+        <v>2.2421244902272197</v>
       </c>
       <c r="H74" s="0">
         <v>0</v>
       </c>
       <c r="I74" s="0">
-        <v>0</v>
+        <v>-0.010314334991461848</v>
       </c>
       <c r="J74" s="0">
-        <v>0</v>
+        <v>0.010314334991461848</v>
       </c>
       <c r="K74" s="0">
         <v>0</v>
@@ -6720,31 +6720,31 @@
         <v>0</v>
       </c>
       <c r="N74" s="0">
-        <v>3.9471240270427936e-10</v>
+        <v>3.4740788642791994e-10</v>
       </c>
       <c r="O74" s="0">
-        <v>2.3473147563745972e-09</v>
+        <v>2.6099993094504505e-09</v>
       </c>
       <c r="P74" s="0">
-        <v>2.9159631332976552e-09</v>
+        <v>2.6099993094504505e-09</v>
       </c>
       <c r="Q74" s="0">
-        <v>1312814.224345996</v>
+        <v>1312814.2243460012</v>
       </c>
       <c r="R74" s="0">
         <v>1312814.2243812047</v>
       </c>
       <c r="S74" s="0">
-        <v>1312814.224403128</v>
+        <v>1312814.2244031248</v>
       </c>
       <c r="T74" s="0">
         <v>0</v>
       </c>
       <c r="U74" s="0">
-        <v>0</v>
+        <v>-1.693831059149241e-10</v>
       </c>
       <c r="V74" s="0">
-        <v>0</v>
+        <v>1.693831059149241e-10</v>
       </c>
       <c r="W74" s="0">
         <v>0</v>
@@ -6756,16 +6756,16 @@
         <v>0</v>
       </c>
       <c r="Z74" s="0">
-        <v>-3.1528123397858026</v>
+        <v>-3.152812339785803</v>
       </c>
       <c r="AA74" s="0">
-        <v>-2</v>
+        <v>-2.0103143349914618</v>
       </c>
       <c r="AB74" s="0">
-        <v>2.2421244902202937</v>
+        <v>2.2421244902202941</v>
       </c>
       <c r="AC74" s="0">
-        <v>2</v>
+        <v>2.0103143349914618</v>
       </c>
     </row>
     <row r="75">
@@ -6773,19 +6773,19 @@
         <v>7.2999999999999998</v>
       </c>
       <c r="B75" s="0">
-        <v>-3.197615529537142</v>
+        <v>-3.1956371369691778</v>
       </c>
       <c r="C75" s="0">
-        <v>-3.1220404010026268</v>
+        <v>-3.1193756672906181</v>
       </c>
       <c r="D75" s="0">
-        <v>-3.1220404010026268</v>
+        <v>-3.1193756672906181</v>
       </c>
       <c r="E75" s="0">
         <v>2.2822987156702057</v>
       </c>
       <c r="F75" s="0">
-        <v>2.2822987156706165</v>
+        <v>2.282298715670616</v>
       </c>
       <c r="G75" s="0">
         <v>2.2822987156973542</v>
@@ -6794,10 +6794,10 @@
         <v>0</v>
       </c>
       <c r="I75" s="0">
-        <v>-0.095308159693124381</v>
+        <v>-0.098033076283584805</v>
       </c>
       <c r="J75" s="0">
-        <v>0.095308159693124381</v>
+        <v>0.098033076283584805</v>
       </c>
       <c r="K75" s="0">
         <v>0</v>
@@ -6809,31 +6809,31 @@
         <v>0</v>
       </c>
       <c r="N75" s="0">
-        <v>1.8814728928565855e-09</v>
+        <v>1.9050067099658265e-09</v>
       </c>
       <c r="O75" s="0">
-        <v>2.4986128113755813e-09</v>
+        <v>2.5107415386794696e-09</v>
       </c>
       <c r="P75" s="0">
-        <v>2.4986128113755813e-09</v>
+        <v>2.5107415386794696e-09</v>
       </c>
       <c r="Q75" s="0">
-        <v>1689774.6873117129</v>
+        <v>1689774.6873117134</v>
       </c>
       <c r="R75" s="0">
-        <v>1689774.6873160713</v>
+        <v>1689774.6873160701</v>
       </c>
       <c r="S75" s="0">
-        <v>1689774.6875999523</v>
+        <v>1689774.6875999519</v>
       </c>
       <c r="T75" s="0">
         <v>0</v>
       </c>
       <c r="U75" s="0">
-        <v>-1.7051371134611966e-09</v>
+        <v>-1.777171755223904e-09</v>
       </c>
       <c r="V75" s="0">
-        <v>1.7051371134611966e-09</v>
+        <v>1.777171755223904e-09</v>
       </c>
       <c r="W75" s="0">
         <v>0</v>
@@ -6848,13 +6848,13 @@
         <v>-3.1929865652357146</v>
       </c>
       <c r="AA75" s="0">
-        <v>-2.0953081596931242</v>
+        <v>-2.0980330762835848</v>
       </c>
       <c r="AB75" s="0">
         <v>2.2822987156702057</v>
       </c>
       <c r="AC75" s="0">
-        <v>2.0953081596931242</v>
+        <v>2.0980330762835848</v>
       </c>
     </row>
     <row r="76">
@@ -6951,19 +6951,19 @@
         <v>7.5</v>
       </c>
       <c r="B77" s="0">
-        <v>-3.3198056269486593</v>
+        <v>-3.3425808335746927</v>
       </c>
       <c r="C77" s="0">
-        <v>-3.2042447008122079</v>
+        <v>-3.2099357816343881</v>
       </c>
       <c r="D77" s="0">
-        <v>-3.1226135527763646</v>
+        <v>-3.1235637124852338</v>
       </c>
       <c r="E77" s="0">
         <v>2.3548250799102886</v>
       </c>
       <c r="F77" s="0">
-        <v>2.354825079911202</v>
+        <v>2.3548250799112016</v>
       </c>
       <c r="G77" s="0">
         <v>2.3548250799438297</v>
@@ -6987,22 +6987,22 @@
         <v>0</v>
       </c>
       <c r="N77" s="0">
-        <v>8.7311491370201111e-10</v>
+        <v>7.5669959187507629e-10</v>
       </c>
       <c r="O77" s="0">
-        <v>1.8047148693635071e-09</v>
+        <v>1.7413218292268643e-09</v>
       </c>
       <c r="P77" s="0">
-        <v>3.0141149619929711e-09</v>
+        <v>2.9961742133717726e-09</v>
       </c>
       <c r="Q77" s="0">
-        <v>2665233.8040115265</v>
+        <v>2665233.8040115279</v>
       </c>
       <c r="R77" s="0">
-        <v>2665233.8040268165</v>
+        <v>2665233.8040268128</v>
       </c>
       <c r="S77" s="0">
-        <v>2665233.8045732095</v>
+        <v>2665233.80457321</v>
       </c>
       <c r="T77" s="0">
         <v>0</v>
@@ -7040,13 +7040,13 @@
         <v>7.5999999999999997</v>
       </c>
       <c r="B78" s="0">
-        <v>-3.3941055184003659</v>
+        <v>-3.6569412377656132</v>
       </c>
       <c r="C78" s="0">
-        <v>-3.3941055184003659</v>
+        <v>-3.7088772113225042</v>
       </c>
       <c r="D78" s="0">
-        <v>-2.9849253866600622</v>
+        <v>-2.9779322151885346</v>
       </c>
       <c r="E78" s="0">
         <v>2.3871242477374604</v>
@@ -7058,10 +7058,10 @@
         <v>2.387124247893845</v>
       </c>
       <c r="H78" s="0">
-        <v>-0.18122187670369933</v>
+        <v>-0</v>
       </c>
       <c r="I78" s="0">
-        <v>0.18122187670369933</v>
+        <v>0</v>
       </c>
       <c r="J78" s="0">
         <v>0</v>
@@ -7076,28 +7076,28 @@
         <v>0</v>
       </c>
       <c r="N78" s="0">
-        <v>2.2927304551420408e-10</v>
+        <v>-1.049812393756191e-10</v>
       </c>
       <c r="O78" s="0">
-        <v>2.2927304551420408e-10</v>
+        <v>7.5751505260197591e-11</v>
       </c>
       <c r="P78" s="0">
-        <v>7.1594023330914338e-09</v>
+        <v>7.4809956894998003e-09</v>
       </c>
       <c r="Q78" s="0">
-        <v>3264914.0634037834</v>
+        <v>3264914.0634037815</v>
       </c>
       <c r="R78" s="0">
-        <v>3264914.0666075936</v>
+        <v>3264914.0666075964</v>
       </c>
       <c r="S78" s="0">
         <v>3264914.0666118716</v>
       </c>
       <c r="T78" s="0">
-        <v>-4.9710062916694391e-10</v>
+        <v>0</v>
       </c>
       <c r="U78" s="0">
-        <v>4.9710062916694391e-10</v>
+        <v>0</v>
       </c>
       <c r="V78" s="0">
         <v>0</v>
@@ -7115,13 +7115,13 @@
         <v>-3.2978120973029692</v>
       </c>
       <c r="AA78" s="0">
-        <v>-2.1812218767036993</v>
+        <v>-2</v>
       </c>
       <c r="AB78" s="0">
         <v>2.3871242477374604</v>
       </c>
       <c r="AC78" s="0">
-        <v>2.1812218767036993</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -7129,13 +7129,13 @@
         <v>7.6999999999999993</v>
       </c>
       <c r="B79" s="0">
-        <v>-3.35315234322898</v>
+        <v>-3.5711348694305323</v>
       </c>
       <c r="C79" s="0">
-        <v>-3.1891830300745641</v>
+        <v>-3.1497205367032559</v>
       </c>
       <c r="D79" s="0">
-        <v>-3.1891830300745641</v>
+        <v>-3.1497205367032559</v>
       </c>
       <c r="E79" s="0">
         <v>2.4166362174626919</v>
@@ -7150,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="I79" s="0">
-        <v>-0.088231241763602059</v>
+        <v>-0.095713209621855186</v>
       </c>
       <c r="J79" s="0">
-        <v>0.088231241763602059</v>
+        <v>0.095713209621855186</v>
       </c>
       <c r="K79" s="0">
         <v>0</v>
@@ -7165,31 +7165,31 @@
         <v>0</v>
       </c>
       <c r="N79" s="0">
-        <v>7.0807043996263575e-10</v>
+        <v>1.7999318235474629e-10</v>
       </c>
       <c r="O79" s="0">
-        <v>1.6867272904129113e-09</v>
+        <v>2.096092154589769e-09</v>
       </c>
       <c r="P79" s="0">
-        <v>1.6867272904129113e-09</v>
+        <v>2.096092154589769e-09</v>
       </c>
       <c r="Q79" s="0">
-        <v>3930091.139777564</v>
+        <v>3930091.1397775635</v>
       </c>
       <c r="R79" s="0">
-        <v>3930091.1397831067</v>
+        <v>3930091.1397831119</v>
       </c>
       <c r="S79" s="0">
-        <v>3930091.147845834</v>
+        <v>3930091.1478458326</v>
       </c>
       <c r="T79" s="0">
         <v>0</v>
       </c>
       <c r="U79" s="0">
-        <v>-1.0443179115823471e-09</v>
+        <v>-1.4382760996977469e-09</v>
       </c>
       <c r="V79" s="0">
-        <v>1.0443179115823471e-09</v>
+        <v>1.4382760996977469e-09</v>
       </c>
       <c r="W79" s="0">
         <v>0</v>
@@ -7204,13 +7204,13 @@
         <v>-3.3273240670282007</v>
       </c>
       <c r="AA79" s="0">
-        <v>-2.088231241763602</v>
+        <v>-2.0957132096218554</v>
       </c>
       <c r="AB79" s="0">
         <v>2.4166362174626919</v>
       </c>
       <c r="AC79" s="0">
-        <v>2.088231241763602</v>
+        <v>2.0957132096218554</v>
       </c>
     </row>
     <row r="80">
@@ -7218,13 +7218,13 @@
         <v>7.7999999999999998</v>
       </c>
       <c r="B80" s="0">
-        <v>-3.6905249561657953</v>
+        <v>-3.4097622752596273</v>
       </c>
       <c r="C80" s="0">
-        <v>-3.419175562895445</v>
+        <v>-3.4097622752596273</v>
       </c>
       <c r="D80" s="0">
-        <v>-3.0778827002908056</v>
+        <v>-3.0744761121859567</v>
       </c>
       <c r="E80" s="0">
         <v>2.4431533501256118</v>
@@ -7236,55 +7236,55 @@
         <v>2.4431533506805385</v>
       </c>
       <c r="H80" s="0">
-        <v>0</v>
+        <v>-0.17132918571741376</v>
       </c>
       <c r="I80" s="0">
-        <v>0</v>
+        <v>0.17132918571741376</v>
       </c>
       <c r="J80" s="0">
         <v>0</v>
       </c>
       <c r="K80" s="0">
-        <v>-1.0313894668688799e-13</v>
+        <v>-1.0314681537812579e-13</v>
       </c>
       <c r="L80" s="0">
-        <v>1.0313894668688799e-13</v>
+        <v>1.0314681537812579e-13</v>
       </c>
       <c r="M80" s="0">
         <v>0</v>
       </c>
       <c r="N80" s="0">
-        <v>8.5010003310184866e-11</v>
+        <v>2.3537673998171742e-10</v>
       </c>
       <c r="O80" s="0">
-        <v>4.6764406256428497e-10</v>
+        <v>2.3537673998171742e-10</v>
       </c>
       <c r="P80" s="0">
-        <v>3.9922639550067307e-09</v>
+        <v>4.0786363376690684e-09</v>
       </c>
       <c r="Q80" s="0">
-        <v>4642600.5598991904</v>
+        <v>4642600.5598991914</v>
       </c>
       <c r="R80" s="0">
-        <v>4642600.5598991904</v>
+        <v>4642600.5598991914</v>
       </c>
       <c r="S80" s="0">
-        <v>4642600.5760865724</v>
+        <v>4642600.5760865742</v>
       </c>
       <c r="T80" s="0">
-        <v>0</v>
+        <v>-4.3674947208164704e-10</v>
       </c>
       <c r="U80" s="0">
-        <v>0</v>
+        <v>4.3674947208164704e-10</v>
       </c>
       <c r="V80" s="0">
         <v>0</v>
       </c>
       <c r="W80" s="0">
-        <v>-3.0085960406487844e-06</v>
+        <v>-3.0088255728872224e-06</v>
       </c>
       <c r="X80" s="0">
-        <v>3.0085960406487844e-06</v>
+        <v>3.0088255728872224e-06</v>
       </c>
       <c r="Y80" s="0">
         <v>0</v>
@@ -7293,13 +7293,13 @@
         <v>-3.3538411996911206</v>
       </c>
       <c r="AA80" s="0">
-        <v>-2.000000000000103</v>
+        <v>-2.171329185717414</v>
       </c>
       <c r="AB80" s="0">
         <v>2.4431533501256118</v>
       </c>
       <c r="AC80" s="0">
-        <v>2.000000000000103</v>
+        <v>2.171329185717414</v>
       </c>
     </row>
     <row r="81">
@@ -7307,19 +7307,19 @@
         <v>7.9000000000000004</v>
       </c>
       <c r="B81" s="0">
-        <v>-3.1837427116567119</v>
+        <v>-3.2084786868737618</v>
       </c>
       <c r="C81" s="0">
-        <v>-3.3516509437440956</v>
+        <v>-3.4472995091389098</v>
       </c>
       <c r="D81" s="0">
-        <v>-3.0605943274263257</v>
+        <v>-3.0560907252817913</v>
       </c>
       <c r="E81" s="0">
-        <v>2.4663594895985197</v>
+        <v>2.4663594895985193</v>
       </c>
       <c r="F81" s="0">
-        <v>2.4663594895992267</v>
+        <v>2.4663594895992271</v>
       </c>
       <c r="G81" s="0">
         <v>2.4663594896177345</v>
@@ -7328,7 +7328,7 @@
         <v>-0</v>
       </c>
       <c r="I81" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J81" s="0">
         <v>0</v>
@@ -7343,22 +7343,22 @@
         <v>0</v>
       </c>
       <c r="N81" s="0">
-        <v>-2.0528322176055241e-09</v>
+        <v>-1.7573371724962196e-09</v>
       </c>
       <c r="O81" s="0">
-        <v>7.1478167856396816e-10</v>
+        <v>-3.9189717262960796e-10</v>
       </c>
       <c r="P81" s="0">
-        <v>4.4503579343290361e-09</v>
+        <v>4.5780882322673898e-09</v>
       </c>
       <c r="Q81" s="0">
-        <v>5371370.8179432787</v>
+        <v>5371370.8179432722</v>
       </c>
       <c r="R81" s="0">
-        <v>5371370.8179671448</v>
+        <v>5371370.8179671597</v>
       </c>
       <c r="S81" s="0">
-        <v>5371370.8185917716</v>
+        <v>5371370.818591767</v>
       </c>
       <c r="T81" s="0">
         <v>0</v>
@@ -7379,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="Z81" s="0">
-        <v>-3.3770473391640286</v>
+        <v>-3.3770473391640281</v>
       </c>
       <c r="AA81" s="0">
         <v>-2</v>
       </c>
       <c r="AB81" s="0">
-        <v>2.4663594895985197</v>
+        <v>2.4663594895985193</v>
       </c>
       <c r="AC81" s="0">
         <v>2</v>
@@ -7396,16 +7396,16 @@
         <v>8</v>
       </c>
       <c r="B82" s="0">
-        <v>-2.8861860572659652</v>
+        <v>-2.8892488996976415</v>
       </c>
       <c r="C82" s="0">
-        <v>-3.3217225655667173</v>
+        <v>-3.261888870545858</v>
       </c>
       <c r="D82" s="0">
-        <v>-3.1116233644480098</v>
+        <v>-3.1182150195019345</v>
       </c>
       <c r="E82" s="0">
-        <v>2.4857836746704383</v>
+        <v>2.4857836746704387</v>
       </c>
       <c r="F82" s="0">
         <v>2.4857836746708966</v>
@@ -7432,19 +7432,19 @@
         <v>0</v>
       </c>
       <c r="N82" s="0">
-        <v>-1.3314105114016309e-08</v>
+        <v>-1.3060332743433288e-08</v>
       </c>
       <c r="O82" s="0">
-        <v>8.6266177577477504e-10</v>
+        <v>1.2563536688398797e-09</v>
       </c>
       <c r="P82" s="0">
-        <v>3.2296043322315271e-09</v>
+        <v>3.0985772105163167e-09</v>
       </c>
       <c r="Q82" s="0">
-        <v>6068605.8718994232</v>
+        <v>6068605.8718994381</v>
       </c>
       <c r="R82" s="0">
-        <v>6068605.8719168901</v>
+        <v>6068605.8719168883</v>
       </c>
       <c r="S82" s="0">
         <v>6068605.8842628412</v>
@@ -7468,13 +7468,13 @@
         <v>0</v>
       </c>
       <c r="Z82" s="0">
-        <v>-3.3964715242359471</v>
+        <v>-3.3964715242359476</v>
       </c>
       <c r="AA82" s="0">
         <v>-2</v>
       </c>
       <c r="AB82" s="0">
-        <v>2.4857836746704383</v>
+        <v>2.4857836746704387</v>
       </c>
       <c r="AC82" s="0">
         <v>2</v>
@@ -7485,19 +7485,19 @@
         <v>8.0999999999999997</v>
       </c>
       <c r="B83" s="0">
-        <v>-2.8879320276006317</v>
+        <v>-2.9062175273192192</v>
       </c>
       <c r="C83" s="0">
-        <v>-3.2471222758186693</v>
+        <v>-3.1802869723668854</v>
       </c>
       <c r="D83" s="0">
-        <v>-3.0992939320076878</v>
+        <v>-3.1802869723668854</v>
       </c>
       <c r="E83" s="0">
         <v>2.5007167751364032</v>
       </c>
       <c r="F83" s="0">
-        <v>2.5007167752199728</v>
+        <v>2.5007167752199733</v>
       </c>
       <c r="G83" s="0">
         <v>2.5007167752230823</v>
@@ -7506,10 +7506,10 @@
         <v>-0</v>
       </c>
       <c r="I83" s="0">
-        <v>0</v>
+        <v>-0.03780877878415681</v>
       </c>
       <c r="J83" s="0">
-        <v>0</v>
+        <v>0.03780877878415681</v>
       </c>
       <c r="K83" s="0">
         <v>0</v>
@@ -7521,31 +7521,31 @@
         <v>0</v>
       </c>
       <c r="N83" s="0">
-        <v>-1.3168844215137133e-08</v>
+        <v>-1.1739539277748246e-08</v>
       </c>
       <c r="O83" s="0">
-        <v>1.3784984994005839e-09</v>
+        <v>2.0389739544426804e-09</v>
       </c>
       <c r="P83" s="0">
-        <v>3.489741765295949e-09</v>
+        <v>2.0389739544426804e-09</v>
       </c>
       <c r="Q83" s="0">
-        <v>6665575.7966222875</v>
+        <v>6665575.7966222838</v>
       </c>
       <c r="R83" s="0">
-        <v>6665575.8001222676</v>
+        <v>6665575.8001222871</v>
       </c>
       <c r="S83" s="0">
-        <v>6665575.8002524851</v>
+        <v>6665575.8002524935</v>
       </c>
       <c r="T83" s="0">
         <v>0</v>
       </c>
       <c r="U83" s="0">
-        <v>0</v>
+        <v>-4.9370014036686646e-10</v>
       </c>
       <c r="V83" s="0">
-        <v>0</v>
+        <v>4.9370014036686646e-10</v>
       </c>
       <c r="W83" s="0">
         <v>0</v>
@@ -7560,13 +7560,13 @@
         <v>-3.4114046247019121</v>
       </c>
       <c r="AA83" s="0">
-        <v>-2</v>
+        <v>-2.0378087787841568</v>
       </c>
       <c r="AB83" s="0">
         <v>2.5007167751364032</v>
       </c>
       <c r="AC83" s="0">
-        <v>2</v>
+        <v>2.0378087787841568</v>
       </c>
     </row>
     <row r="84">
@@ -7574,10 +7574,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B84" s="0">
-        <v>-3.3513777769689512</v>
+        <v>-3.0674830623698051</v>
       </c>
       <c r="C84" s="0">
-        <v>-3.092502419180398</v>
+        <v>-3.0674830623698051</v>
       </c>
       <c r="D84" s="0">
         <v>-3.0888984021371222</v>
@@ -7592,10 +7592,10 @@
         <v>2.5100523498245479</v>
       </c>
       <c r="H84" s="0">
-        <v>0</v>
+        <v>-0.14649845150969296</v>
       </c>
       <c r="I84" s="0">
-        <v>0</v>
+        <v>0.14649845150969296</v>
       </c>
       <c r="J84" s="0">
         <v>0</v>
@@ -7604,34 +7604,34 @@
         <v>0</v>
       </c>
       <c r="L84" s="0">
-        <v>-2.1971513364896679e-13</v>
+        <v>-2.1955066813218236e-13</v>
       </c>
       <c r="M84" s="0">
-        <v>2.1971513364896679e-13</v>
+        <v>2.1955066813218236e-13</v>
       </c>
       <c r="N84" s="0">
-        <v>7.1600955287014442e-10</v>
+        <v>2.5802920549320754e-09</v>
       </c>
       <c r="O84" s="0">
-        <v>3.6418801547849209e-09</v>
+        <v>2.5802920549320754e-09</v>
       </c>
       <c r="P84" s="0">
         <v>3.7252902984619141e-09</v>
       </c>
       <c r="Q84" s="0">
-        <v>7068253.9219088648</v>
+        <v>7068253.9219088629</v>
       </c>
       <c r="R84" s="0">
-        <v>7068253.9736880073</v>
+        <v>7068253.9736880064</v>
       </c>
       <c r="S84" s="0">
-        <v>7068253.9736880073</v>
+        <v>7068253.9736880064</v>
       </c>
       <c r="T84" s="0">
-        <v>0</v>
+        <v>-3.3919589263726272e-09</v>
       </c>
       <c r="U84" s="0">
-        <v>0</v>
+        <v>3.3919589263726272e-09</v>
       </c>
       <c r="V84" s="0">
         <v>0</v>
@@ -7640,22 +7640,22 @@
         <v>0</v>
       </c>
       <c r="X84" s="0">
-        <v>-9.7578016511683496e-06</v>
+        <v>-9.7504975485123915e-06</v>
       </c>
       <c r="Y84" s="0">
-        <v>9.7578016511683496e-06</v>
+        <v>9.7504975485123915e-06</v>
       </c>
       <c r="Z84" s="0">
         <v>-3.4207401982241525</v>
       </c>
       <c r="AA84" s="0">
-        <v>-2.0000000000002198</v>
+        <v>-2.146498451509693</v>
       </c>
       <c r="AB84" s="0">
         <v>2.5100523486586437</v>
       </c>
       <c r="AC84" s="0">
-        <v>2.0000000000002198</v>
+        <v>2.146498451509693</v>
       </c>
     </row>
     <row r="85">
@@ -7663,13 +7663,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B85" s="0">
-        <v>-3.0216145559466257</v>
+        <v>-2.9492741128360431</v>
       </c>
       <c r="C85" s="0">
-        <v>-3.0216145559466257</v>
+        <v>-2.9492741128360431</v>
       </c>
       <c r="D85" s="0">
-        <v>-3.4335573487834852</v>
+        <v>-3.4586882155502976</v>
       </c>
       <c r="E85" s="0">
         <v>2.5119538099093375</v>
@@ -7681,13 +7681,13 @@
         <v>2.511953811014803</v>
       </c>
       <c r="H85" s="0">
-        <v>0.13534947783895213</v>
+        <v>0.18245526710646515</v>
       </c>
       <c r="I85" s="0">
-        <v>-0.13534947783895213</v>
+        <v>-0.18245526710646515</v>
       </c>
       <c r="J85" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K85" s="0">
         <v>0</v>
@@ -7699,28 +7699,28 @@
         <v>0</v>
       </c>
       <c r="N85" s="0">
-        <v>-3.750449526207186e-09</v>
+        <v>-3.6882089290776047e-09</v>
       </c>
       <c r="O85" s="0">
-        <v>-3.750449526207186e-09</v>
+        <v>-3.6882089290776047e-09</v>
       </c>
       <c r="P85" s="0">
-        <v>-4.2723919442784703e-10</v>
+        <v>3.6483388407627372e-10</v>
       </c>
       <c r="Q85" s="0">
-        <v>7153206.4646367151</v>
+        <v>7153206.464636717</v>
       </c>
       <c r="R85" s="0">
-        <v>7153206.5142913358</v>
+        <v>7153206.514291333</v>
       </c>
       <c r="S85" s="0">
-        <v>7153206.5143217575</v>
+        <v>7153206.5143217621</v>
       </c>
       <c r="T85" s="0">
-        <v>-4.2729278585613563e-09</v>
+        <v>-8.1623596995848424e-09</v>
       </c>
       <c r="U85" s="0">
-        <v>4.2729278585613563e-09</v>
+        <v>8.1623596995848424e-09</v>
       </c>
       <c r="V85" s="0">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>-3.4226416594748463</v>
       </c>
       <c r="AA85" s="0">
-        <v>-2.1353494778389521</v>
+        <v>-2.182455267106465</v>
       </c>
       <c r="AB85" s="0">
         <v>2.5119538099093375</v>
       </c>
       <c r="AC85" s="0">
-        <v>2.1353494778389521</v>
+        <v>2.182455267106465</v>
       </c>
     </row>
     <row r="86">
@@ -7752,13 +7752,13 @@
         <v>8.4000000000000004</v>
       </c>
       <c r="B86" s="0">
-        <v>-2.8230295600172801</v>
+        <v>-2.8195452400771148</v>
       </c>
       <c r="C86" s="0">
         <v>-3.0888984021371222</v>
       </c>
       <c r="D86" s="0">
-        <v>-3.2326682294657534</v>
+        <v>-3.2283842510495724</v>
       </c>
       <c r="E86" s="0">
         <v>2.5030583357964247</v>
@@ -7788,22 +7788,22 @@
         <v>0</v>
       </c>
       <c r="N86" s="0">
-        <v>-1.9799327722444865e-08</v>
+        <v>-2.0237566633333033e-08</v>
       </c>
       <c r="O86" s="0">
         <v>-3.7252902984619141e-09</v>
       </c>
       <c r="P86" s="0">
-        <v>1.5095510890107657e-09</v>
+        <v>1.5507355159861539e-09</v>
       </c>
       <c r="Q86" s="0">
-        <v>6764367.7652202556</v>
+        <v>6764367.7652202528</v>
       </c>
       <c r="R86" s="0">
-        <v>6764367.7653914345</v>
+        <v>6764367.7653914308</v>
       </c>
       <c r="S86" s="0">
-        <v>6764367.8096116874</v>
+        <v>6764367.8096116921</v>
       </c>
       <c r="T86" s="0">
         <v>0</v>
@@ -7841,16 +7841,16 @@
         <v>8.5</v>
       </c>
       <c r="B87" s="0">
-        <v>-2.8686738236412417</v>
+        <v>-2.8690151282522614</v>
       </c>
       <c r="C87" s="0">
         <v>-3.3095340022897739</v>
       </c>
       <c r="D87" s="0">
-        <v>-3.1393829442217385</v>
+        <v>-3.1266159899109463</v>
       </c>
       <c r="E87" s="0">
-        <v>2.4761351975956489</v>
+        <v>2.4761351975956494</v>
       </c>
       <c r="F87" s="0">
         <v>2.4761351997201375</v>
@@ -7871,28 +7871,28 @@
         <v>0</v>
       </c>
       <c r="L87" s="0">
-        <v>-8.8084532884158666e-13</v>
+        <v>-8.8063918537493303e-13</v>
       </c>
       <c r="M87" s="0">
-        <v>8.8084532884158666e-13</v>
+        <v>8.8063918537493303e-13</v>
       </c>
       <c r="N87" s="0">
-        <v>-1.4862728217463554e-08</v>
+        <v>-1.4830889543217011e-08</v>
       </c>
       <c r="O87" s="0">
         <v>9.3132257461547852e-10</v>
       </c>
       <c r="P87" s="0">
-        <v>2.7126907750313228e-09</v>
+        <v>2.9392609962823661e-09</v>
       </c>
       <c r="Q87" s="0">
-        <v>5711637.3516153926</v>
+        <v>5711637.3516153963</v>
       </c>
       <c r="R87" s="0">
-        <v>5711637.4278574921</v>
+        <v>5711637.4278574903</v>
       </c>
       <c r="S87" s="0">
-        <v>5711637.4278574921</v>
+        <v>5711637.4278574903</v>
       </c>
       <c r="T87" s="0">
         <v>0</v>
@@ -7907,19 +7907,19 @@
         <v>0</v>
       </c>
       <c r="X87" s="0">
-        <v>-3.1611139752411777e-05</v>
+        <v>-3.1603741824852789e-05</v>
       </c>
       <c r="Y87" s="0">
-        <v>3.1611139752411777e-05</v>
+        <v>3.1603741824852789e-05</v>
       </c>
       <c r="Z87" s="0">
-        <v>-3.3868230471611578</v>
+        <v>-3.3868230471611582</v>
       </c>
       <c r="AA87" s="0">
         <v>-2.0000000000008806</v>
       </c>
       <c r="AB87" s="0">
-        <v>2.4761351975956489</v>
+        <v>2.4761351975956494</v>
       </c>
       <c r="AC87" s="0">
         <v>2.0000000000008806</v>
@@ -7930,13 +7930,13 @@
         <v>8.5999999999999997</v>
       </c>
       <c r="B88" s="0">
-        <v>-2.865383649877177</v>
+        <v>-2.8433085249062873</v>
       </c>
       <c r="C88" s="0">
-        <v>-3.2958665464574883</v>
+        <v>-3.325664754239114</v>
       </c>
       <c r="D88" s="0">
-        <v>-2.6416480396451085</v>
+        <v>-2.6331361934019348</v>
       </c>
       <c r="E88" s="0">
         <v>2.4101281143053406</v>
@@ -7945,7 +7945,7 @@
         <v>2.4101281212049641</v>
       </c>
       <c r="G88" s="0">
-        <v>2.4101281212052412</v>
+        <v>2.4101281212052403</v>
       </c>
       <c r="H88" s="0">
         <v>-0</v>
@@ -7966,22 +7966,22 @@
         <v>0</v>
       </c>
       <c r="N88" s="0">
-        <v>-1.5173179893101409e-08</v>
+        <v>-1.7430673332943827e-08</v>
       </c>
       <c r="O88" s="0">
-        <v>1.0148345332949088e-09</v>
+        <v>8.4155653543212402e-10</v>
       </c>
       <c r="P88" s="0">
-        <v>6.188647681134088e-08</v>
+        <v>6.5286364072550003e-08</v>
       </c>
       <c r="Q88" s="0">
-        <v>3772624.8212620011</v>
+        <v>3772624.8212619983</v>
       </c>
       <c r="R88" s="0">
-        <v>3772624.9848113763</v>
+        <v>3772624.9848113824</v>
       </c>
       <c r="S88" s="0">
-        <v>3772624.984817937</v>
+        <v>3772624.9848179277</v>
       </c>
       <c r="T88" s="0">
         <v>0</v>
@@ -8019,16 +8019,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B89" s="0">
-        <v>-2.5544966304749792</v>
+        <v>-2.6126221586115528</v>
       </c>
       <c r="C89" s="0">
-        <v>-2.5544966304749792</v>
+        <v>-2.6126221586115528</v>
       </c>
       <c r="D89" s="0">
-        <v>-2.9874977377899432</v>
+        <v>-3.0973745621073863</v>
       </c>
       <c r="E89" s="0">
-        <v>2.1418943520135163</v>
+        <v>2.1418943520135159</v>
       </c>
       <c r="F89" s="0">
         <v>2.1418943520485354</v>
@@ -8037,10 +8037,10 @@
         <v>2.1418943967327695</v>
       </c>
       <c r="H89" s="0">
-        <v>0.22879575062724297</v>
+        <v>0.22314807046220075</v>
       </c>
       <c r="I89" s="0">
-        <v>-0.22879575062724297</v>
+        <v>-0.22314807046220075</v>
       </c>
       <c r="J89" s="0">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>0</v>
       </c>
       <c r="N89" s="0">
-        <v>-1.4214369613882137e-08</v>
+        <v>-1.2470769612067729e-08</v>
       </c>
       <c r="O89" s="0">
-        <v>-1.4214369613882137e-08</v>
+        <v>-1.2470769612067729e-08</v>
       </c>
       <c r="P89" s="0">
-        <v>7.044618173332431e-09</v>
+        <v>3.5320819954126022e-09</v>
       </c>
       <c r="Q89" s="0">
-        <v>699358.74954902078</v>
+        <v>699358.74954902008</v>
       </c>
       <c r="R89" s="0">
         <v>699358.74970290391</v>
       </c>
       <c r="S89" s="0">
-        <v>699358.94605442067</v>
+        <v>699358.94605442043</v>
       </c>
       <c r="T89" s="0">
-        <v>-1.0605826503431123e-07</v>
+        <v>-7.3213230809826346e-08</v>
       </c>
       <c r="U89" s="0">
-        <v>1.0605826503431123e-07</v>
+        <v>7.3213230809826346e-08</v>
       </c>
       <c r="V89" s="0">
         <v>0</v>
@@ -8091,16 +8091,16 @@
         <v>0</v>
       </c>
       <c r="Z89" s="0">
-        <v>-3.0525822015790252</v>
+        <v>-3.0525822015790247</v>
       </c>
       <c r="AA89" s="0">
-        <v>-2.2287957506272429</v>
+        <v>-2.2231480704622006</v>
       </c>
       <c r="AB89" s="0">
-        <v>2.1418943520135163</v>
+        <v>2.1418943520135159</v>
       </c>
       <c r="AC89" s="0">
-        <v>2.2287957506272429</v>
+        <v>2.2231480704622006</v>
       </c>
     </row>
     <row r="90">
@@ -8117,13 +8117,13 @@
         <v>2.4099167435789361</v>
       </c>
       <c r="E90" s="0">
-        <v>-3.1543766412669059</v>
+        <v>-3.152699326625962</v>
       </c>
       <c r="F90" s="0">
-        <v>-2.6476719212683251</v>
+        <v>-2.6465270091638136</v>
       </c>
       <c r="G90" s="0">
-        <v>-2.6476719212683251</v>
+        <v>-2.6465270091638136</v>
       </c>
       <c r="H90" s="0">
         <v>-0</v>
@@ -8138,28 +8138,28 @@
         <v>0</v>
       </c>
       <c r="L90" s="0">
-        <v>-0.07685411263229594</v>
+        <v>-0.078210222364993587</v>
       </c>
       <c r="M90" s="0">
-        <v>0.07685411263229594</v>
+        <v>0.078210222364993587</v>
       </c>
       <c r="N90" s="0">
         <v>-3767617.8150973339</v>
       </c>
       <c r="O90" s="0">
-        <v>-3767617.794032386</v>
+        <v>-3767617.7940323851</v>
       </c>
       <c r="P90" s="0">
-        <v>-3767617.793853357</v>
+        <v>-3767617.7938533612</v>
       </c>
       <c r="Q90" s="0">
-        <v>2.4688016506425445e-09</v>
+        <v>2.4949576370852658e-09</v>
       </c>
       <c r="R90" s="0">
-        <v>5.2774458930046888e-08</v>
+        <v>5.29160832363488e-08</v>
       </c>
       <c r="S90" s="0">
-        <v>5.2774458930046888e-08</v>
+        <v>5.29160832363488e-08</v>
       </c>
       <c r="T90" s="0">
         <v>0</v>
@@ -8174,22 +8174,22 @@
         <v>0</v>
       </c>
       <c r="X90" s="0">
-        <v>-2.7669012229078881e-08</v>
+        <v>-2.83206763904482e-08</v>
       </c>
       <c r="Y90" s="0">
-        <v>2.7669012229078881e-08</v>
+        <v>2.83206763904482e-08</v>
       </c>
       <c r="Z90" s="0">
         <v>2.4099167444763423</v>
       </c>
       <c r="AA90" s="0">
-        <v>-2.5768541126322959</v>
+        <v>-2.5782102223649934</v>
       </c>
       <c r="AB90" s="0">
         <v>-3.3206045940418512</v>
       </c>
       <c r="AC90" s="0">
-        <v>2.5768541126322959</v>
+        <v>2.5782102223649934</v>
       </c>
     </row>
     <row r="91">
@@ -8203,16 +8203,16 @@
         <v>2.5632663817918613</v>
       </c>
       <c r="D91" s="0">
-        <v>2.5632663817830381</v>
+        <v>2.5632663817830386</v>
       </c>
       <c r="E91" s="0">
-        <v>-2.5821440094431516</v>
+        <v>-2.5906956977312161</v>
       </c>
       <c r="F91" s="0">
-        <v>-2.9308805296614024</v>
+        <v>-2.9249653391188559</v>
       </c>
       <c r="G91" s="0">
-        <v>-2.9308805296614024</v>
+        <v>-2.9249653391188559</v>
       </c>
       <c r="H91" s="0">
         <v>-0</v>
@@ -8227,28 +8227,28 @@
         <v>-0</v>
       </c>
       <c r="L91" s="0">
-        <v>-0.16396540685080502</v>
+        <v>-0.15133589255648625</v>
       </c>
       <c r="M91" s="0">
-        <v>0.16396540685080502</v>
+        <v>0.15133589255648625</v>
       </c>
       <c r="N91" s="0">
         <v>-9874613.7280138358</v>
       </c>
       <c r="O91" s="0">
-        <v>-9874612.9047287535</v>
+        <v>-9874612.9047287516</v>
       </c>
       <c r="P91" s="0">
-        <v>-9874612.9041813631</v>
+        <v>-9874612.9041813742</v>
       </c>
       <c r="Q91" s="0">
-        <v>-8.9943035926367477e-08</v>
+        <v>-8.5237774102206608e-08</v>
       </c>
       <c r="R91" s="0">
-        <v>5.1742030342490186e-09</v>
+        <v>6.0624702071536376e-09</v>
       </c>
       <c r="S91" s="0">
-        <v>5.1742030342490186e-09</v>
+        <v>6.0624702071536376e-09</v>
       </c>
       <c r="T91" s="0">
         <v>0</v>
@@ -8263,22 +8263,22 @@
         <v>0</v>
       </c>
       <c r="X91" s="0">
-        <v>-8.6207054109858059e-09</v>
+        <v>-8.4932861397228034e-09</v>
       </c>
       <c r="Y91" s="0">
-        <v>8.6207054109858059e-09</v>
+        <v>8.4932861397228034e-09</v>
       </c>
       <c r="Z91" s="0">
         <v>2.56326639506123</v>
       </c>
       <c r="AA91" s="0">
-        <v>-2.6639654068508052</v>
+        <v>-2.6513358925564861</v>
       </c>
       <c r="AB91" s="0">
         <v>-3.4739542446267389</v>
       </c>
       <c r="AC91" s="0">
-        <v>2.6639654068508052</v>
+        <v>2.6513358925564861</v>
       </c>
     </row>
     <row r="92">
@@ -8286,22 +8286,22 @@
         <v>9</v>
       </c>
       <c r="B92" s="0">
-        <v>2.657185049290105</v>
+        <v>2.6571850492901046</v>
       </c>
       <c r="C92" s="0">
-        <v>2.6571850492782061</v>
+        <v>2.6571850492782057</v>
       </c>
       <c r="D92" s="0">
-        <v>2.6571850487064284</v>
+        <v>2.6571850487064288</v>
       </c>
       <c r="E92" s="0">
-        <v>-2.6090883738604567</v>
+        <v>-2.6334227047178778</v>
       </c>
       <c r="F92" s="0">
-        <v>-3.0111091508953285</v>
+        <v>-3.0625009064301474</v>
       </c>
       <c r="G92" s="0">
-        <v>-2.6558298810512451</v>
+        <v>-2.6703650305600664</v>
       </c>
       <c r="H92" s="0">
         <v>-0</v>
@@ -8322,22 +8322,22 @@
         <v>0</v>
       </c>
       <c r="N92" s="0">
-        <v>-17815618.247073587</v>
+        <v>-17815618.247073531</v>
       </c>
       <c r="O92" s="0">
-        <v>-17815618.245741598</v>
+        <v>-17815618.245741569</v>
       </c>
       <c r="P92" s="0">
-        <v>-17815618.18173749</v>
+        <v>-17815618.18173758</v>
       </c>
       <c r="Q92" s="0">
-        <v>-7.593518148418937e-08</v>
+        <v>-6.5168941043392906e-08</v>
       </c>
       <c r="R92" s="0">
-        <v>6.0733421916801826e-09</v>
+        <v>4.397363419336416e-09</v>
       </c>
       <c r="S92" s="0">
-        <v>5.6610503939263328e-08</v>
+        <v>5.1669492077413182e-08</v>
       </c>
       <c r="T92" s="0">
         <v>0</v>
@@ -8358,13 +8358,13 @@
         <v>0</v>
       </c>
       <c r="Z92" s="0">
-        <v>2.657185049290105</v>
+        <v>2.6571850492901046</v>
       </c>
       <c r="AA92" s="0">
         <v>-2.5</v>
       </c>
       <c r="AB92" s="0">
-        <v>-3.5678728988556139</v>
+        <v>-3.5678728988556134</v>
       </c>
       <c r="AC92" s="0">
         <v>2.5</v>
@@ -8375,7 +8375,7 @@
         <v>9.0999999999999997</v>
       </c>
       <c r="B93" s="0">
-        <v>2.7272776893213972</v>
+        <v>2.7272776893213981</v>
       </c>
       <c r="C93" s="0">
         <v>2.7272776893192181</v>
@@ -8384,13 +8384,13 @@
         <v>2.7272776834496999</v>
       </c>
       <c r="E93" s="0">
-        <v>-2.9374355150875697</v>
+        <v>-2.9776467475565185</v>
       </c>
       <c r="F93" s="0">
-        <v>-2.5803776593440393</v>
+        <v>-2.57833738983852</v>
       </c>
       <c r="G93" s="0">
-        <v>-2.5803776593440393</v>
+        <v>-2.57833738983852</v>
       </c>
       <c r="H93" s="0">
         <v>-0</v>
@@ -8405,28 +8405,28 @@
         <v>0</v>
       </c>
       <c r="L93" s="0">
-        <v>-0.19041567879858007</v>
+        <v>-0.19472503972348257</v>
       </c>
       <c r="M93" s="0">
-        <v>0.19041567879858007</v>
+        <v>0.19472503972348257</v>
       </c>
       <c r="N93" s="0">
-        <v>-27673645.883864023</v>
+        <v>-27673645.883864105</v>
       </c>
       <c r="O93" s="0">
-        <v>-27673645.883485131</v>
+        <v>-27673645.883485079</v>
       </c>
       <c r="P93" s="0">
-        <v>-27673644.862901218</v>
+        <v>-27673644.862901248</v>
       </c>
       <c r="Q93" s="0">
-        <v>9.6486129354505407e-09</v>
+        <v>7.4944259887282308e-09</v>
       </c>
       <c r="R93" s="0">
-        <v>3.3258786926357707e-08</v>
+        <v>3.1354298386367342e-08</v>
       </c>
       <c r="S93" s="0">
-        <v>3.3258786926357707e-08</v>
+        <v>3.1354298386367342e-08</v>
       </c>
       <c r="T93" s="0">
         <v>0</v>
@@ -8441,22 +8441,22 @@
         <v>0</v>
       </c>
       <c r="X93" s="0">
-        <v>-8.4647359778832709e-08</v>
+        <v>-8.6620084191440171e-08</v>
       </c>
       <c r="Y93" s="0">
-        <v>8.4647359778832709e-08</v>
+        <v>8.6620084191440171e-08</v>
       </c>
       <c r="Z93" s="0">
-        <v>2.7272776893213972</v>
+        <v>2.7272776893213981</v>
       </c>
       <c r="AA93" s="0">
-        <v>-2.6904156787985802</v>
+        <v>-2.6947250397234828</v>
       </c>
       <c r="AB93" s="0">
-        <v>-3.6379655388869061</v>
+        <v>-3.637965538886907</v>
       </c>
       <c r="AC93" s="0">
-        <v>2.6904156787985802</v>
+        <v>2.6947250397234828</v>
       </c>
     </row>
     <row r="94">
@@ -8464,22 +8464,22 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B94" s="0">
-        <v>2.7832483363558542</v>
+        <v>2.7832483363558533</v>
       </c>
       <c r="C94" s="0">
-        <v>2.783248336354625</v>
+        <v>2.7832483363546254</v>
       </c>
       <c r="D94" s="0">
         <v>2.7832483341440653</v>
       </c>
       <c r="E94" s="0">
-        <v>-2.8703718877463724</v>
+        <v>-3.05313140480833</v>
       </c>
       <c r="F94" s="0">
-        <v>-3.0888984021371222</v>
+        <v>65535</v>
       </c>
       <c r="G94" s="0">
-        <v>-2.5557790922714387</v>
+        <v>-2.5769309533908609</v>
       </c>
       <c r="H94" s="0">
         <v>-0</v>
@@ -8493,29 +8493,27 @@
       <c r="K94" s="0">
         <v>-0</v>
       </c>
-      <c r="L94" s="0">
-        <v>0</v>
-      </c>
+      <c r="L94" s="0"/>
       <c r="M94" s="0">
         <v>0</v>
       </c>
       <c r="N94" s="0">
-        <v>-39336565.071568295</v>
+        <v>-39336565.071568124</v>
       </c>
       <c r="O94" s="0">
-        <v>-39336565.071264364</v>
+        <v>-39336565.071264543</v>
       </c>
       <c r="P94" s="0">
-        <v>-39336564.524904847</v>
+        <v>-39336564.524904892</v>
       </c>
       <c r="Q94" s="0">
-        <v>-1.4704996966522228e-08</v>
+        <v>-4.6640093481483034e-09</v>
       </c>
       <c r="R94" s="0">
-        <v>3.7252902984619141e-09</v>
+        <v>0</v>
       </c>
       <c r="S94" s="0">
-        <v>1.0614777170565379e-07</v>
+        <v>9.2937863271491994e-08</v>
       </c>
       <c r="T94" s="0">
         <v>0</v>
@@ -8536,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="Z94" s="0">
-        <v>2.7832483363558542</v>
+        <v>2.7832483363558533</v>
       </c>
       <c r="AA94" s="0">
         <v>-2.5</v>
       </c>
       <c r="AB94" s="0">
-        <v>-3.6939361859213631</v>
+        <v>-3.6939361859213622</v>
       </c>
       <c r="AC94" s="0">
         <v>2.5</v>
@@ -8553,88 +8551,88 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B95" s="0">
-        <v>2.8288266628125482</v>
+        <v>2.828826662812546</v>
       </c>
       <c r="C95" s="0">
-        <v>2.8288266614495945</v>
+        <v>2.8288266614495949</v>
       </c>
       <c r="D95" s="0">
-        <v>2.8288266614495945</v>
+        <v>2.8288266614495949</v>
       </c>
       <c r="E95" s="0">
-        <v>-3.2395454930487042</v>
+        <v>-2.9093835159399588</v>
       </c>
       <c r="F95" s="0">
-        <v>-3.0528493888179908</v>
+        <v>-2.9093835159399588</v>
       </c>
       <c r="G95" s="0">
-        <v>-2.3997595400204141</v>
+        <v>-2.4063539754361543</v>
       </c>
       <c r="H95" s="0">
         <v>-0</v>
       </c>
       <c r="I95" s="0">
-        <v>1.348262473168015e-12</v>
+        <v>1.3466689621601911e-12</v>
       </c>
       <c r="J95" s="0">
-        <v>-1.348262473168015e-12</v>
+        <v>-1.3466689621601911e-12</v>
       </c>
       <c r="K95" s="0">
-        <v>-0</v>
+        <v>-0.14473995446833771</v>
       </c>
       <c r="L95" s="0">
-        <v>0</v>
+        <v>0.14473995446833771</v>
       </c>
       <c r="M95" s="0">
         <v>0</v>
       </c>
       <c r="N95" s="0">
-        <v>-52380352.377045318</v>
+        <v>-52380352.377044648</v>
       </c>
       <c r="O95" s="0">
-        <v>-52380351.92847608</v>
+        <v>-52380351.928476378</v>
       </c>
       <c r="P95" s="0">
-        <v>-52380351.92847608</v>
+        <v>-52380351.928476378</v>
       </c>
       <c r="Q95" s="0">
-        <v>-1.4457109291728758e-09</v>
+        <v>7.0683776072157823e-09</v>
       </c>
       <c r="R95" s="0">
-        <v>4.6722811066580428e-09</v>
+        <v>7.0683776072157823e-09</v>
       </c>
       <c r="S95" s="0">
-        <v>2.8291088507506228e-07</v>
+        <v>2.714282670252806e-07</v>
       </c>
       <c r="T95" s="0">
         <v>0</v>
       </c>
       <c r="U95" s="0">
-        <v>-0.00044373402085112166</v>
+        <v>-0.00044320957174655859</v>
       </c>
       <c r="V95" s="0">
-        <v>0.00044373402085112166</v>
+        <v>0.00044320957174655859</v>
       </c>
       <c r="W95" s="0">
-        <v>0</v>
+        <v>-9.0818181419109435e-09</v>
       </c>
       <c r="X95" s="0">
-        <v>0</v>
+        <v>9.0818181419109435e-09</v>
       </c>
       <c r="Y95" s="0">
         <v>0</v>
       </c>
       <c r="Z95" s="0">
-        <v>2.8288266628125482</v>
+        <v>2.828826662812546</v>
       </c>
       <c r="AA95" s="0">
-        <v>-2.5000000000013483</v>
+        <v>-2.6447399544683377</v>
       </c>
       <c r="AB95" s="0">
-        <v>-3.7395145123780571</v>
+        <v>-3.7395145123780549</v>
       </c>
       <c r="AC95" s="0">
-        <v>2.5000000000013483</v>
+        <v>2.6447399544683377</v>
       </c>
     </row>
     <row r="96">
@@ -8642,7 +8640,7 @@
         <v>9.4000000000000004</v>
       </c>
       <c r="B96" s="0">
-        <v>2.8653978191739413</v>
+        <v>2.8653978191739409</v>
       </c>
       <c r="C96" s="0">
         <v>2.8653978161244926</v>
@@ -8651,13 +8649,13 @@
         <v>2.8653978161197848</v>
       </c>
       <c r="E96" s="0">
-        <v>-2.5721263112322954</v>
+        <v>-2.5772620686348335</v>
       </c>
       <c r="F96" s="0">
-        <v>-2.7504627090566189</v>
+        <v>-2.7510345380806478</v>
       </c>
       <c r="G96" s="0">
-        <v>-2.7504627090566189</v>
+        <v>-2.7510345380806478</v>
       </c>
       <c r="H96" s="0">
         <v>-0</v>
@@ -8672,28 +8670,28 @@
         <v>-0</v>
       </c>
       <c r="L96" s="0">
-        <v>-0.066139299214189748</v>
+        <v>-0.0089136976809565723</v>
       </c>
       <c r="M96" s="0">
-        <v>0.066139299214189748</v>
+        <v>0.0089136976809565723</v>
       </c>
       <c r="N96" s="0">
-        <v>-65911630.872779474</v>
+        <v>-65911630.872779429</v>
       </c>
       <c r="O96" s="0">
-        <v>-65911629.609896191</v>
+        <v>-65911629.60989622</v>
       </c>
       <c r="P96" s="0">
-        <v>-65911629.607946634</v>
+        <v>-65911629.607946537</v>
       </c>
       <c r="Q96" s="0">
-        <v>-9.5786292482138825e-08</v>
+        <v>-9.2744710902239426e-08</v>
       </c>
       <c r="R96" s="0">
-        <v>2.8578238251526112e-08</v>
+        <v>3.1076032655346298e-08</v>
       </c>
       <c r="S96" s="0">
-        <v>2.8578238251526112e-08</v>
+        <v>3.1076032655346298e-08</v>
       </c>
       <c r="T96" s="0">
         <v>0</v>
@@ -8708,22 +8706,22 @@
         <v>0</v>
       </c>
       <c r="X96" s="0">
-        <v>-1.2610551507917065e-08</v>
+        <v>-1.7422792205878069e-09</v>
       </c>
       <c r="Y96" s="0">
-        <v>1.2610551507917065e-08</v>
+        <v>1.7422792205878069e-09</v>
       </c>
       <c r="Z96" s="0">
-        <v>2.8653978191739413</v>
+        <v>2.8653978191739409</v>
       </c>
       <c r="AA96" s="0">
-        <v>-2.5661392992141896</v>
+        <v>-2.5089136976809567</v>
       </c>
       <c r="AB96" s="0">
-        <v>-3.7760856687394502</v>
+        <v>-3.7760856687394497</v>
       </c>
       <c r="AC96" s="0">
-        <v>2.5661392992141896</v>
+        <v>2.5089136976809567</v>
       </c>
     </row>
     <row r="97">
@@ -8734,19 +8732,19 @@
         <v>2.8929324572970181</v>
       </c>
       <c r="C97" s="0">
-        <v>2.8929324476983709</v>
+        <v>2.8929324476983704</v>
       </c>
       <c r="D97" s="0">
-        <v>2.8929324476966691</v>
+        <v>2.8929324476966696</v>
       </c>
       <c r="E97" s="0">
-        <v>-2.4862276071572049</v>
+        <v>-2.5348424072926203</v>
       </c>
       <c r="F97" s="0">
-        <v>-3.0213137501803962</v>
+        <v>-2.7452437814682553</v>
       </c>
       <c r="G97" s="0">
-        <v>-2.7771979927689725</v>
+        <v>-2.7452437814682553</v>
       </c>
       <c r="H97" s="0">
         <v>-0</v>
@@ -8761,28 +8759,28 @@
         <v>-0</v>
       </c>
       <c r="L97" s="0">
-        <v>-0</v>
+        <v>-0.17931765732874144</v>
       </c>
       <c r="M97" s="0">
-        <v>0</v>
+        <v>0.17931765732874144</v>
       </c>
       <c r="N97" s="0">
-        <v>-78360513.989291504</v>
+        <v>-78360513.989291459</v>
       </c>
       <c r="O97" s="0">
-        <v>-78360509.263362691</v>
+        <v>-78360509.263362467</v>
       </c>
       <c r="P97" s="0">
-        <v>-78360509.262524784</v>
+        <v>-78360509.262525067</v>
       </c>
       <c r="Q97" s="0">
-        <v>-1.6432350320364512e-07</v>
+        <v>-1.2107149845755719e-07</v>
       </c>
       <c r="R97" s="0">
-        <v>-5.6961566383010412e-09</v>
+        <v>1.3868455028173803e-08</v>
       </c>
       <c r="S97" s="0">
-        <v>2.6406659012064393e-08</v>
+        <v>1.3868455028173803e-08</v>
       </c>
       <c r="T97" s="0">
         <v>0</v>
@@ -8797,22 +8795,22 @@
         <v>0</v>
       </c>
       <c r="X97" s="0">
-        <v>0</v>
+        <v>-2.9146950836680577e-08</v>
       </c>
       <c r="Y97" s="0">
-        <v>0</v>
+        <v>2.9146950836680577e-08</v>
       </c>
       <c r="Z97" s="0">
         <v>2.8929324572970181</v>
       </c>
       <c r="AA97" s="0">
-        <v>-2.5</v>
+        <v>-2.6793176573287414</v>
       </c>
       <c r="AB97" s="0">
         <v>-3.8036203068625269</v>
       </c>
       <c r="AC97" s="0">
-        <v>2.5</v>
+        <v>2.6793176573287414</v>
       </c>
     </row>
     <row r="98">
@@ -8823,19 +8821,19 @@
         <v>2.9099695507457315</v>
       </c>
       <c r="C98" s="0">
-        <v>2.9099695507394694</v>
+        <v>2.9099695507394698</v>
       </c>
       <c r="D98" s="0">
-        <v>2.9099695447697913</v>
+        <v>2.9099695447697922</v>
       </c>
       <c r="E98" s="0">
-        <v>-2.2521378811956296</v>
+        <v>-2.2582052938914901</v>
       </c>
       <c r="F98" s="0">
-        <v>-2.7488555083033814</v>
+        <v>-2.7352827170670984</v>
       </c>
       <c r="G98" s="0">
-        <v>-2.989039882578028</v>
+        <v>-2.8086451698655255</v>
       </c>
       <c r="H98" s="0">
         <v>-0</v>
@@ -8856,22 +8854,22 @@
         <v>-0</v>
       </c>
       <c r="N98" s="0">
-        <v>-87214217.959786996</v>
+        <v>-87214217.959787071</v>
       </c>
       <c r="O98" s="0">
-        <v>-87214217.956355631</v>
+        <v>-87214217.95635581</v>
       </c>
       <c r="P98" s="0">
-        <v>-87214214.685073256</v>
+        <v>-87214214.685073286</v>
       </c>
       <c r="Q98" s="0">
-        <v>-7.1527436193377178e-07</v>
+        <v>-6.8851941294671132e-07</v>
       </c>
       <c r="R98" s="0">
-        <v>-3.1553903185524215e-08</v>
+        <v>-3.436290563785163e-08</v>
       </c>
       <c r="S98" s="0">
-        <v>-6.9766884085651328e-09</v>
+        <v>-2.1672144504688657e-08</v>
       </c>
       <c r="T98" s="0">
         <v>0</v>
@@ -8918,13 +8916,13 @@
         <v>2.9126258833756218</v>
       </c>
       <c r="E99" s="0">
-        <v>-2.2256716369082366</v>
+        <v>-2.2279630459684352</v>
       </c>
       <c r="F99" s="0">
-        <v>-2.7782241493292905</v>
+        <v>-2.702426996388537</v>
       </c>
       <c r="G99" s="0">
-        <v>-2.9188586780669952</v>
+        <v>-2.8517653456048424</v>
       </c>
       <c r="H99" s="0">
         <v>-0</v>
@@ -8945,22 +8943,22 @@
         <v>0</v>
       </c>
       <c r="N99" s="0">
-        <v>-88682061.247778192</v>
+        <v>-88682061.247778103</v>
       </c>
       <c r="O99" s="0">
-        <v>-88682058.561094612</v>
+        <v>-88682058.561094627</v>
       </c>
       <c r="P99" s="0">
-        <v>-88682058.554886088</v>
+        <v>-88682058.554886237</v>
       </c>
       <c r="Q99" s="0">
-        <v>-8.4468055065568725e-07</v>
+        <v>-8.3260651663382555e-07</v>
       </c>
       <c r="R99" s="0">
-        <v>-2.6236948931240558e-08</v>
+        <v>-4.2242052918721732e-08</v>
       </c>
       <c r="S99" s="0">
-        <v>1.0843175296860422e-08</v>
+        <v>1.6528657919073799e-08</v>
       </c>
       <c r="T99" s="0">
         <v>0</v>
@@ -8998,22 +8996,22 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B100" s="0">
-        <v>2.8907292011782624</v>
+        <v>2.890729201178265</v>
       </c>
       <c r="C100" s="0">
-        <v>2.8907292011543837</v>
+        <v>2.8907292011543793</v>
       </c>
       <c r="D100" s="0">
-        <v>2.8907291997081046</v>
+        <v>2.8907291997081068</v>
       </c>
       <c r="E100" s="0">
-        <v>-2.2258147489044684</v>
+        <v>-2.2299737647689137</v>
       </c>
       <c r="F100" s="0">
-        <v>-2.7345799181847843</v>
+        <v>-2.6130303755846911</v>
       </c>
       <c r="G100" s="0">
-        <v>-2.6279377802287756</v>
+        <v>-2.6130303755846911</v>
       </c>
       <c r="H100" s="0">
         <v>-0</v>
@@ -9028,28 +9026,28 @@
         <v>-0</v>
       </c>
       <c r="L100" s="0">
-        <v>-0</v>
+        <v>-0.053294898322956044</v>
       </c>
       <c r="M100" s="0">
-        <v>0</v>
+        <v>0.053294898322956044</v>
       </c>
       <c r="N100" s="0">
-        <v>-77283206.878165916</v>
+        <v>-77283206.878166884</v>
       </c>
       <c r="O100" s="0">
-        <v>-77283206.866570726</v>
+        <v>-77283206.86656855</v>
       </c>
       <c r="P100" s="0">
-        <v>-77283206.164279476</v>
+        <v>-77283206.164280683</v>
       </c>
       <c r="Q100" s="0">
-        <v>-8.4392135597181397e-07</v>
+        <v>-8.2215376758844612e-07</v>
       </c>
       <c r="R100" s="0">
-        <v>-3.4514981415195532e-08</v>
+        <v>6.9962916918106942e-08</v>
       </c>
       <c r="S100" s="0">
-        <v>6.7453993520900981e-08</v>
+        <v>6.9962916918106942e-08</v>
       </c>
       <c r="T100" s="0">
         <v>0</v>
@@ -9064,22 +9062,22 @@
         <v>0</v>
       </c>
       <c r="X100" s="0">
-        <v>0</v>
+        <v>-2.4344722417267063e-08</v>
       </c>
       <c r="Y100" s="0">
-        <v>0</v>
+        <v>2.4344722417267063e-08</v>
       </c>
       <c r="Z100" s="0">
-        <v>2.8907292011782624</v>
+        <v>2.890729201178265</v>
       </c>
       <c r="AA100" s="0">
-        <v>-2.5</v>
+        <v>-2.5532948983229562</v>
       </c>
       <c r="AB100" s="0">
-        <v>-3.8014170507437712</v>
+        <v>-3.8014170507437739</v>
       </c>
       <c r="AC100" s="0">
-        <v>2.5</v>
+        <v>2.5532948983229562</v>
       </c>
     </row>
     <row r="101">
@@ -9087,22 +9085,22 @@
         <v>9.9000000000000004</v>
       </c>
       <c r="B101" s="0">
-        <v>2.8058929736271625</v>
+        <v>2.8058929736271634</v>
       </c>
       <c r="C101" s="0">
-        <v>2.8058929736210856</v>
+        <v>2.8058929736210847</v>
       </c>
       <c r="D101" s="0">
         <v>2.8058929498060574</v>
       </c>
       <c r="E101" s="0">
-        <v>-2.4419380787876648</v>
+        <v>-2.5205723429505973</v>
       </c>
       <c r="F101" s="0">
-        <v>-2.617481319946561</v>
+        <v>-2.5528787267224775</v>
       </c>
       <c r="G101" s="0">
-        <v>-2.617481319946561</v>
+        <v>-2.5528787267224775</v>
       </c>
       <c r="H101" s="0">
         <v>-0</v>
@@ -9117,28 +9115,28 @@
         <v>-0</v>
       </c>
       <c r="L101" s="0">
-        <v>-0.019075384236713414</v>
+        <v>-0.10127080664399833</v>
       </c>
       <c r="M101" s="0">
-        <v>0.019075384236713414</v>
+        <v>0.10127080664399833</v>
       </c>
       <c r="N101" s="0">
-        <v>-45351123.373648122</v>
+        <v>-45351123.373648562</v>
       </c>
       <c r="O101" s="0">
-        <v>-45351123.371916667</v>
+        <v>-45351123.371916324</v>
       </c>
       <c r="P101" s="0">
-        <v>-45351116.585836418</v>
+        <v>-45351116.585836507</v>
       </c>
       <c r="Q101" s="0">
-        <v>-2.1704753378768527e-07</v>
+        <v>-1.3242847999004508e-07</v>
       </c>
       <c r="R101" s="0">
-        <v>7.1517765817958158e-08</v>
+        <v>8.6944522771793951e-08</v>
       </c>
       <c r="S101" s="0">
-        <v>7.1517765817958158e-08</v>
+        <v>8.6944522771793951e-08</v>
       </c>
       <c r="T101" s="0">
         <v>0</v>
@@ -9153,22 +9151,22 @@
         <v>0</v>
       </c>
       <c r="X101" s="0">
-        <v>-8.6129842015345795e-09</v>
+        <v>-6.423579001175331e-08</v>
       </c>
       <c r="Y101" s="0">
-        <v>8.6129842015345795e-09</v>
+        <v>6.423579001175331e-08</v>
       </c>
       <c r="Z101" s="0">
-        <v>2.8058929736271625</v>
+        <v>2.8058929736271634</v>
       </c>
       <c r="AA101" s="0">
-        <v>-2.5190753842367135</v>
+        <v>-2.6012708066439982</v>
       </c>
       <c r="AB101" s="0">
-        <v>-3.7165808231926714</v>
+        <v>-3.7165808231926722</v>
       </c>
       <c r="AC101" s="0">
-        <v>2.5190753842367135</v>
+        <v>2.6012708066439982</v>
       </c>
     </row>
     <row r="102">
@@ -9176,25 +9174,25 @@
         <v>10</v>
       </c>
       <c r="B102" s="0">
-        <v>-3.0862913309970455</v>
+        <v>-2.8334522785081502</v>
       </c>
       <c r="C102" s="0">
-        <v>-2.7060349422710974</v>
+        <v>-2.5897283093599861</v>
       </c>
       <c r="D102" s="0">
-        <v>-1.7447813224260753</v>
+        <v>-1.7401590829838667</v>
       </c>
       <c r="E102" s="0">
-        <v>2.6547720520177895</v>
+        <v>2.6547720520176403</v>
       </c>
       <c r="F102" s="0">
-        <v>2.6547720524691982</v>
+        <v>2.6547720524691947</v>
       </c>
       <c r="G102" s="0">
-        <v>2.6547720535409924</v>
+        <v>2.6547720535411386</v>
       </c>
       <c r="H102" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I102" s="0">
         <v>0</v>
@@ -9212,22 +9210,22 @@
         <v>0</v>
       </c>
       <c r="N102" s="0">
-        <v>3.7868157420536053e-09</v>
+        <v>-1.8544256380584916e-08</v>
       </c>
       <c r="O102" s="0">
-        <v>4.1295223806763315e-08</v>
+        <v>8.5757450964778596e-08</v>
       </c>
       <c r="P102" s="0">
-        <v>1.7334975896018259e-05</v>
+        <v>1.7845806945282326e-05</v>
       </c>
       <c r="Q102" s="0">
-        <v>17547547.440826397</v>
+        <v>17547547.440809984</v>
       </c>
       <c r="R102" s="0">
-        <v>17547547.490596227</v>
+        <v>17547547.490595896</v>
       </c>
       <c r="S102" s="0">
-        <v>17547547.608766399</v>
+        <v>17547547.608782511</v>
       </c>
       <c r="T102" s="0">
         <v>0</v>
@@ -9248,13 +9246,13 @@
         <v>0</v>
       </c>
       <c r="Z102" s="0">
-        <v>-3.5654599015832984</v>
+        <v>-3.5654599015831492</v>
       </c>
       <c r="AA102" s="0">
         <v>-3</v>
       </c>
       <c r="AB102" s="0">
-        <v>2.6547720520177895</v>
+        <v>2.6547720520176403</v>
       </c>
       <c r="AC102" s="0">
         <v>3</v>

--- a/Schlagdifferentialgleichung/Programme/excelDir/CharactExponentenMultiplikatoren_ebeta0dot300_mu0_mu10_Auswahl1.xlsx
+++ b/Schlagdifferentialgleichung/Programme/excelDir/CharactExponentenMultiplikatoren_ebeta0dot300_mu0_mu10_Auswahl1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+  <si>
+    <t>muChar</t>
+  </si>
+  <si>
+    <t>RealCharExp01</t>
+  </si>
+  <si>
+    <t>RealCharExp02</t>
+  </si>
+  <si>
+    <t>RealCharExp03</t>
+  </si>
+  <si>
+    <t>RealCharExp04</t>
+  </si>
+  <si>
+    <t>RealCharExp05</t>
+  </si>
+  <si>
+    <t>RealCharExp06</t>
+  </si>
+  <si>
+    <t>ImagCharExp01</t>
+  </si>
+  <si>
+    <t>ImagCharExp02</t>
+  </si>
+  <si>
+    <t>ImagCharExp03</t>
+  </si>
+  <si>
+    <t>ImagCharExp04</t>
+  </si>
+  <si>
+    <t>ImagCharExp05</t>
+  </si>
+  <si>
+    <t>ImagCharExp06</t>
+  </si>
+  <si>
+    <t>RealCharMult01</t>
+  </si>
+  <si>
+    <t>RealCharMult02</t>
+  </si>
+  <si>
+    <t>RealCharMult03</t>
+  </si>
+  <si>
+    <t>RealCharMult04</t>
+  </si>
+  <si>
+    <t>RealCharMult05</t>
+  </si>
+  <si>
+    <t>RealCharMult06</t>
+  </si>
+  <si>
+    <t>ImagCharMult01</t>
+  </si>
+  <si>
+    <t>ImagCharMult02</t>
+  </si>
+  <si>
+    <t>ImagCharMult03</t>
+  </si>
+  <si>
+    <t>ImagCharMult04</t>
+  </si>
+  <si>
+    <t>ImagCharMult05</t>
+  </si>
+  <si>
+    <t>ImagCharMult06</t>
+  </si>
+  <si>
+    <t>RealCharExp1Corrected</t>
+  </si>
+  <si>
+    <t>ImagCharExp1Corrected</t>
+  </si>
+  <si>
+    <t>RealCharExp2Corrected</t>
+  </si>
+  <si>
+    <t>ImagCharExp2Corrected</t>
+  </si>
   <si>
     <t>muChar</t>
   </si>
@@ -105,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -151,124 +238,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="true"/>
-    <col min="2" max="2" width="13.21875" customWidth="true"/>
-    <col min="3" max="3" width="13.21875" customWidth="true"/>
-    <col min="4" max="4" width="13.21875" customWidth="true"/>
-    <col min="5" max="5" width="14.21875" customWidth="true"/>
-    <col min="6" max="6" width="14.21875" customWidth="true"/>
-    <col min="7" max="7" width="14.21875" customWidth="true"/>
-    <col min="8" max="8" width="15.88671875" customWidth="true"/>
-    <col min="9" max="9" width="16.21875" customWidth="true"/>
-    <col min="10" max="10" width="15.88671875" customWidth="true"/>
-    <col min="11" max="11" width="15.88671875" customWidth="true"/>
-    <col min="12" max="12" width="15.88671875" customWidth="true"/>
-    <col min="13" max="13" width="15.88671875" customWidth="true"/>
-    <col min="14" max="14" width="15.88671875" customWidth="true"/>
-    <col min="15" max="15" width="15.88671875" customWidth="true"/>
-    <col min="16" max="16" width="15.5546875" customWidth="true"/>
-    <col min="17" max="17" width="16.21875" customWidth="true"/>
-    <col min="18" max="18" width="15.88671875" customWidth="true"/>
-    <col min="19" max="19" width="16.21875" customWidth="true"/>
-    <col min="20" max="20" width="15.88671875" customWidth="true"/>
-    <col min="21" max="21" width="16.21875" customWidth="true"/>
-    <col min="22" max="22" width="15.5546875" customWidth="true"/>
-    <col min="23" max="23" width="15.88671875" customWidth="true"/>
-    <col min="24" max="24" width="15.88671875" customWidth="true"/>
-    <col min="25" max="25" width="15.21875" customWidth="true"/>
-    <col min="26" max="26" width="20.33203125" customWidth="true"/>
-    <col min="27" max="27" width="20.77734375" customWidth="true"/>
-    <col min="28" max="28" width="20.33203125" customWidth="true"/>
-    <col min="29" max="29" width="20.77734375" customWidth="true"/>
+    <col min="1" max="1" width="7.48828125" customWidth="true"/>
+    <col min="2" max="2" width="13.37890625" customWidth="true"/>
+    <col min="3" max="3" width="13.37890625" customWidth="true"/>
+    <col min="4" max="4" width="13.37890625" customWidth="true"/>
+    <col min="5" max="5" width="14.37890625" customWidth="true"/>
+    <col min="6" max="6" width="14.37890625" customWidth="true"/>
+    <col min="7" max="7" width="14.37890625" customWidth="true"/>
+    <col min="8" max="8" width="16.046875" customWidth="true"/>
+    <col min="9" max="9" width="16.37890625" customWidth="true"/>
+    <col min="10" max="10" width="16.046875" customWidth="true"/>
+    <col min="11" max="11" width="16.046875" customWidth="true"/>
+    <col min="12" max="12" width="16.046875" customWidth="true"/>
+    <col min="13" max="13" width="16.046875" customWidth="true"/>
+    <col min="14" max="14" width="16.046875" customWidth="true"/>
+    <col min="15" max="15" width="16.046875" customWidth="true"/>
+    <col min="16" max="16" width="15.7109375" customWidth="true"/>
+    <col min="17" max="17" width="16.37890625" customWidth="true"/>
+    <col min="18" max="18" width="16.046875" customWidth="true"/>
+    <col min="19" max="19" width="16.37890625" customWidth="true"/>
+    <col min="20" max="20" width="16.046875" customWidth="true"/>
+    <col min="21" max="21" width="16.37890625" customWidth="true"/>
+    <col min="22" max="22" width="15.7109375" customWidth="true"/>
+    <col min="23" max="23" width="16.046875" customWidth="true"/>
+    <col min="24" max="24" width="16.046875" customWidth="true"/>
+    <col min="25" max="25" width="15.37890625" customWidth="true"/>
+    <col min="26" max="26" width="20.48828125" customWidth="true"/>
+    <col min="27" max="27" width="20.93359375" customWidth="true"/>
+    <col min="28" max="28" width="20.48828125" customWidth="true"/>
+    <col min="29" max="29" width="20.93359375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -282,16 +369,16 @@
         <v>-0.45534392478275454</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.45534392478275332</v>
+        <v>-0.45534392478275326</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.45534392478275332</v>
+        <v>-0.45534392478275326</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.45534392478275398</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.45534392478275398</v>
+        <v>-0.45534392478275393</v>
       </c>
       <c r="H2" s="0">
         <v>-0.10968437609832052</v>
@@ -300,16 +387,16 @@
         <v>0.10968437609832052</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.10968437609832091</v>
+        <v>-0.10968437609832096</v>
       </c>
       <c r="K2" s="0">
-        <v>0.10968437609832091</v>
+        <v>0.10968437609832096</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.10968437609831956</v>
+        <v>-0.1096843760983196</v>
       </c>
       <c r="M2" s="0">
-        <v>0.10968437609831956</v>
+        <v>0.1096843760983196</v>
       </c>
       <c r="N2" s="0">
         <v>0.044154014776471226</v>
@@ -318,16 +405,16 @@
         <v>0.044154014776471226</v>
       </c>
       <c r="P2" s="0">
-        <v>0.044154014776471469</v>
+        <v>0.044154014776471476</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.044154014776471469</v>
+        <v>0.044154014776471476</v>
       </c>
       <c r="R2" s="0">
-        <v>0.044154014776471601</v>
+        <v>0.044154014776471615</v>
       </c>
       <c r="S2" s="0">
-        <v>0.044154014776471601</v>
+        <v>0.044154014776471615</v>
       </c>
       <c r="T2" s="0">
         <v>-0.036380130069678322</v>
@@ -336,28 +423,28 @@
         <v>0.036380130069678322</v>
       </c>
       <c r="V2" s="0">
-        <v>-0.036380130069678704</v>
+        <v>-0.036380130069678732</v>
       </c>
       <c r="W2" s="0">
-        <v>0.036380130069678704</v>
+        <v>0.036380130069678732</v>
       </c>
       <c r="X2" s="0">
-        <v>-0.03638013006967819</v>
+        <v>-0.036380130069678218</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.03638013006967819</v>
+        <v>0.036380130069678218</v>
       </c>
       <c r="Z2" s="0">
-        <v>-0.45534392478275576</v>
+        <v>-0.45534392478275582</v>
       </c>
       <c r="AA2" s="0">
-        <v>-1.1096843760983208</v>
+        <v>-1.109684376098321</v>
       </c>
       <c r="AB2" s="0">
-        <v>-0.45534392478275332</v>
+        <v>-0.45534392478275326</v>
       </c>
       <c r="AC2" s="0">
-        <v>1.1096843760983208</v>
+        <v>1.109684376098321</v>
       </c>
     </row>
     <row r="3">
@@ -454,64 +541,64 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.45534392478275471</v>
+        <v>-0.45534392478275476</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.45534392478275471</v>
+        <v>-0.45534392478275476</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.45534392478275393</v>
+        <v>-0.45534392478275382</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.45534392478275393</v>
+        <v>-0.45534392478275382</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.45534392478275393</v>
+        <v>-0.45534392478275404</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.45534392478275393</v>
+        <v>-0.45534392478275404</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.11568597017121432</v>
+        <v>-0.11568597017121442</v>
       </c>
       <c r="I4" s="0">
-        <v>0.11568597017121432</v>
+        <v>0.11568597017121442</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.11568597017121514</v>
+        <v>-0.11568597017121508</v>
       </c>
       <c r="K4" s="0">
-        <v>0.11568597017121514</v>
+        <v>0.11568597017121508</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.11568597017121451</v>
+        <v>-0.11568597017121461</v>
       </c>
       <c r="M4" s="0">
-        <v>0.11568597017121451</v>
+        <v>0.11568597017121461</v>
       </c>
       <c r="N4" s="0">
-        <v>0.042751087603582205</v>
+        <v>0.042751087603582164</v>
       </c>
       <c r="O4" s="0">
-        <v>0.042751087603582205</v>
+        <v>0.042751087603582164</v>
       </c>
       <c r="P4" s="0">
-        <v>0.042751087603582219</v>
+        <v>0.042751087603582247</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.042751087603582219</v>
+        <v>0.042751087603582247</v>
       </c>
       <c r="R4" s="0">
-        <v>0.042751087603582358</v>
+        <v>0.042751087603582309</v>
       </c>
       <c r="S4" s="0">
-        <v>0.042751087603582358</v>
+        <v>0.042751087603582309</v>
       </c>
       <c r="T4" s="0">
-        <v>-0.038018882065079002</v>
+        <v>-0.038018882065079015</v>
       </c>
       <c r="U4" s="0">
-        <v>0.038018882065079002</v>
+        <v>0.038018882065079015</v>
       </c>
       <c r="V4" s="0">
         <v>-0.038018882065079411</v>
@@ -526,13 +613,13 @@
         <v>0.038018882065079238</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.45534392478275515</v>
+        <v>-0.45534392478275526</v>
       </c>
       <c r="AA4" s="0">
         <v>-1.1156859701712152</v>
       </c>
       <c r="AB4" s="0">
-        <v>-0.45534392478275393</v>
+        <v>-0.45534392478275382</v>
       </c>
       <c r="AC4" s="0">
         <v>1.1156859701712152</v>
@@ -540,7 +627,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.30000000000000005</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="B5" s="0">
         <v>-0.45534392478275476</v>
@@ -615,7 +702,7 @@
         <v>0.039601571455490252</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.4553439247827546</v>
+        <v>-0.45534392478275459</v>
       </c>
       <c r="AA5" s="0">
         <v>-1.1216798278802036</v>
@@ -650,70 +737,70 @@
         <v>-0.45534392478275332</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.12762867301353001</v>
+        <v>-0.12762867301352998</v>
       </c>
       <c r="I6" s="0">
-        <v>0.12762867301353001</v>
+        <v>0.12762867301352998</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.12762867301352909</v>
+        <v>-0.12762867301352915</v>
       </c>
       <c r="K6" s="0">
-        <v>0.12762867301352909</v>
+        <v>0.12762867301352915</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.12762867301352837</v>
+        <v>-0.12762867301352826</v>
       </c>
       <c r="M6" s="0">
-        <v>0.12762867301352837</v>
+        <v>0.12762867301352826</v>
       </c>
       <c r="N6" s="0">
-        <v>0.039780591563945179</v>
+        <v>0.0397805915639452</v>
       </c>
       <c r="O6" s="0">
-        <v>0.039780591563945179</v>
+        <v>0.0397805915639452</v>
       </c>
       <c r="P6" s="0">
-        <v>0.039780591563945436</v>
+        <v>0.039780591563945422</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.039780591563945436</v>
+        <v>0.039780591563945422</v>
       </c>
       <c r="R6" s="0">
-        <v>0.039780591563945755</v>
+        <v>0.039780591563945783</v>
       </c>
       <c r="S6" s="0">
-        <v>0.039780591563945755</v>
+        <v>0.039780591563945783</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.041116850798549133</v>
+        <v>-0.041116850798549147</v>
       </c>
       <c r="U6" s="0">
-        <v>0.041116850798549133</v>
+        <v>0.041116850798549147</v>
       </c>
       <c r="V6" s="0">
-        <v>-0.041116850798548932</v>
+        <v>-0.041116850798548939</v>
       </c>
       <c r="W6" s="0">
-        <v>0.041116850798548932</v>
+        <v>0.041116850798548939</v>
       </c>
       <c r="X6" s="0">
-        <v>-0.041116850798548883</v>
+        <v>-0.041116850798548855</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.041116850798548883</v>
+        <v>0.041116850798548855</v>
       </c>
       <c r="Z6" s="0">
         <v>-0.45534392478275393</v>
       </c>
       <c r="AA6" s="0">
-        <v>-1.1276286730135301</v>
+        <v>-1.1276286730135299</v>
       </c>
       <c r="AB6" s="0">
         <v>-0.45534392478275526</v>
       </c>
       <c r="AC6" s="0">
-        <v>1.1276286730135301</v>
+        <v>1.1276286730135299</v>
       </c>
     </row>
     <row r="7">
@@ -905,10 +992,10 @@
         <v>-0.45534392478275348</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.4553439247827546</v>
+        <v>-0.45534392478275459</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.4553439247827546</v>
+        <v>-0.45534392478275459</v>
       </c>
       <c r="F9" s="0">
         <v>-0.45534392478275304</v>
@@ -917,10 +1004,10 @@
         <v>-0.45534392478275304</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.12334380250717635</v>
+        <v>-0.12334380250717634</v>
       </c>
       <c r="I9" s="0">
-        <v>0.12334380250717635</v>
+        <v>0.12334380250717634</v>
       </c>
       <c r="J9" s="0">
         <v>-0.12334380250717433</v>
@@ -974,13 +1061,13 @@
         <v>-0.45534392478275348</v>
       </c>
       <c r="AA9" s="0">
-        <v>-1.1233438025071763</v>
+        <v>-1.1233438025071762</v>
       </c>
       <c r="AB9" s="0">
         <v>-0.45534392478275559</v>
       </c>
       <c r="AC9" s="0">
-        <v>1.1233438025071763</v>
+        <v>1.1233438025071762</v>
       </c>
     </row>
     <row r="10">
@@ -988,10 +1075,10 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.45534392478275632</v>
+        <v>-0.45534392478275654</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.45534392478275632</v>
+        <v>-0.45534392478275654</v>
       </c>
       <c r="D10" s="0">
         <v>-0.45534392478275315</v>
@@ -1006,70 +1093,70 @@
         <v>-0.45534392478275348</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.1025588817113087</v>
+        <v>-0.10255888171130864</v>
       </c>
       <c r="I10" s="0">
-        <v>0.1025588817113087</v>
+        <v>0.10255888171130864</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.10255888171130848</v>
+        <v>-0.10255888171130864</v>
       </c>
       <c r="K10" s="0">
-        <v>0.10255888171130848</v>
+        <v>0.10255888171130864</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.10255888171130481</v>
+        <v>-0.10255888171130469</v>
       </c>
       <c r="M10" s="0">
-        <v>0.10255888171130481</v>
+        <v>0.10255888171130469</v>
       </c>
       <c r="N10" s="0">
-        <v>0.04573799398693832</v>
+        <v>0.045737993986938265</v>
       </c>
       <c r="O10" s="0">
-        <v>0.04573799398693832</v>
+        <v>0.045737993986938265</v>
       </c>
       <c r="P10" s="0">
-        <v>0.045737993986939271</v>
+        <v>0.045737993986939243</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.045737993986939271</v>
+        <v>0.045737993986939243</v>
       </c>
       <c r="R10" s="0">
-        <v>0.045737993986939972</v>
+        <v>0.04573799398694</v>
       </c>
       <c r="S10" s="0">
-        <v>0.045737993986939972</v>
+        <v>0.04573799398694</v>
       </c>
       <c r="T10" s="0">
-        <v>-0.034367525235580676</v>
+        <v>-0.034367525235580614</v>
       </c>
       <c r="U10" s="0">
-        <v>0.034367525235580676</v>
+        <v>0.034367525235580614</v>
       </c>
       <c r="V10" s="0">
-        <v>-0.034367525235581287</v>
+        <v>-0.034367525235581349</v>
       </c>
       <c r="W10" s="0">
-        <v>0.034367525235581287</v>
+        <v>0.034367525235581349</v>
       </c>
       <c r="X10" s="0">
-        <v>-0.034367525235580169</v>
+        <v>-0.034367525235580135</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.034367525235580169</v>
+        <v>0.034367525235580135</v>
       </c>
       <c r="Z10" s="0">
         <v>-0.45534392478275593</v>
       </c>
       <c r="AA10" s="0">
-        <v>-1.1025588817113088</v>
+        <v>-1.1025588817113086</v>
       </c>
       <c r="AB10" s="0">
         <v>-0.45534392478275315</v>
       </c>
       <c r="AC10" s="0">
-        <v>1.1025588817113088</v>
+        <v>1.1025588817113086</v>
       </c>
     </row>
     <row r="11">
@@ -1169,19 +1256,19 @@
         <v>-0.55379142634747802</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.55379142634747214</v>
+        <v>-0.55379142634747203</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.55379142634746359</v>
+        <v>-0.55379142634746381</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.35689642321803894</v>
+        <v>-0.35689642321803888</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.35689642321803527</v>
+        <v>-0.35689642321803539</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.35689642321803527</v>
+        <v>-0.35689642321803539</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -1196,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="L12" s="0">
-        <v>-3.2210747583277372e-16</v>
+        <v>-2.1184416597662895e-16</v>
       </c>
       <c r="M12" s="0">
-        <v>3.2210747583277372e-16</v>
+        <v>2.1184416597662895e-16</v>
       </c>
       <c r="N12" s="0">
-        <v>0.03082053306183364</v>
+        <v>0.030820533061833653</v>
       </c>
       <c r="O12" s="0">
-        <v>0.030820533061834795</v>
+        <v>0.030820533061834809</v>
       </c>
       <c r="P12" s="0">
-        <v>0.030820533061836443</v>
+        <v>0.030820533061836394</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.10619838658211253</v>
+        <v>0.10619838658211256</v>
       </c>
       <c r="R12" s="0">
-        <v>0.10619838658211499</v>
+        <v>0.10619838658211486</v>
       </c>
       <c r="S12" s="0">
-        <v>0.10619838658211499</v>
+        <v>0.10619838658211486</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -1232,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>-2.1493076856385807e-16</v>
+        <v>-1.4135601569447823e-16</v>
       </c>
       <c r="Y12" s="0">
-        <v>2.1493076856385807e-16</v>
+        <v>1.4135601569447823e-16</v>
       </c>
       <c r="Z12" s="0">
         <v>-0.55379142634747014</v>
@@ -1244,7 +1331,7 @@
         <v>-1.0000000000000002</v>
       </c>
       <c r="AB12" s="0">
-        <v>-0.35689642321803894</v>
+        <v>-0.35689642321803888</v>
       </c>
       <c r="AC12" s="0">
         <v>1.0000000000000002</v>
@@ -1261,7 +1348,7 @@
         <v>-0.61681595057090988</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.61681595057089878</v>
+        <v>-0.61681595057089877</v>
       </c>
       <c r="E13" s="0">
         <v>-0.2938718989946047</v>
@@ -1344,7 +1431,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.67181622037415267</v>
+        <v>-0.67181622037415289</v>
       </c>
       <c r="C14" s="0">
         <v>-0.67181622037412925</v>
@@ -1353,13 +1440,13 @@
         <v>-0.6718162203741167</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.23887162919138397</v>
+        <v>-0.23887162919138391</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.23887162919138324</v>
+        <v>-0.23887162919138316</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.23887162919138324</v>
+        <v>-0.23887162919138316</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
@@ -1374,28 +1461,28 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>-3.9240890001260334e-16</v>
+        <v>-3.8217603025855306e-16</v>
       </c>
       <c r="M14" s="0">
-        <v>3.9240890001260334e-16</v>
+        <v>3.8217603025855306e-16</v>
       </c>
       <c r="N14" s="0">
-        <v>0.014681812369845377</v>
+        <v>0.014681812369845363</v>
       </c>
       <c r="O14" s="0">
-        <v>0.014681812369847551</v>
+        <v>0.014681812369847544</v>
       </c>
       <c r="P14" s="0">
-        <v>0.014681812369848703</v>
+        <v>0.01468181236984871</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.22293507111489225</v>
+        <v>0.22293507111489236</v>
       </c>
       <c r="R14" s="0">
-        <v>0.2229350711148933</v>
+        <v>0.22293507111489339</v>
       </c>
       <c r="S14" s="0">
-        <v>0.2229350711148933</v>
+        <v>0.22293507111489339</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -1410,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>-5.4966376997738134e-16</v>
+        <v>-5.3533015581491445e-16</v>
       </c>
       <c r="Y14" s="0">
-        <v>5.4966376997738134e-16</v>
+        <v>5.3533015581491445e-16</v>
       </c>
       <c r="Z14" s="0">
         <v>-0.67181622037412514</v>
       </c>
       <c r="AA14" s="0">
-        <v>-1.0000000000000005</v>
+        <v>-1.0000000000000004</v>
       </c>
       <c r="AB14" s="0">
-        <v>-0.23887162919138397</v>
+        <v>-0.23887162919138391</v>
       </c>
       <c r="AC14" s="0">
-        <v>1.0000000000000005</v>
+        <v>1.0000000000000004</v>
       </c>
     </row>
     <row r="15">
@@ -1611,28 +1698,28 @@
         <v>1.5</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.82357711669351841</v>
+        <v>-0.82357711669351863</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.82357711669351841</v>
+        <v>-0.82357711669351863</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.823577116693478</v>
+        <v>-0.82357711669347688</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.08711073287200577</v>
+        <v>-0.087110732872005714</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.08711073287200459</v>
+        <v>-0.087110732872004756</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.08711073287200459</v>
+        <v>-0.087110732872004756</v>
       </c>
       <c r="H17" s="0">
-        <v>-1.610173602144067e-14</v>
+        <v>-1.4099422118119511e-14</v>
       </c>
       <c r="I17" s="0">
-        <v>1.610173602144067e-14</v>
+        <v>1.4099422118119511e-14</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -1641,34 +1728,34 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>-1.0346902501111341e-15</v>
+        <v>-1.0184593096347676e-15</v>
       </c>
       <c r="M17" s="0">
-        <v>1.0346902501111341e-15</v>
+        <v>1.0184593096347676e-15</v>
       </c>
       <c r="N17" s="0">
-        <v>0.0056579839718406844</v>
+        <v>0.0056579839718406784</v>
       </c>
       <c r="O17" s="0">
-        <v>0.0056579839718406844</v>
+        <v>0.0056579839718406784</v>
       </c>
       <c r="P17" s="0">
-        <v>0.005657983971842119</v>
+        <v>0.0056579839718421607</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.57849066046442388</v>
+        <v>0.5784906604644241</v>
       </c>
       <c r="R17" s="0">
-        <v>0.57849066046442821</v>
+        <v>0.57849066046442754</v>
       </c>
       <c r="S17" s="0">
-        <v>0.57849066046442821</v>
+        <v>0.57849066046442754</v>
       </c>
       <c r="T17" s="0">
-        <v>-5.7241932018107934e-16</v>
+        <v>-5.012367370234603e-16</v>
       </c>
       <c r="U17" s="0">
-        <v>5.7241932018107934e-16</v>
+        <v>5.012367370234603e-16</v>
       </c>
       <c r="V17" s="0">
         <v>0</v>
@@ -1677,22 +1764,22 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>-3.7608548910560026e-15</v>
+        <v>-3.7018592526314308e-15</v>
       </c>
       <c r="Y17" s="0">
-        <v>3.7608548910560026e-15</v>
+        <v>3.7018592526314308e-15</v>
       </c>
       <c r="Z17" s="0">
         <v>-0.82357711669350331</v>
       </c>
       <c r="AA17" s="0">
-        <v>-1.0000000000000162</v>
+        <v>-1.000000000000014</v>
       </c>
       <c r="AB17" s="0">
-        <v>-0.08711073287200577</v>
+        <v>-0.087110732872005714</v>
       </c>
       <c r="AC17" s="0">
-        <v>1.0000000000000162</v>
+        <v>1.000000000000014</v>
       </c>
     </row>
     <row r="18">
@@ -1700,19 +1787,19 @@
         <v>1.6000000000000001</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.87258661357535294</v>
+        <v>-0.87258661357535316</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.87258661357524769</v>
+        <v>-0.87258661357524714</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.87258661357524769</v>
+        <v>-0.87258661357524714</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.038101235990285691</v>
+        <v>-0.038101235990285601</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.03810123599028533</v>
+        <v>-0.03810123599028542</v>
       </c>
       <c r="G18" s="0">
         <v>-0.038101235990284435</v>
@@ -1721,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>-1.8618725367712832e-14</v>
+        <v>-1.9252130724682077e-14</v>
       </c>
       <c r="J18" s="0">
-        <v>1.8618725367712832e-14</v>
+        <v>1.9252130724682077e-14</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -1736,31 +1823,31 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0.0041584062559798414</v>
+        <v>0.0041584062559798362</v>
       </c>
       <c r="O18" s="0">
-        <v>0.0041584062559825927</v>
+        <v>0.0041584062559826083</v>
       </c>
       <c r="P18" s="0">
-        <v>0.0041584062559825927</v>
+        <v>0.0041584062559826083</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.78710224140754437</v>
+        <v>0.78710224140754481</v>
       </c>
       <c r="R18" s="0">
-        <v>0.78710224140754614</v>
+        <v>0.7871022414075457</v>
       </c>
       <c r="S18" s="0">
-        <v>0.78710224140755059</v>
+        <v>0.78710224140755058</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>-4.8647074695515069e-16</v>
+        <v>-5.0302038561433624e-16</v>
       </c>
       <c r="V18" s="0">
-        <v>4.8647074695515069e-16</v>
+        <v>5.0302038561433624e-16</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -1772,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="Z18" s="0">
-        <v>-0.87258661357522338</v>
+        <v>-0.87258661357522349</v>
       </c>
       <c r="AA18" s="0">
-        <v>-1.0000000000000187</v>
+        <v>-1.0000000000000193</v>
       </c>
       <c r="AB18" s="0">
-        <v>-0.038101235990285691</v>
+        <v>-0.038101235990285601</v>
       </c>
       <c r="AC18" s="0">
-        <v>1.0000000000000187</v>
+        <v>1.0000000000000193</v>
       </c>
     </row>
     <row r="19">
@@ -1789,88 +1876,88 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.92148172390885941</v>
+        <v>-0.9214817239088573</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.92148172390877581</v>
+        <v>-0.9214817239087747</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.92148172390877581</v>
+        <v>-0.9214817239087747</v>
       </c>
       <c r="E19" s="0">
         <v>0.010793874343293571</v>
       </c>
       <c r="F19" s="0">
-        <v>0.01079387434329453</v>
+        <v>0.010793874343294593</v>
       </c>
       <c r="G19" s="0">
-        <v>0.01079387434329453</v>
+        <v>0.010793874343294593</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>-8.2932515663286317e-14</v>
+        <v>-8.445213140027206e-14</v>
       </c>
       <c r="J19" s="0">
-        <v>8.2932515663286317e-14</v>
+        <v>8.445213140027206e-14</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>-1.4789208908362786e-15</v>
+        <v>-1.5548312761919767e-15</v>
       </c>
       <c r="M19" s="0">
-        <v>1.4789208908362786e-15</v>
+        <v>1.5548312761919767e-15</v>
       </c>
       <c r="N19" s="0">
-        <v>0.0030584701821651347</v>
+        <v>0.0030584701821651772</v>
       </c>
       <c r="O19" s="0">
-        <v>0.0030584701821667398</v>
+        <v>0.003058470182166761</v>
       </c>
       <c r="P19" s="0">
-        <v>0.0030584701821667398</v>
+        <v>0.003058470182166761</v>
       </c>
       <c r="Q19" s="0">
         <v>1.0701725666160711</v>
       </c>
       <c r="R19" s="0">
-        <v>1.0701725666160775</v>
+        <v>1.070172566616078</v>
       </c>
       <c r="S19" s="0">
-        <v>1.0701725666160775</v>
+        <v>1.070172566616078</v>
       </c>
       <c r="T19" s="0">
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>-1.5937087555099241e-15</v>
+        <v>-1.6229111122173775e-15</v>
       </c>
       <c r="V19" s="0">
-        <v>1.5937087555099241e-15</v>
+        <v>1.6229111122173775e-15</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>-9.9444009392441682e-15</v>
+        <v>-1.0454829395632213e-14</v>
       </c>
       <c r="Y19" s="0">
-        <v>9.9444009392441682e-15</v>
+        <v>1.0454829395632213e-14</v>
       </c>
       <c r="Z19" s="0">
-        <v>-0.92148172390880268</v>
+        <v>-0.92148172390880267</v>
       </c>
       <c r="AA19" s="0">
-        <v>-1.0000000000000828</v>
+        <v>-1.0000000000000844</v>
       </c>
       <c r="AB19" s="0">
         <v>0.010793874343293571</v>
       </c>
       <c r="AC19" s="0">
-        <v>1.0000000000000828</v>
+        <v>1.0000000000000844</v>
       </c>
     </row>
     <row r="20">
@@ -2113,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>-4.7191452326111788e-15</v>
+        <v>-4.7191452326111787e-15</v>
       </c>
       <c r="V22" s="0">
-        <v>4.7191452326111788e-15</v>
+        <v>4.7191452326111787e-15</v>
       </c>
       <c r="W22" s="0">
         <v>-6.4239618697789746e-15</v>
@@ -2145,22 +2232,22 @@
         <v>2.1000000000000001</v>
       </c>
       <c r="B23" s="0">
-        <v>-1.1189973699712776</v>
+        <v>-1.1189973699712972</v>
       </c>
       <c r="C23" s="0">
-        <v>-1.1189973699700744</v>
+        <v>-1.1189973699700411</v>
       </c>
       <c r="D23" s="0">
-        <v>-1.1189973699696931</v>
+        <v>-1.118997369969682</v>
       </c>
       <c r="E23" s="0">
-        <v>0.20830952040458936</v>
+        <v>0.20830952040458958</v>
       </c>
       <c r="F23" s="0">
-        <v>0.20830952040459419</v>
+        <v>0.20830952040459436</v>
       </c>
       <c r="G23" s="0">
-        <v>0.20830952040459419</v>
+        <v>0.20830952040459436</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -2175,28 +2262,28 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>-7.6958460165480667e-16</v>
+        <v>-6.9118048005620706e-16</v>
       </c>
       <c r="M23" s="0">
-        <v>7.6958460165480667e-16</v>
+        <v>6.9118048005620706e-16</v>
       </c>
       <c r="N23" s="0">
-        <v>0.00088416414004741746</v>
+        <v>0.00088416414004731045</v>
       </c>
       <c r="O23" s="0">
-        <v>0.00088416414005410211</v>
+        <v>0.00088416414005428718</v>
       </c>
       <c r="P23" s="0">
-        <v>0.00088416414005622053</v>
+        <v>0.00088416414005628287</v>
       </c>
       <c r="Q23" s="0">
-        <v>3.7019041335105101</v>
+        <v>3.7019041335105145</v>
       </c>
       <c r="R23" s="0">
-        <v>3.7019041335106215</v>
+        <v>3.7019041335106255</v>
       </c>
       <c r="S23" s="0">
-        <v>3.7019041335106215</v>
+        <v>3.7019041335106255</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -2211,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>-1.7900345176882727e-14</v>
+        <v>-1.6076684936166631e-14</v>
       </c>
       <c r="Y23" s="0">
-        <v>1.7900345176882727e-14</v>
+        <v>1.6076684936166631e-14</v>
       </c>
       <c r="Z23" s="0">
-        <v>-1.1189973699700984</v>
+        <v>-1.1189973699700988</v>
       </c>
       <c r="AA23" s="0">
         <v>-1.0000000000000007</v>
       </c>
       <c r="AB23" s="0">
-        <v>0.20830952040458936</v>
+        <v>0.20830952040458958</v>
       </c>
       <c r="AC23" s="0">
         <v>1.0000000000000007</v>
@@ -2234,73 +2321,73 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B24" s="0">
-        <v>-1.1687690610730051</v>
+        <v>-1.1687690610730859</v>
       </c>
       <c r="C24" s="0">
-        <v>-1.1687690610726085</v>
+        <v>-1.1687690610726817</v>
       </c>
       <c r="D24" s="0">
-        <v>-1.1687690610726085</v>
+        <v>-1.1687690610726817</v>
       </c>
       <c r="E24" s="0">
-        <v>0.25808121150772417</v>
+        <v>0.25808121150772412</v>
       </c>
       <c r="F24" s="0">
-        <v>0.25808121150772417</v>
+        <v>0.25808121150772412</v>
       </c>
       <c r="G24" s="0">
-        <v>0.25808121150772656</v>
+        <v>0.25808121150772684</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>-1.1427045506236382e-12</v>
+        <v>-1.1967907638681578e-12</v>
       </c>
       <c r="J24" s="0">
-        <v>1.1427045506236382e-12</v>
+        <v>1.1967907638681578e-12</v>
       </c>
       <c r="K24" s="0">
-        <v>-4.5219090303849863e-16</v>
+        <v>-4.7373142467744537e-16</v>
       </c>
       <c r="L24" s="0">
-        <v>4.5219090303849863e-16</v>
+        <v>4.7373142467744537e-16</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0.00064672293076644088</v>
+        <v>0.00064672293076611204</v>
       </c>
       <c r="O24" s="0">
-        <v>0.00064672293076805179</v>
+        <v>0.00064672293076775472</v>
       </c>
       <c r="P24" s="0">
-        <v>0.00064672293076805179</v>
+        <v>0.00064672293076775472</v>
       </c>
       <c r="Q24" s="0">
-        <v>5.0610404070461197</v>
+        <v>5.0610404070461188</v>
       </c>
       <c r="R24" s="0">
-        <v>5.0610404070461197</v>
+        <v>5.0610404070461188</v>
       </c>
       <c r="S24" s="0">
-        <v>5.061040407046197</v>
+        <v>5.0610404070462041</v>
       </c>
       <c r="T24" s="0">
         <v>0</v>
       </c>
       <c r="U24" s="0">
-        <v>-4.6433571061289999e-15</v>
+        <v>-4.8631353528095909e-15</v>
       </c>
       <c r="V24" s="0">
-        <v>4.6433571061289999e-15</v>
+        <v>4.8631353528095909e-15</v>
       </c>
       <c r="W24" s="0">
-        <v>-1.437942414804618e-14</v>
+        <v>-1.506440099064801e-14</v>
       </c>
       <c r="X24" s="0">
-        <v>1.437942414804618e-14</v>
+        <v>1.506440099064801e-14</v>
       </c>
       <c r="Y24" s="0">
         <v>0</v>
@@ -2309,13 +2396,13 @@
         <v>-1.1687690610732333</v>
       </c>
       <c r="AA24" s="0">
-        <v>-1.0000000000011427</v>
+        <v>-1.0000000000011968</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.25808121150772417</v>
+        <v>0.25808121150772412</v>
       </c>
       <c r="AC24" s="0">
-        <v>1.0000000000011427</v>
+        <v>1.0000000000011968</v>
       </c>
     </row>
     <row r="25">
@@ -2359,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>0.00047346634339040517</v>
+        <v>0.00047346634339040516</v>
       </c>
       <c r="O25" s="0">
         <v>0.00047346634339603066</v>
@@ -2374,7 +2461,7 @@
         <v>6.9130381291816283</v>
       </c>
       <c r="S25" s="0">
-        <v>6.9130381291817225</v>
+        <v>6.9130381291817224</v>
       </c>
       <c r="T25" s="0">
         <v>0</v>
@@ -2412,10 +2499,10 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="B26" s="0">
-        <v>-1.2676731399932446</v>
+        <v>-1.2676731399935961</v>
       </c>
       <c r="C26" s="0">
-        <v>-1.2676731399932446</v>
+        <v>-1.267673139992791</v>
       </c>
       <c r="D26" s="0">
         <v>-1.2676731399897856</v>
@@ -2430,10 +2517,10 @@
         <v>0.35698529042494492</v>
       </c>
       <c r="H26" s="0">
-        <v>-1.1037090318082387e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>1.1037090318082387e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -2448,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>0.00034740293785107048</v>
+        <v>0.00034740293785030324</v>
       </c>
       <c r="O26" s="0">
-        <v>0.00034740293785107048</v>
+        <v>0.0003474029378520603</v>
       </c>
       <c r="P26" s="0">
         <v>0.00034740293785862075</v>
       </c>
       <c r="Q26" s="0">
-        <v>9.4215981734536563</v>
+        <v>9.4215981734536562</v>
       </c>
       <c r="R26" s="0">
         <v>9.4215981734538534</v>
@@ -2466,10 +2553,10 @@
         <v>9.4215981734538961</v>
       </c>
       <c r="T26" s="0">
-        <v>-2.4091728018874723e-15</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>2.4091728018874723e-15</v>
+        <v>0</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -2487,13 +2574,13 @@
         <v>-1.2676731399904499</v>
       </c>
       <c r="AA26" s="0">
-        <v>-1.0000000000011038</v>
+        <v>-1</v>
       </c>
       <c r="AB26" s="0">
         <v>0.35698529042494087</v>
       </c>
       <c r="AC26" s="0">
-        <v>1.0000000000011038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2679,31 +2766,31 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="B29" s="0">
-        <v>-1.4112268676179083</v>
+        <v>-1.4112268676186761</v>
       </c>
       <c r="C29" s="0">
-        <v>-1.411226867602198</v>
+        <v>-1.411226867601852</v>
       </c>
       <c r="D29" s="0">
-        <v>-1.411226867602198</v>
+        <v>-1.411226867601852</v>
       </c>
       <c r="E29" s="0">
         <v>0.50053901804061984</v>
       </c>
       <c r="F29" s="0">
-        <v>0.50053901804062639</v>
+        <v>0.50053901804062628</v>
       </c>
       <c r="G29" s="0">
-        <v>0.50053901804062839</v>
+        <v>0.50053901804062861</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>-9.6690918159490695e-12</v>
+        <v>-1.0814361257911125e-11</v>
       </c>
       <c r="J29" s="0">
-        <v>9.6690918159490695e-12</v>
+        <v>1.0814361257911125e-11</v>
       </c>
       <c r="K29" s="0">
         <v>0</v>
@@ -2715,31 +2802,31 @@
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>0.00014096485982954227</v>
+        <v>0.0001409648598288622</v>
       </c>
       <c r="O29" s="0">
-        <v>0.000140964859843457</v>
+        <v>0.0001409648598437637</v>
       </c>
       <c r="P29" s="0">
-        <v>0.000140964859843457</v>
+        <v>0.0001409648598437637</v>
       </c>
       <c r="Q29" s="0">
-        <v>23.219197241661465</v>
+        <v>23.219197241661455</v>
       </c>
       <c r="R29" s="0">
-        <v>23.219197241662414</v>
+        <v>23.219197241662403</v>
       </c>
       <c r="S29" s="0">
-        <v>23.219197241662712</v>
+        <v>23.219197241662734</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>-8.5639952248406529e-15</v>
+        <v>-9.5783699167990157e-15</v>
       </c>
       <c r="V29" s="0">
-        <v>8.5639952248406529e-15</v>
+        <v>9.5783699167990157e-15</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -2754,13 +2841,13 @@
         <v>-1.4112268676061288</v>
       </c>
       <c r="AA29" s="0">
-        <v>-1.0000000000096692</v>
+        <v>-1.0000000000108145</v>
       </c>
       <c r="AB29" s="0">
         <v>0.50053901804061984</v>
       </c>
       <c r="AC29" s="0">
-        <v>1.0000000000096692</v>
+        <v>1.0000000000108145</v>
       </c>
     </row>
     <row r="30">
@@ -2768,7 +2855,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="B30" s="0">
-        <v>-1.4570235054257657</v>
+        <v>-1.4570235054257656</v>
       </c>
       <c r="C30" s="0">
         <v>-1.4570235053586693</v>
@@ -2857,22 +2944,22 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="B31" s="0">
-        <v>-1.5015243734735579</v>
+        <v>-1.5015243734735162</v>
       </c>
       <c r="C31" s="0">
-        <v>-1.5015243734038179</v>
+        <v>-1.5015243734009447</v>
       </c>
       <c r="D31" s="0">
         <v>-1.5015243733465333</v>
       </c>
       <c r="E31" s="0">
-        <v>0.59083652383153329</v>
+        <v>0.59083652383153318</v>
       </c>
       <c r="F31" s="0">
-        <v>0.59083652383153806</v>
+        <v>0.59083652383153817</v>
       </c>
       <c r="G31" s="0">
-        <v>0.59083652383154139</v>
+        <v>0.59083652383154106</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -2893,22 +2980,22 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>7.9930273724370863e-05</v>
+        <v>7.9930273724391815e-05</v>
       </c>
       <c r="O31" s="0">
-        <v>7.9930273759395445e-05</v>
+        <v>7.9930273760838396e-05</v>
       </c>
       <c r="P31" s="0">
         <v>7.9930273788164641e-05</v>
       </c>
       <c r="Q31" s="0">
-        <v>40.949326590333023</v>
+        <v>40.949326590333008</v>
       </c>
       <c r="R31" s="0">
-        <v>40.949326590334273</v>
+        <v>40.949326590334309</v>
       </c>
       <c r="S31" s="0">
-        <v>40.949326590335112</v>
+        <v>40.949326590335055</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -2929,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>-1.5015243733970425</v>
+        <v>-1.501524373397042</v>
       </c>
       <c r="AA31" s="0">
         <v>-1</v>
       </c>
       <c r="AB31" s="0">
-        <v>0.59083652383153329</v>
+        <v>0.59083652383153318</v>
       </c>
       <c r="AC31" s="0">
         <v>1</v>
@@ -2946,13 +3033,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="0">
-        <v>-1.5445926293538217</v>
+        <v>-1.5445926293442813</v>
       </c>
       <c r="C32" s="0">
         <v>-1.5445926293308456</v>
       </c>
       <c r="D32" s="0">
-        <v>-1.5445926292279004</v>
+        <v>-1.5445926292365399</v>
       </c>
       <c r="E32" s="0">
         <v>0.63390477970272796</v>
@@ -2982,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>6.0980176968506691e-05</v>
+        <v>6.0980176972162025e-05</v>
       </c>
       <c r="O32" s="0">
         <v>6.0980176977309952e-05</v>
       </c>
       <c r="P32" s="0">
-        <v>6.0980177016753295e-05</v>
+        <v>6.0980177013443063e-05</v>
       </c>
       <c r="Q32" s="0">
         <v>53.674670125963424</v>
@@ -3163,7 +3250,7 @@
         <v>3.6580789892810244e-05</v>
       </c>
       <c r="O34" s="0">
-        <v>3.6580789985966616e-05</v>
+        <v>3.6580789985966615e-05</v>
       </c>
       <c r="P34" s="0">
         <v>3.658079006914521e-05</v>
@@ -3175,7 +3262,7 @@
         <v>89.475675217312713</v>
       </c>
       <c r="S34" s="0">
-        <v>89.475675217320998</v>
+        <v>89.475675217320997</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -3213,31 +3300,31 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="B35" s="0">
-        <v>-1.6639364585451031</v>
+        <v>-1.6639364586500576</v>
       </c>
       <c r="C35" s="0">
-        <v>-1.6639364582855831</v>
+        <v>-1.6639364581834359</v>
       </c>
       <c r="D35" s="0">
-        <v>-1.6639364582855831</v>
+        <v>-1.6639364581834359</v>
       </c>
       <c r="E35" s="0">
-        <v>0.75324860903474034</v>
+        <v>0.75324860903474056</v>
       </c>
       <c r="F35" s="0">
-        <v>0.75324860903474677</v>
+        <v>0.75324860903474689</v>
       </c>
       <c r="G35" s="0">
-        <v>0.75324860903476187</v>
+        <v>0.75324860903476198</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>-5.2269641822460244e-10</v>
+        <v>-4.2077659014667978e-10</v>
       </c>
       <c r="J35" s="0">
-        <v>5.2269641822460244e-10</v>
+        <v>4.2077659014667978e-10</v>
       </c>
       <c r="K35" s="0">
         <v>0</v>
@@ -3249,31 +3336,31 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>2.8809046417942357e-05</v>
+        <v>2.8809046398944306e-05</v>
       </c>
       <c r="O35" s="0">
-        <v>2.8809046464918733e-05</v>
+        <v>2.8809046483408666e-05</v>
       </c>
       <c r="P35" s="0">
-        <v>2.8809046464918733e-05</v>
+        <v>2.8809046483408666e-05</v>
       </c>
       <c r="Q35" s="0">
-        <v>113.61330182255423</v>
+        <v>113.61330182255438</v>
       </c>
       <c r="R35" s="0">
-        <v>113.61330182255882</v>
+        <v>113.61330182255888</v>
       </c>
       <c r="S35" s="0">
-        <v>113.61330182256955</v>
+        <v>113.61330182256964</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>-9.4614625893111733e-14</v>
+        <v>-7.6165855167103472e-14</v>
       </c>
       <c r="V35" s="0">
-        <v>9.4614625893111733e-14</v>
+        <v>7.6165855167103472e-14</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -3288,13 +3375,13 @@
         <v>-1.6639364586002494</v>
       </c>
       <c r="AA35" s="0">
-        <v>-1.0000000005226963</v>
+        <v>-1.0000000004207765</v>
       </c>
       <c r="AB35" s="0">
-        <v>0.75324860903474034</v>
+        <v>0.75324860903474056</v>
       </c>
       <c r="AC35" s="0">
-        <v>1.0000000005226963</v>
+        <v>1.0000000004207765</v>
       </c>
     </row>
     <row r="36">
@@ -3302,28 +3389,28 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="B36" s="0">
-        <v>-1.6999953529765521</v>
+        <v>-1.6999953530983349</v>
       </c>
       <c r="C36" s="0">
-        <v>-1.6999953529765521</v>
+        <v>-1.6999953530983349</v>
       </c>
       <c r="D36" s="0">
-        <v>-1.6999953522023112</v>
+        <v>-1.6999953521273277</v>
       </c>
       <c r="E36" s="0">
-        <v>0.78930750266384209</v>
+        <v>0.78930750266384253</v>
       </c>
       <c r="F36" s="0">
-        <v>0.7893075026638503</v>
+        <v>0.78930750266384997</v>
       </c>
       <c r="G36" s="0">
-        <v>0.78930750266388872</v>
+        <v>0.78930750266388883</v>
       </c>
       <c r="H36" s="0">
-        <v>-5.0392942969507815e-10</v>
+        <v>-4.0283440000305214e-10</v>
       </c>
       <c r="I36" s="0">
-        <v>5.0392942969507815e-10</v>
+        <v>4.0283440000305214e-10</v>
       </c>
       <c r="J36" s="0">
         <v>0</v>
@@ -3338,28 +3425,28 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>2.2968523470793921e-05</v>
+        <v>2.296852345321876e-05</v>
       </c>
       <c r="O36" s="0">
-        <v>2.2968523470793921e-05</v>
+        <v>2.296852345321876e-05</v>
       </c>
       <c r="P36" s="0">
-        <v>2.2968523582528873e-05</v>
+        <v>2.2968523593350159e-05</v>
       </c>
       <c r="Q36" s="0">
-        <v>142.50332084093279</v>
+        <v>142.50332084093316</v>
       </c>
       <c r="R36" s="0">
-        <v>142.50332084094009</v>
+        <v>142.50332084093992</v>
       </c>
       <c r="S36" s="0">
-        <v>142.5033208409746</v>
+        <v>142.50332084097462</v>
       </c>
       <c r="T36" s="0">
-        <v>-7.2724822168370377e-14</v>
+        <v>-5.8135243458263509e-14</v>
       </c>
       <c r="U36" s="0">
-        <v>7.2724822168370377e-14</v>
+        <v>5.8135243458263509e-14</v>
       </c>
       <c r="V36" s="0">
         <v>0</v>
@@ -3374,16 +3461,16 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>-1.699995352229351</v>
+        <v>-1.6999953522293514</v>
       </c>
       <c r="AA36" s="0">
-        <v>-1.0000000005039293</v>
+        <v>-1.0000000004028344</v>
       </c>
       <c r="AB36" s="0">
-        <v>0.78930750266384209</v>
+        <v>0.78930750266384253</v>
       </c>
       <c r="AC36" s="0">
-        <v>1.0000000005039293</v>
+        <v>1.0000000004028344</v>
       </c>
     </row>
     <row r="37">
@@ -3391,13 +3478,13 @@
         <v>3.5</v>
       </c>
       <c r="B37" s="0">
-        <v>-1.7339394529708148</v>
+        <v>-1.733939452996571</v>
       </c>
       <c r="C37" s="0">
-        <v>-1.7339394527879326</v>
+        <v>-1.7339394527960625</v>
       </c>
       <c r="D37" s="0">
-        <v>-1.7339394513875028</v>
+        <v>-1.7339394513840862</v>
       </c>
       <c r="E37" s="0">
         <v>0.82325160238043749</v>
@@ -3427,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="0">
-        <v>1.8557010895872666e-05</v>
+        <v>1.8557010892869548e-05</v>
       </c>
       <c r="O37" s="0">
-        <v>1.8557010917196206e-05</v>
+        <v>1.8557010916248315e-05</v>
       </c>
       <c r="P37" s="0">
-        <v>1.8557011080482325e-05</v>
+        <v>1.8557011080880708e-05</v>
       </c>
       <c r="Q37" s="0">
         <v>176.38028462971204</v>
@@ -3658,13 +3745,13 @@
         <v>3.8000000000000003</v>
       </c>
       <c r="B40" s="0">
-        <v>-1.8208353226050242</v>
+        <v>-1.82083532211697</v>
       </c>
       <c r="C40" s="0">
-        <v>-1.8208353217043798</v>
+        <v>-1.82083532211697</v>
       </c>
       <c r="D40" s="0">
-        <v>-1.8208353097384493</v>
+        <v>-1.8208353095760808</v>
       </c>
       <c r="E40" s="0">
         <v>0.91014746936570212</v>
@@ -3676,10 +3763,10 @@
         <v>0.91014746936574231</v>
       </c>
       <c r="H40" s="0">
-        <v>0</v>
+        <v>-1.4084647013367433e-09</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
+        <v>1.4084647013367433e-09</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -3688,34 +3775,34 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>-1.2283885093429819e-15</v>
+        <v>-1.2283885093429815e-15</v>
       </c>
       <c r="M40" s="0">
-        <v>1.2283885093429819e-15</v>
+        <v>1.2283885093429815e-15</v>
       </c>
       <c r="N40" s="0">
-        <v>1.0749559878264833e-05</v>
+        <v>1.0749559911228738e-05</v>
       </c>
       <c r="O40" s="0">
-        <v>1.0749559939095694e-05</v>
+        <v>1.0749559911228738e-05</v>
       </c>
       <c r="P40" s="0">
-        <v>1.0749560747292333e-05</v>
+        <v>1.0749560758258953e-05</v>
       </c>
       <c r="Q40" s="0">
-        <v>304.4860297798831</v>
+        <v>304.48602977988327</v>
       </c>
       <c r="R40" s="0">
-        <v>304.48602977995984</v>
+        <v>304.48602977995995</v>
       </c>
       <c r="S40" s="0">
-        <v>304.48602977995984</v>
+        <v>304.48602977995995</v>
       </c>
       <c r="T40" s="0">
-        <v>0</v>
+        <v>-9.5129786079771528e-14</v>
       </c>
       <c r="U40" s="0">
-        <v>0</v>
+        <v>9.5129786079771528e-14</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -3733,13 +3820,13 @@
         <v>-1.820835318931211</v>
       </c>
       <c r="AA40" s="0">
-        <v>-1.0000000000000013</v>
+        <v>-1.0000000014084647</v>
       </c>
       <c r="AB40" s="0">
         <v>0.91014746936570212</v>
       </c>
       <c r="AC40" s="0">
-        <v>1.0000000000000013</v>
+        <v>1.0000000014084647</v>
       </c>
     </row>
     <row r="41">
@@ -3762,7 +3849,7 @@
         <v>0.93301183925131714</v>
       </c>
       <c r="G41" s="0">
-        <v>0.9330118392513227</v>
+        <v>0.93301183925132269</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -3845,7 +3932,7 @@
         <v>-1.8626154215386348</v>
       </c>
       <c r="E42" s="0">
-        <v>0.9519275886679951</v>
+        <v>0.95192758866799509</v>
       </c>
       <c r="F42" s="0">
         <v>0.9519275886680002</v>
@@ -3914,7 +4001,7 @@
         <v>-1</v>
       </c>
       <c r="AB42" s="0">
-        <v>0.9519275886679951</v>
+        <v>0.95192758866799509</v>
       </c>
       <c r="AC42" s="0">
         <v>1</v>
@@ -3970,10 +4057,10 @@
         <v>7.5694873272569106e-06</v>
       </c>
       <c r="Q43" s="0">
-        <v>432.4059031295642</v>
+        <v>432.40590312956419</v>
       </c>
       <c r="R43" s="0">
-        <v>432.4059031295642</v>
+        <v>432.40590312956419</v>
       </c>
       <c r="S43" s="0">
         <v>432.40590312966106</v>
@@ -4014,22 +4101,22 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="B44" s="0">
-        <v>-1.8843623319180465</v>
+        <v>-1.8843623322223049</v>
       </c>
       <c r="C44" s="0">
-        <v>-1.8843622792954582</v>
+        <v>-1.8843622792075365</v>
       </c>
       <c r="D44" s="0">
-        <v>-1.8843622548131851</v>
+        <v>-1.8843622541264051</v>
       </c>
       <c r="E44" s="0">
-        <v>0.97367442991085718</v>
+        <v>0.97367442991085706</v>
       </c>
       <c r="F44" s="0">
-        <v>0.97367442991087894</v>
+        <v>0.97367442991087882</v>
       </c>
       <c r="G44" s="0">
-        <v>0.9736744299112321</v>
+        <v>0.97367442991123188</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -4050,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>7.2117586567161249e-06</v>
+        <v>7.2117586429293296e-06</v>
       </c>
       <c r="O44" s="0">
-        <v>7.2117610411941821e-06</v>
+        <v>7.2117610451781761e-06</v>
       </c>
       <c r="P44" s="0">
-        <v>7.2117621505553778e-06</v>
+        <v>7.211762181675331e-06</v>
       </c>
       <c r="Q44" s="0">
-        <v>453.85459526346386</v>
+        <v>453.85459526346364</v>
       </c>
       <c r="R44" s="0">
-        <v>453.85459526352594</v>
+        <v>453.85459526352588</v>
       </c>
       <c r="S44" s="0">
-        <v>453.85459526453309</v>
+        <v>453.85459526453252</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -4086,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>-1.8843622794763664</v>
+        <v>-1.8843622794763659</v>
       </c>
       <c r="AA44" s="0">
         <v>-1</v>
       </c>
       <c r="AB44" s="0">
-        <v>0.97367442991085718</v>
+        <v>0.97367442991085706</v>
       </c>
       <c r="AC44" s="0">
         <v>1</v>
@@ -4103,13 +4190,13 @@
         <v>4.2999999999999998</v>
       </c>
       <c r="B45" s="0">
-        <v>-1.8832058039768191</v>
+        <v>-1.8832058050419986</v>
       </c>
       <c r="C45" s="0">
-        <v>-1.8832057927080688</v>
+        <v>-1.8832057921525451</v>
       </c>
       <c r="D45" s="0">
-        <v>-1.8832057927080688</v>
+        <v>-1.8832057921525451</v>
       </c>
       <c r="E45" s="0">
         <v>0.97251795285436027</v>
@@ -4124,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>-2.6975796688728542e-08</v>
+        <v>-3.0677391513628682e-08</v>
       </c>
       <c r="J45" s="0">
-        <v>2.6975796688728542e-08</v>
+        <v>3.0677391513628682e-08</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -4139,19 +4226,19 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>7.2643550637199666e-06</v>
+        <v>7.2643550151016806e-06</v>
       </c>
       <c r="O45" s="0">
-        <v>7.2643555780627176e-06</v>
+        <v>7.2643556034186056e-06</v>
       </c>
       <c r="P45" s="0">
-        <v>7.2643555780627176e-06</v>
+        <v>7.2643556034186056e-06</v>
       </c>
       <c r="Q45" s="0">
-        <v>450.56867733446109</v>
+        <v>450.56867733446131</v>
       </c>
       <c r="R45" s="0">
-        <v>450.56867733453197</v>
+        <v>450.56867733453203</v>
       </c>
       <c r="S45" s="0">
         <v>450.56867733494721</v>
@@ -4160,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>-1.2312641715143297e-12</v>
+        <v>-1.4002171507272897e-12</v>
       </c>
       <c r="V45" s="0">
-        <v>1.2312641715143297e-12</v>
+        <v>1.4002171507272897e-12</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -4178,13 +4265,13 @@
         <v>-1.8832058024198695</v>
       </c>
       <c r="AA45" s="0">
-        <v>-1.0000000269757967</v>
+        <v>-1.0000000306773915</v>
       </c>
       <c r="AB45" s="0">
         <v>0.97251795285436027</v>
       </c>
       <c r="AC45" s="0">
-        <v>1.0000000269757967</v>
+        <v>1.0000000306773915</v>
       </c>
     </row>
     <row r="46">
@@ -4192,22 +4279,22 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B46" s="0">
-        <v>-1.8682175616080046</v>
+        <v>-1.8682175620570394</v>
       </c>
       <c r="C46" s="0">
-        <v>-1.8682175268809516</v>
+        <v>-1.868217525561094</v>
       </c>
       <c r="D46" s="0">
-        <v>-1.868217495044356</v>
+        <v>-1.8682174948220336</v>
       </c>
       <c r="E46" s="0">
-        <v>0.95752964196395696</v>
+        <v>0.95752964196395718</v>
       </c>
       <c r="F46" s="0">
-        <v>0.95752964196411339</v>
+        <v>0.9575296419641135</v>
       </c>
       <c r="G46" s="0">
-        <v>0.95752964196471357</v>
+        <v>0.95752964196471335</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -4228,22 +4315,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>7.9817159865552313e-06</v>
+        <v>7.9817159640358727e-06</v>
       </c>
       <c r="O46" s="0">
-        <v>7.9817177281379801e-06</v>
+        <v>7.9817177943296442e-06</v>
       </c>
       <c r="P46" s="0">
-        <v>7.9817193247628815e-06</v>
+        <v>7.9817193359124846e-06</v>
       </c>
       <c r="Q46" s="0">
-        <v>410.07340390029844</v>
+        <v>410.07340390029907</v>
       </c>
       <c r="R46" s="0">
-        <v>410.07340390070152</v>
+        <v>410.07340390070181</v>
       </c>
       <c r="S46" s="0">
-        <v>410.073403902248</v>
+        <v>410.07340390224766</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -4270,7 +4357,7 @@
         <v>-1</v>
       </c>
       <c r="AB46" s="0">
-        <v>0.95752964196395696</v>
+        <v>0.95752964196395718</v>
       </c>
       <c r="AC46" s="0">
         <v>1</v>
@@ -4370,22 +4457,22 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="B48" s="0">
-        <v>-1.7105694419209525</v>
+        <v>-1.7105694420167152</v>
       </c>
       <c r="C48" s="0">
-        <v>-1.7105693507038975</v>
+        <v>-1.7105693504880666</v>
       </c>
       <c r="D48" s="0">
-        <v>-1.7105693009598701</v>
+        <v>-1.7105693010799341</v>
       </c>
       <c r="E48" s="0">
-        <v>0.79988144888162727</v>
+        <v>0.79988144888162738</v>
       </c>
       <c r="F48" s="0">
         <v>0.79988144888183033</v>
       </c>
       <c r="G48" s="0">
-        <v>0.79988144889325496</v>
+        <v>0.79988144889325508</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -4406,22 +4493,22 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>2.1492107475519133e-05</v>
+        <v>2.1492107462587457e-05</v>
       </c>
       <c r="O48" s="0">
-        <v>2.1492119793372874e-05</v>
+        <v>2.1492119822518498e-05</v>
       </c>
       <c r="P48" s="0">
-        <v>2.149212651075621e-05</v>
+        <v>2.1492126494542902e-05</v>
       </c>
       <c r="Q48" s="0">
-        <v>152.2925538082047</v>
+        <v>152.29255380820481</v>
       </c>
       <c r="R48" s="0">
-        <v>152.29255380839902</v>
+        <v>152.29255380839911</v>
       </c>
       <c r="S48" s="0">
-        <v>152.29255381933103</v>
+        <v>152.29255381933115</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -4448,7 +4535,7 @@
         <v>-1</v>
       </c>
       <c r="AB48" s="0">
-        <v>0.79988144888162727</v>
+        <v>0.79988144888162738</v>
       </c>
       <c r="AC48" s="0">
         <v>1</v>
@@ -4462,7 +4549,7 @@
         <v>0.74052589073863351</v>
       </c>
       <c r="C49" s="0">
-        <v>0.74052589073857123</v>
+        <v>0.74052589073857122</v>
       </c>
       <c r="D49" s="0">
         <v>0.74052589072878261</v>
@@ -4548,22 +4635,22 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="B50" s="0">
-        <v>0.98184152011954129</v>
+        <v>0.9818415201195414</v>
       </c>
       <c r="C50" s="0">
         <v>0.98184152011945802</v>
       </c>
       <c r="D50" s="0">
-        <v>0.98184152011627413</v>
+        <v>0.9818415201162739</v>
       </c>
       <c r="E50" s="0">
-        <v>-1.8925293825274157</v>
+        <v>-1.8925293792494231</v>
       </c>
       <c r="F50" s="0">
-        <v>-1.8925294534593435</v>
+        <v>-1.8925294554284839</v>
       </c>
       <c r="G50" s="0">
-        <v>-1.8925294534593435</v>
+        <v>-1.8925294554284839</v>
       </c>
       <c r="H50" s="0">
         <v>-0</v>
@@ -4578,28 +4665,28 @@
         <v>-0</v>
       </c>
       <c r="L50" s="0">
-        <v>6.8338374455080408e-08</v>
+        <v>6.755495132482519e-08</v>
       </c>
       <c r="M50" s="0">
-        <v>-6.8338374455080408e-08</v>
+        <v>-6.755495132482519e-08</v>
       </c>
       <c r="N50" s="0">
-        <v>-477.75221202277834</v>
+        <v>-477.75221202277851</v>
       </c>
       <c r="O50" s="0">
-        <v>-477.75221202252817</v>
+        <v>-477.75221202252811</v>
       </c>
       <c r="P50" s="0">
-        <v>-477.75221201297075</v>
+        <v>-477.75221201297052</v>
       </c>
       <c r="Q50" s="0">
-        <v>-6.851021383659573e-06</v>
+        <v>-6.8510215247648173e-06</v>
       </c>
       <c r="R50" s="0">
-        <v>-6.8510183303070557e-06</v>
+        <v>-6.8510182455430135e-06</v>
       </c>
       <c r="S50" s="0">
-        <v>-6.8510183303070557e-06</v>
+        <v>-6.8510182455430135e-06</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -4614,22 +4701,22 @@
         <v>0</v>
       </c>
       <c r="X50" s="0">
-        <v>-2.9417085448916451e-12</v>
+        <v>-2.9079851062869289e-12</v>
       </c>
       <c r="Y50" s="0">
-        <v>2.9417085448916451e-12</v>
+        <v>2.9079851062869289e-12</v>
       </c>
       <c r="Z50" s="0">
-        <v>0.98184152011954129</v>
+        <v>0.9818415201195414</v>
       </c>
       <c r="AA50" s="0">
-        <v>-1.5000000683383745</v>
+        <v>-1.5000000675549514</v>
       </c>
       <c r="AB50" s="0">
         <v>-1.8925293696850503</v>
       </c>
       <c r="AC50" s="0">
-        <v>1.5000000683383745</v>
+        <v>1.5000000675549514</v>
       </c>
     </row>
     <row r="51">
@@ -4715,7 +4802,7 @@
         <v>-1.5000001567496379</v>
       </c>
       <c r="AB51" s="0">
-        <v>-2.0083835497351577</v>
+        <v>-2.0083835497351576</v>
       </c>
       <c r="AC51" s="0">
         <v>1.5000001567496379</v>
@@ -4726,31 +4813,31 @@
         <v>5</v>
       </c>
       <c r="B52" s="0">
-        <v>1.1800210496663675</v>
+        <v>1.1800210496663677</v>
       </c>
       <c r="C52" s="0">
-        <v>1.1800210496661629</v>
+        <v>1.1800210496661627</v>
       </c>
       <c r="D52" s="0">
-        <v>1.1800210496661629</v>
+        <v>1.1800210496661627</v>
       </c>
       <c r="E52" s="0">
-        <v>-2.0907082920259903</v>
+        <v>-2.0907082919144577</v>
       </c>
       <c r="F52" s="0">
-        <v>-2.0907088341163296</v>
+        <v>-2.0907088312737949</v>
       </c>
       <c r="G52" s="0">
-        <v>-2.0907090117515463</v>
+        <v>-2.090709011268773</v>
       </c>
       <c r="H52" s="0">
         <v>-0</v>
       </c>
       <c r="I52" s="0">
-        <v>1.0719978488303926e-13</v>
+        <v>1.0722449077255352e-13</v>
       </c>
       <c r="J52" s="0">
-        <v>-1.0719978488303926e-13</v>
+        <v>-1.0722449077255352e-13</v>
       </c>
       <c r="K52" s="0">
         <v>-0</v>
@@ -4762,31 +4849,31 @@
         <v>-0</v>
       </c>
       <c r="N52" s="0">
-        <v>-1659.5320125057285</v>
+        <v>-1659.5320125057299</v>
       </c>
       <c r="O52" s="0">
-        <v>-1659.5320125035942</v>
+        <v>-1659.5320125035926</v>
       </c>
       <c r="P52" s="0">
-        <v>-1659.5320125035942</v>
+        <v>-1659.5320125035926</v>
       </c>
       <c r="Q52" s="0">
-        <v>-1.9723050520148979e-06</v>
+        <v>-1.9723050533970536e-06</v>
       </c>
       <c r="R52" s="0">
-        <v>-1.9722983342487217e-06</v>
+        <v>-1.9722983694743093e-06</v>
       </c>
       <c r="S52" s="0">
-        <v>-1.9722961329382284e-06</v>
+        <v>-1.9722961389208988e-06</v>
       </c>
       <c r="T52" s="0">
         <v>0</v>
       </c>
       <c r="U52" s="0">
-        <v>-1.1177879322553181e-09</v>
+        <v>-1.1180455442009454e-09</v>
       </c>
       <c r="V52" s="0">
-        <v>1.1177879322553181e-09</v>
+        <v>1.1180455442009454e-09</v>
       </c>
       <c r="W52" s="0">
         <v>0</v>
@@ -4798,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>1.1800210496663675</v>
+        <v>1.1800210496663677</v>
       </c>
       <c r="AA52" s="0">
         <v>-1.5000000000001072</v>
       </c>
       <c r="AB52" s="0">
-        <v>-2.0907088992318763</v>
+        <v>-2.0907088992318767</v>
       </c>
       <c r="AC52" s="0">
         <v>1.5000000000001072</v>
@@ -4818,19 +4905,19 @@
         <v>1.245263395899143</v>
       </c>
       <c r="C53" s="0">
-        <v>1.2452633958985579</v>
+        <v>1.2452633958985577</v>
       </c>
       <c r="D53" s="0">
-        <v>1.2452633958984105</v>
+        <v>1.2452633958984107</v>
       </c>
       <c r="E53" s="0">
-        <v>-2.1559502236205388</v>
+        <v>-2.1559502238202808</v>
       </c>
       <c r="F53" s="0">
-        <v>-2.1559502236205388</v>
+        <v>-2.1559502238202808</v>
       </c>
       <c r="G53" s="0">
-        <v>-2.1559512950448214</v>
+        <v>-2.1559512658561291</v>
       </c>
       <c r="H53" s="0">
         <v>-0</v>
@@ -4842,31 +4929,31 @@
         <v>-0</v>
       </c>
       <c r="K53" s="0">
-        <v>8.4854242642030809e-07</v>
+        <v>8.1224626209280498e-07</v>
       </c>
       <c r="L53" s="0">
-        <v>-8.4854242642030809e-07</v>
+        <v>-8.1224626209280498e-07</v>
       </c>
       <c r="M53" s="0">
         <v>-0</v>
       </c>
       <c r="N53" s="0">
-        <v>-2500.4366927000583</v>
+        <v>-2500.4366927000592</v>
       </c>
       <c r="O53" s="0">
-        <v>-2500.4366926908701</v>
+        <v>-2500.4366926908651</v>
       </c>
       <c r="P53" s="0">
-        <v>-2500.4366926885536</v>
+        <v>-2500.4366926885582</v>
       </c>
       <c r="Q53" s="0">
-        <v>-1.3090161046726427e-06</v>
+        <v>-1.3090161030313628e-06</v>
       </c>
       <c r="R53" s="0">
-        <v>-1.3090161046726427e-06</v>
+        <v>-1.3090161030313628e-06</v>
       </c>
       <c r="S53" s="0">
-        <v>-1.3090072924803738e-06</v>
+        <v>-1.3090075325496665e-06</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -4878,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>-6.9790839047415786e-12</v>
+        <v>-6.6805555395275007e-12</v>
       </c>
       <c r="X53" s="0">
-        <v>6.9790839047415786e-12</v>
+        <v>6.6805555395275007e-12</v>
       </c>
       <c r="Y53" s="0">
         <v>0</v>
@@ -4890,13 +4977,13 @@
         <v>1.245263395899143</v>
       </c>
       <c r="AA53" s="0">
-        <v>-1.5000008485424263</v>
+        <v>-1.500000812246262</v>
       </c>
       <c r="AB53" s="0">
         <v>-2.1559512454646521</v>
       </c>
       <c r="AC53" s="0">
-        <v>1.5000008485424263</v>
+        <v>1.500000812246262</v>
       </c>
     </row>
     <row r="54">
@@ -4940,7 +5027,7 @@
         <v>-1.8873341034260852e-06</v>
       </c>
       <c r="N54" s="0">
-        <v>-3509.2182342879492</v>
+        <v>-3509.2182342879491</v>
       </c>
       <c r="O54" s="0">
         <v>-3509.2182342866936</v>
@@ -5002,13 +5089,13 @@
         <v>1.3442807391389853</v>
       </c>
       <c r="E55" s="0">
-        <v>-2.2549689875938133</v>
+        <v>-2.2549689311219843</v>
       </c>
       <c r="F55" s="0">
-        <v>-2.2549689875938133</v>
+        <v>-2.2549689311219843</v>
       </c>
       <c r="G55" s="0">
-        <v>-2.2549706011415465</v>
+        <v>-2.254970714085561</v>
       </c>
       <c r="H55" s="0">
         <v>-0</v>
@@ -5020,10 +5107,10 @@
         <v>-0</v>
       </c>
       <c r="K55" s="0">
-        <v>8.5825052723691004e-07</v>
+        <v>7.8156274158564367e-07</v>
       </c>
       <c r="L55" s="0">
-        <v>-8.5825052723691004e-07</v>
+        <v>-7.8156274158564367e-07</v>
       </c>
       <c r="M55" s="0">
         <v>-0</v>
@@ -5038,13 +5125,13 @@
         <v>-4658.1096433360071</v>
       </c>
       <c r="Q55" s="0">
-        <v>-7.0266329734848568e-07</v>
+        <v>-7.0266354667134917e-07</v>
       </c>
       <c r="R55" s="0">
-        <v>-7.0266329734848568e-07</v>
+        <v>-7.0266354667134917e-07</v>
       </c>
       <c r="S55" s="0">
-        <v>-7.0265617364013277e-07</v>
+        <v>-7.026556750016407e-07</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -5056,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>-3.7891449282665659e-12</v>
+        <v>-3.4505723622801619e-12</v>
       </c>
       <c r="X55" s="0">
-        <v>3.7891449282665659e-12</v>
+        <v>3.4505723622801619e-12</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -5068,13 +5155,13 @@
         <v>1.3442807391393714</v>
       </c>
       <c r="AA55" s="0">
-        <v>-1.5000008582505273</v>
+        <v>-1.5000007815627416</v>
       </c>
       <c r="AB55" s="0">
         <v>-2.2549685887048803</v>
       </c>
       <c r="AC55" s="0">
-        <v>1.5000008582505273</v>
+        <v>1.5000007815627416</v>
       </c>
     </row>
     <row r="56">
@@ -5171,22 +5258,22 @@
         <v>5.5</v>
       </c>
       <c r="B57" s="0">
-        <v>1.4102868444253773</v>
+        <v>1.4102868444253771</v>
       </c>
       <c r="C57" s="0">
         <v>1.4102868444253138</v>
       </c>
       <c r="D57" s="0">
-        <v>1.4102868444199122</v>
+        <v>1.4102868444199121</v>
       </c>
       <c r="E57" s="0">
-        <v>-2.3209721136086205</v>
+        <v>-2.3209714898617362</v>
       </c>
       <c r="F57" s="0">
-        <v>-2.320973198488832</v>
+        <v>-2.3209731776603526</v>
       </c>
       <c r="G57" s="0">
-        <v>-2.3209803033152778</v>
+        <v>-2.3209809109190593</v>
       </c>
       <c r="H57" s="0">
         <v>-0</v>
@@ -5207,22 +5294,22 @@
         <v>-0</v>
       </c>
       <c r="N57" s="0">
-        <v>-7052.1906624552103</v>
+        <v>-7052.1906624552075</v>
       </c>
       <c r="O57" s="0">
-        <v>-7052.1906624523981</v>
+        <v>-7052.1906624523917</v>
       </c>
       <c r="P57" s="0">
-        <v>-7052.1906622130564</v>
+        <v>-7052.1906622130509</v>
       </c>
       <c r="Q57" s="0">
-        <v>-4.6413151721935719e-07</v>
+        <v>-4.6413333620876074e-07</v>
       </c>
       <c r="R57" s="0">
-        <v>-4.6412835347607314e-07</v>
+        <v>-4.6412841421618153e-07</v>
       </c>
       <c r="S57" s="0">
-        <v>-4.641076348120204e-07</v>
+        <v>-4.6410586299764781e-07</v>
       </c>
       <c r="T57" s="0">
         <v>0</v>
@@ -5243,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1.4102868444253773</v>
+        <v>1.4102868444253771</v>
       </c>
       <c r="AA57" s="0">
         <v>-1.5</v>
@@ -5352,85 +5439,85 @@
         <v>1.4362873623903152</v>
       </c>
       <c r="C59" s="0">
-        <v>1.436287362390086</v>
+        <v>1.4362873623900865</v>
       </c>
       <c r="D59" s="0">
-        <v>1.436287362390086</v>
+        <v>1.4362873623900865</v>
       </c>
       <c r="E59" s="0">
-        <v>-2.3469751518470243</v>
+        <v>-2.3469748805980135</v>
       </c>
       <c r="F59" s="0">
-        <v>-2.3469868971874388</v>
+        <v>-2.346987131883318</v>
       </c>
       <c r="G59" s="0">
-        <v>-2.3469868971874388</v>
+        <v>-2.346987131883318</v>
       </c>
       <c r="H59" s="0">
         <v>-0</v>
       </c>
       <c r="I59" s="0">
-        <v>2.6880915663933324e-13</v>
+        <v>2.7050117028962665e-13</v>
       </c>
       <c r="J59" s="0">
-        <v>-2.6880915663933324e-13</v>
+        <v>-2.7050117028962665e-13</v>
       </c>
       <c r="K59" s="0">
         <v>-0</v>
       </c>
       <c r="L59" s="0">
-        <v>8.6839307171395507e-06</v>
+        <v>8.9242908156893633e-06</v>
       </c>
       <c r="M59" s="0">
-        <v>-8.6839307171395507e-06</v>
+        <v>-8.9242908156893633e-06</v>
       </c>
       <c r="N59" s="0">
-        <v>-8303.7263615749634</v>
+        <v>-8303.7263615749671</v>
       </c>
       <c r="O59" s="0">
-        <v>-8303.7263615630109</v>
+        <v>-8303.7263615630218</v>
       </c>
       <c r="P59" s="0">
-        <v>-8303.7263615630109</v>
+        <v>-8303.7263615630218</v>
       </c>
       <c r="Q59" s="0">
-        <v>-3.9417148138184665e-07</v>
+        <v>-3.9417215317194903e-07</v>
       </c>
       <c r="R59" s="0">
-        <v>-3.941423927422483e-07</v>
+        <v>-3.9414181149251727e-07</v>
       </c>
       <c r="S59" s="0">
-        <v>-3.941423927422483e-07</v>
+        <v>-3.9414181149251727e-07</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
       </c>
       <c r="U59" s="0">
-        <v>-1.4024809012226138e-08</v>
+        <v>-1.4113087881101459e-08</v>
       </c>
       <c r="V59" s="0">
-        <v>1.4024809012226138e-08</v>
+        <v>1.4113087881101459e-08</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>-2.1505491241208933e-11</v>
+        <v>-2.2100703149617985e-11</v>
       </c>
       <c r="Y59" s="0">
-        <v>2.1505491241208933e-11</v>
+        <v>2.2100703149617985e-11</v>
       </c>
       <c r="Z59" s="0">
         <v>1.4362873623903152</v>
       </c>
       <c r="AA59" s="0">
-        <v>-1.5000086839307172</v>
+        <v>-1.5000089242908157</v>
       </c>
       <c r="AB59" s="0">
         <v>-2.346975211955824</v>
       </c>
       <c r="AC59" s="0">
-        <v>1.5000086839307172</v>
+        <v>1.5000089242908157</v>
       </c>
     </row>
     <row r="60">
@@ -5438,22 +5525,22 @@
         <v>5.7999999999999998</v>
       </c>
       <c r="B60" s="0">
-        <v>1.4219547038848779</v>
+        <v>1.4219547038848781</v>
       </c>
       <c r="C60" s="0">
-        <v>1.4219547038802802</v>
+        <v>1.42195470388028</v>
       </c>
       <c r="D60" s="0">
         <v>1.4219547038802074</v>
       </c>
       <c r="E60" s="0">
-        <v>-2.332581068880669</v>
+        <v>-2.3325809127203705</v>
       </c>
       <c r="F60" s="0">
-        <v>-2.3326354876309283</v>
+        <v>-2.332635822540742</v>
       </c>
       <c r="G60" s="0">
-        <v>-2.3326438296019343</v>
+        <v>-2.3326437367947559</v>
       </c>
       <c r="H60" s="0">
         <v>-0</v>
@@ -5474,22 +5561,22 @@
         <v>-0</v>
       </c>
       <c r="N60" s="0">
-        <v>-7588.6189925913022</v>
+        <v>-7588.6189925913077</v>
       </c>
       <c r="O60" s="0">
-        <v>-7588.6189923720822</v>
+        <v>-7588.6189923720804</v>
       </c>
       <c r="P60" s="0">
-        <v>-7588.6189923686152</v>
+        <v>-7588.6189923686088</v>
       </c>
       <c r="Q60" s="0">
-        <v>-4.3148240664807422e-07</v>
+        <v>-4.3148283001195613e-07</v>
       </c>
       <c r="R60" s="0">
-        <v>-4.3133489806915369e-07</v>
+        <v>-4.3133399041190106e-07</v>
       </c>
       <c r="S60" s="0">
-        <v>-4.3131229060973334e-07</v>
+        <v>-4.3131254211865716e-07</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
@@ -5510,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="Z60" s="0">
-        <v>1.4219547038848779</v>
+        <v>1.4219547038848781</v>
       </c>
       <c r="AA60" s="0">
         <v>-1.5</v>
       </c>
       <c r="AB60" s="0">
-        <v>-2.3326425534503867</v>
+        <v>-2.3326425534503872</v>
       </c>
       <c r="AC60" s="0">
         <v>1.5</v>
@@ -5530,19 +5617,19 @@
         <v>1.3600550424386089</v>
       </c>
       <c r="C61" s="0">
-        <v>1.3600550424309133</v>
+        <v>1.3600550424309132</v>
       </c>
       <c r="D61" s="0">
         <v>1.3600550424308717</v>
       </c>
       <c r="E61" s="0">
-        <v>-2.2706879826604438</v>
+        <v>-2.2706880035347354</v>
       </c>
       <c r="F61" s="0">
-        <v>-2.2707405320731544</v>
+        <v>-2.2707405260253655</v>
       </c>
       <c r="G61" s="0">
-        <v>-2.2707443324134351</v>
+        <v>-2.2707443175797337</v>
       </c>
       <c r="H61" s="0">
         <v>-0</v>
@@ -5563,22 +5650,22 @@
         <v>-0</v>
       </c>
       <c r="N61" s="0">
-        <v>-5143.442388157584</v>
+        <v>-5143.4423881575885</v>
       </c>
       <c r="O61" s="0">
-        <v>-5143.442387908889</v>
+        <v>-5143.4423879088881</v>
       </c>
       <c r="P61" s="0">
-        <v>-5143.442387907543</v>
+        <v>-5143.4423879075457</v>
       </c>
       <c r="Q61" s="0">
-        <v>-6.3658150847541642e-07</v>
+        <v>-6.3658142498327442e-07</v>
       </c>
       <c r="R61" s="0">
-        <v>-6.363713581538426e-07</v>
+        <v>-6.3637138233555878e-07</v>
       </c>
       <c r="S61" s="0">
-        <v>-6.3635616290583171e-07</v>
+        <v>-6.3635622221607162e-07</v>
       </c>
       <c r="T61" s="0">
         <v>0</v>
@@ -5605,7 +5692,7 @@
         <v>-1.5</v>
       </c>
       <c r="AB61" s="0">
-        <v>-2.270742892004118</v>
+        <v>-2.2707428920041179</v>
       </c>
       <c r="AC61" s="0">
         <v>1.5</v>
@@ -5702,7 +5789,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>6.0999999999999997</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="B63" s="0">
         <v>-2.3604011606330744</v>
@@ -5794,22 +5881,22 @@
         <v>6.1999999999999993</v>
       </c>
       <c r="B64" s="0">
-        <v>-2.5145496539632792</v>
+        <v>-2.514534304240239</v>
       </c>
       <c r="C64" s="0">
-        <v>-2.5141236136815874</v>
+        <v>-2.5141269426641926</v>
       </c>
       <c r="D64" s="0">
-        <v>-2.5140746582745179</v>
+        <v>-2.5140871602317896</v>
       </c>
       <c r="E64" s="0">
-        <v>1.6034102124969534</v>
+        <v>1.6034102124969529</v>
       </c>
       <c r="F64" s="0">
-        <v>1.6034102124969534</v>
+        <v>1.6034102124969529</v>
       </c>
       <c r="G64" s="0">
-        <v>1.6034102125006804</v>
+        <v>1.6034102125006808</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -5821,31 +5908,31 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>-6.0208091499116725e-14</v>
+        <v>-6.0087357813372015e-14</v>
       </c>
       <c r="L64" s="0">
-        <v>6.0208091499116725e-14</v>
+        <v>6.0087357813372015e-14</v>
       </c>
       <c r="M64" s="0">
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>1.3753582064915367e-07</v>
+        <v>1.3754908595227147e-07</v>
       </c>
       <c r="O64" s="0">
-        <v>1.3790448213032284e-07</v>
+        <v>1.3790159766558643e-07</v>
       </c>
       <c r="P64" s="0">
-        <v>1.3794690750744785e-07</v>
+        <v>1.3793607191179509e-07</v>
       </c>
       <c r="Q64" s="0">
-        <v>23730.667750540371</v>
+        <v>23730.667750540306</v>
       </c>
       <c r="R64" s="0">
-        <v>23730.667750540371</v>
+        <v>23730.667750540306</v>
       </c>
       <c r="S64" s="0">
-        <v>23730.667751096091</v>
+        <v>23730.667751096156</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -5857,25 +5944,25 @@
         <v>0</v>
       </c>
       <c r="W64" s="0">
-        <v>-8.9772782893378513e-09</v>
+        <v>-8.9592763917715545e-09</v>
       </c>
       <c r="X64" s="0">
-        <v>8.9772782893378513e-09</v>
+        <v>8.9592763917715545e-09</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>-2.5140980620624624</v>
+        <v>-2.514098062062462</v>
       </c>
       <c r="AA64" s="0">
-        <v>-2.0000000000000604</v>
+        <v>-2.00000000000006</v>
       </c>
       <c r="AB64" s="0">
-        <v>1.6034102124969534</v>
+        <v>1.6034102124969529</v>
       </c>
       <c r="AC64" s="0">
-        <v>2.0000000000000604</v>
+        <v>2.00000000000006</v>
       </c>
     </row>
     <row r="65">
@@ -5886,10 +5973,10 @@
         <v>-2.6204073218165398</v>
       </c>
       <c r="C65" s="0">
-        <v>-2.6202895458528111</v>
+        <v>-2.6203017338115608</v>
       </c>
       <c r="D65" s="0">
-        <v>-2.6202895458528111</v>
+        <v>-2.6203017338115608</v>
       </c>
       <c r="E65" s="0">
         <v>1.7096178333374112</v>
@@ -5904,16 +5991,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="0">
-        <v>-2.4998822563717783e-05</v>
+        <v>-2.4827617065751616e-05</v>
       </c>
       <c r="J65" s="0">
-        <v>2.4998822563717783e-05</v>
+        <v>2.4827617065751616e-05</v>
       </c>
       <c r="K65" s="0">
-        <v>-4.3380373625614575e-14</v>
+        <v>-4.3333067151929738e-14</v>
       </c>
       <c r="L65" s="0">
-        <v>4.3380373625614575e-14</v>
+        <v>4.3333067151929738e-14</v>
       </c>
       <c r="M65" s="0">
         <v>0</v>
@@ -5922,34 +6009,34 @@
         <v>7.07223080098629e-08</v>
       </c>
       <c r="O65" s="0">
-        <v>7.0774661593964819e-08</v>
+        <v>7.0769241946199175e-08</v>
       </c>
       <c r="P65" s="0">
-        <v>7.0774661593964819e-08</v>
+        <v>7.0769241946199175e-08</v>
       </c>
       <c r="Q65" s="0">
-        <v>46251.337031773408</v>
+        <v>46251.337031773401</v>
       </c>
       <c r="R65" s="0">
-        <v>46251.337031773408</v>
+        <v>46251.337031773401</v>
       </c>
       <c r="S65" s="0">
-        <v>46251.337032600808</v>
+        <v>46251.337032600823</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>-1.1116734343108167e-11</v>
+        <v>-1.1039755468428412e-11</v>
       </c>
       <c r="V65" s="0">
-        <v>1.1116734343108167e-11</v>
+        <v>1.1039755468428412e-11</v>
       </c>
       <c r="W65" s="0">
-        <v>-1.2606584766670221e-08</v>
+        <v>-1.2592837234764039e-08</v>
       </c>
       <c r="X65" s="0">
-        <v>1.2606584766670221e-08</v>
+        <v>1.2592837234764039e-08</v>
       </c>
       <c r="Y65" s="0">
         <v>0</v>
@@ -5958,13 +6045,13 @@
         <v>-2.6203056829029201</v>
       </c>
       <c r="AA65" s="0">
-        <v>-2.0000249988225636</v>
+        <v>-2.0000248276170658</v>
       </c>
       <c r="AB65" s="0">
         <v>1.7096178333374112</v>
       </c>
       <c r="AC65" s="0">
-        <v>2.0000249988225636</v>
+        <v>2.0000248276170658</v>
       </c>
     </row>
     <row r="66">
@@ -6064,28 +6151,28 @@
         <v>-2.78098345261705</v>
       </c>
       <c r="C67" s="0">
-        <v>-2.7809457763109733</v>
+        <v>-2.7808747059945009</v>
       </c>
       <c r="D67" s="0">
-        <v>-2.7809457763109733</v>
+        <v>-2.7808747059945009</v>
       </c>
       <c r="E67" s="0">
         <v>1.8698936167250937</v>
       </c>
       <c r="F67" s="0">
-        <v>1.8698936167252165</v>
+        <v>1.869893616725216</v>
       </c>
       <c r="G67" s="0">
-        <v>1.8698936167349374</v>
+        <v>1.8698936167349376</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>-0.00018415018207595252</v>
+        <v>-0.00036848608018911122</v>
       </c>
       <c r="J67" s="0">
-        <v>0.00018415018207595252</v>
+        <v>0.00036848608018911122</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -6100,28 +6187,28 @@
         <v>2.5785993784666061e-08</v>
       </c>
       <c r="O67" s="0">
-        <v>2.5792081488915444e-08</v>
+        <v>2.5803549575318161e-08</v>
       </c>
       <c r="P67" s="0">
-        <v>2.5792081488915444e-08</v>
+        <v>2.5803549575318161e-08</v>
       </c>
       <c r="Q67" s="0">
         <v>126612.69987077077</v>
       </c>
       <c r="R67" s="0">
-        <v>126612.6998708684</v>
+        <v>126612.69987086835</v>
       </c>
       <c r="S67" s="0">
-        <v>126612.69987860181</v>
+        <v>126612.69987860195</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
       </c>
       <c r="U67" s="0">
-        <v>-2.9842733939459987e-11</v>
+        <v>-5.9742196144320418e-11</v>
       </c>
       <c r="V67" s="0">
-        <v>2.9842733939459987e-11</v>
+        <v>5.9742196144320418e-11</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -6136,33 +6223,33 @@
         <v>-2.7805814662906028</v>
       </c>
       <c r="AA67" s="0">
-        <v>-2.0001841501820761</v>
+        <v>-2.0003684860801889</v>
       </c>
       <c r="AB67" s="0">
         <v>1.8698936167250937</v>
       </c>
       <c r="AC67" s="0">
-        <v>2.0001841501820761</v>
+        <v>2.0003684860801889</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>6.5999999999999997</v>
+        <v>6.5999999999999996</v>
       </c>
       <c r="B68" s="0">
-        <v>-2.8493332227015502</v>
+        <v>-2.8496608717494638</v>
       </c>
       <c r="C68" s="0">
-        <v>-2.8470891715648485</v>
+        <v>-2.8467718065042407</v>
       </c>
       <c r="D68" s="0">
-        <v>-2.8461602995831403</v>
+        <v>-2.8463082184118065</v>
       </c>
       <c r="E68" s="0">
         <v>1.9363185567563972</v>
       </c>
       <c r="F68" s="0">
-        <v>1.9363185567565402</v>
+        <v>1.9363185567565404</v>
       </c>
       <c r="G68" s="0">
         <v>1.9363185567577685</v>
@@ -6186,22 +6273,22 @@
         <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>1.6783180040318414e-08</v>
+        <v>1.6748664389065717e-08</v>
       </c>
       <c r="O68" s="0">
-        <v>1.7021495490465991e-08</v>
+        <v>1.7055471296796918e-08</v>
       </c>
       <c r="P68" s="0">
-        <v>1.7121128074206779e-08</v>
+        <v>1.7105223065831359e-08</v>
       </c>
       <c r="Q68" s="0">
-        <v>192191.64530767984</v>
+        <v>192191.64530767981</v>
       </c>
       <c r="R68" s="0">
-        <v>192191.64530785283</v>
+        <v>192191.64530785297</v>
       </c>
       <c r="S68" s="0">
-        <v>192191.64530933622</v>
+        <v>192191.64530933596</v>
       </c>
       <c r="T68" s="0">
         <v>0</v>
@@ -6239,28 +6326,28 @@
         <v>6.6999999999999993</v>
       </c>
       <c r="B69" s="0">
-        <v>-2.9090545269071706</v>
+        <v>-2.9101388368388017</v>
       </c>
       <c r="C69" s="0">
-        <v>-2.9090545269071706</v>
+        <v>-2.9076927390384339</v>
       </c>
       <c r="D69" s="0">
-        <v>-2.9009095779922416</v>
+        <v>-2.9006477258089549</v>
       </c>
       <c r="E69" s="0">
         <v>1.9969016807935536</v>
       </c>
       <c r="F69" s="0">
-        <v>1.9969016808002278</v>
+        <v>1.9969016808002273</v>
       </c>
       <c r="G69" s="0">
-        <v>1.9969016808002278</v>
+        <v>1.9969016808002273</v>
       </c>
       <c r="H69" s="0">
-        <v>-0.0010261393912009322</v>
+        <v>0</v>
       </c>
       <c r="I69" s="0">
-        <v>0.0010261393912009322</v>
+        <v>0</v>
       </c>
       <c r="J69" s="0">
         <v>0</v>
@@ -6269,34 +6356,34 @@
         <v>0</v>
       </c>
       <c r="L69" s="0">
-        <v>-2.3519859534847158e-14</v>
+        <v>-2.3522927008804934e-14</v>
       </c>
       <c r="M69" s="0">
-        <v>2.3519859534847158e-14</v>
+        <v>2.3522927008804934e-14</v>
       </c>
       <c r="N69" s="0">
-        <v>1.1531891728187293e-08</v>
+        <v>1.1453830957348262e-08</v>
       </c>
       <c r="O69" s="0">
-        <v>1.1531891728187293e-08</v>
+        <v>1.1631227898539967e-08</v>
       </c>
       <c r="P69" s="0">
-        <v>1.2137664651542611e-08</v>
+        <v>1.2157650772704871e-08</v>
       </c>
       <c r="Q69" s="0">
-        <v>281223.02045948122</v>
+        <v>281223.0204594814</v>
       </c>
       <c r="R69" s="0">
-        <v>281223.02047127404</v>
+        <v>281223.02047127392</v>
       </c>
       <c r="S69" s="0">
-        <v>281223.02047127404</v>
+        <v>281223.02047127392</v>
       </c>
       <c r="T69" s="0">
-        <v>-7.4352025126106379e-11</v>
+        <v>0</v>
       </c>
       <c r="U69" s="0">
-        <v>7.4352025126106379e-11</v>
+        <v>0</v>
       </c>
       <c r="V69" s="0">
         <v>0</v>
@@ -6305,22 +6392,22 @@
         <v>0</v>
       </c>
       <c r="X69" s="0">
-        <v>-4.1559035559647873e-08</v>
+        <v>-4.1564455713586305e-08</v>
       </c>
       <c r="Y69" s="0">
-        <v>4.1559035559647873e-08</v>
+        <v>4.1564455713586305e-08</v>
       </c>
       <c r="Z69" s="0">
         <v>-2.9075895303590626</v>
       </c>
       <c r="AA69" s="0">
-        <v>-2.0010261393912008</v>
+        <v>-2.0000000000000235</v>
       </c>
       <c r="AB69" s="0">
         <v>1.9969016807935536</v>
       </c>
       <c r="AC69" s="0">
-        <v>2.0010261393912008</v>
+        <v>2.0000000000000235</v>
       </c>
     </row>
     <row r="70">
@@ -6343,7 +6430,7 @@
         <v>2.0528462719976273</v>
       </c>
       <c r="G70" s="0">
-        <v>2.0528462720239245</v>
+        <v>2.0528462720239244</v>
       </c>
       <c r="H70" s="0">
         <v>-0.0051213084073470977</v>
@@ -6364,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="N70" s="0">
-        <v>8.1905914096299234e-09</v>
+        <v>8.1905914096299233e-09</v>
       </c>
       <c r="O70" s="0">
-        <v>8.1905914096299234e-09</v>
+        <v>8.1905914096299233e-09</v>
       </c>
       <c r="P70" s="0">
         <v>8.2427151220969339e-09</v>
@@ -6403,13 +6490,13 @@
         <v>-2.9635341215630149</v>
       </c>
       <c r="AA70" s="0">
-        <v>-2.0051213084073472</v>
+        <v>-2.0051213084073471</v>
       </c>
       <c r="AB70" s="0">
         <v>2.052846271997506</v>
       </c>
       <c r="AC70" s="0">
-        <v>2.0051213084073472</v>
+        <v>2.0051213084073471</v>
       </c>
     </row>
     <row r="71">
@@ -6417,13 +6504,13 @@
         <v>6.9000000000000004</v>
       </c>
       <c r="B71" s="0">
-        <v>-3.0502935671164062</v>
+        <v>-3.0502191720671199</v>
       </c>
       <c r="C71" s="0">
-        <v>-3.0156575449838883</v>
+        <v>-3.0156329462681306</v>
       </c>
       <c r="D71" s="0">
-        <v>-3.0081918548175737</v>
+        <v>-3.0083067881275172</v>
       </c>
       <c r="E71" s="0">
         <v>2.1049153211684701</v>
@@ -6432,7 +6519,7 @@
         <v>2.1049153211685798</v>
       </c>
       <c r="G71" s="0">
-        <v>2.1049153211736758</v>
+        <v>2.1049153211736757</v>
       </c>
       <c r="H71" s="0">
         <v>0</v>
@@ -6453,22 +6540,22 @@
         <v>0</v>
       </c>
       <c r="N71" s="0">
-        <v>4.7479175598089922e-09</v>
+        <v>4.7501374351169126e-09</v>
       </c>
       <c r="O71" s="0">
-        <v>5.9022324388976035e-09</v>
+        <v>5.9031447483478207e-09</v>
       </c>
       <c r="P71" s="0">
-        <v>6.1856925592116061e-09</v>
+        <v>6.1812271906491373e-09</v>
       </c>
       <c r="Q71" s="0">
-        <v>554361.90957402601</v>
+        <v>554361.90957402647</v>
       </c>
       <c r="R71" s="0">
-        <v>554361.90957440832</v>
+        <v>554361.9095744082</v>
       </c>
       <c r="S71" s="0">
-        <v>554361.90959215758</v>
+        <v>554361.90959215816</v>
       </c>
       <c r="T71" s="0">
         <v>0</v>
@@ -6506,13 +6593,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="0">
-        <v>-3.0789959116620911</v>
+        <v>-3.0789662261263477</v>
       </c>
       <c r="C72" s="0">
-        <v>-3.0605039415648778</v>
+        <v>-3.0625981157670101</v>
       </c>
       <c r="D72" s="0">
-        <v>-3.0555016172303304</v>
+        <v>-3.0536452533947998</v>
       </c>
       <c r="E72" s="0">
         <v>2.1536123213975875</v>
@@ -6533,31 +6620,31 @@
         <v>0</v>
       </c>
       <c r="K72" s="0">
-        <v>-5.2867775827157663e-14</v>
+        <v>-5.2935392169666919e-14</v>
       </c>
       <c r="L72" s="0">
-        <v>5.2867775827157663e-14</v>
+        <v>5.2935392169666919e-14</v>
       </c>
       <c r="M72" s="0">
         <v>0</v>
       </c>
       <c r="N72" s="0">
-        <v>3.964437441455989e-09</v>
+        <v>3.965176956190415e-09</v>
       </c>
       <c r="O72" s="0">
-        <v>4.4528860598802567e-09</v>
+        <v>4.3946783989667892e-09</v>
       </c>
       <c r="P72" s="0">
-        <v>4.595065312386636e-09</v>
+        <v>4.6489753825365972e-09</v>
       </c>
       <c r="Q72" s="0">
-        <v>752792.79416734551</v>
+        <v>752792.79416734539</v>
       </c>
       <c r="R72" s="0">
-        <v>752792.79416734551</v>
+        <v>752792.79416734539</v>
       </c>
       <c r="S72" s="0">
-        <v>752792.7942288873</v>
+        <v>752792.79422888753</v>
       </c>
       <c r="T72" s="0">
         <v>0</v>
@@ -6569,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="W72" s="0">
-        <v>-2.5006122909647485e-07</v>
+        <v>-2.5038105011126751e-07</v>
       </c>
       <c r="X72" s="0">
-        <v>2.5006122909647485e-07</v>
+        <v>2.5038105011126751e-07</v>
       </c>
       <c r="Y72" s="0">
         <v>0</v>
@@ -6592,16 +6679,16 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>7.0999999999999997</v>
+        <v>7.0999999999999996</v>
       </c>
       <c r="B73" s="0">
-        <v>-3.1846646639996288</v>
+        <v>-3.1848999369611519</v>
       </c>
       <c r="C73" s="0">
-        <v>-3.094454851807714</v>
+        <v>-3.0948187983268354</v>
       </c>
       <c r="D73" s="0">
-        <v>-3.094454851807714</v>
+        <v>-3.0948187983268354</v>
       </c>
       <c r="E73" s="0">
         <v>2.1992745686014099</v>
@@ -6616,10 +6703,10 @@
         <v>0</v>
       </c>
       <c r="I73" s="0">
-        <v>-0.0063276836024445142</v>
+        <v>-0.0063169212248283257</v>
       </c>
       <c r="J73" s="0">
-        <v>0.0063276836024445142</v>
+        <v>0.0063169212248283257</v>
       </c>
       <c r="K73" s="0">
         <v>0</v>
@@ -6631,31 +6718,31 @@
         <v>0</v>
       </c>
       <c r="N73" s="0">
-        <v>2.040974952965405e-09</v>
+        <v>2.0379600828886659e-09</v>
       </c>
       <c r="O73" s="0">
-        <v>3.5946334337853032e-09</v>
+        <v>3.5864324598292412e-09</v>
       </c>
       <c r="P73" s="0">
-        <v>3.5946334337853032e-09</v>
+        <v>3.5864324598292412e-09</v>
       </c>
       <c r="Q73" s="0">
-        <v>1002943.4213087149</v>
+        <v>1002943.4213087152</v>
       </c>
       <c r="R73" s="0">
-        <v>1002943.4213094381</v>
+        <v>1002943.4213094375</v>
       </c>
       <c r="S73" s="0">
-        <v>1002943.4219745033</v>
+        <v>1002943.4219745043</v>
       </c>
       <c r="T73" s="0">
         <v>0</v>
       </c>
       <c r="U73" s="0">
-        <v>-1.429908168821973e-10</v>
+        <v>-1.424216856947233e-10</v>
       </c>
       <c r="V73" s="0">
-        <v>1.429908168821973e-10</v>
+        <v>1.424216856947233e-10</v>
       </c>
       <c r="W73" s="0">
         <v>0</v>
@@ -6670,13 +6757,13 @@
         <v>-3.1099624181669188</v>
       </c>
       <c r="AA73" s="0">
-        <v>-2.0063276836024446</v>
+        <v>-2.0063169212248284</v>
       </c>
       <c r="AB73" s="0">
         <v>2.1992745686014099</v>
       </c>
       <c r="AC73" s="0">
-        <v>2.0063276836024446</v>
+        <v>2.0063169212248284</v>
       </c>
     </row>
     <row r="74">
@@ -6773,31 +6860,31 @@
         <v>7.2999999999999998</v>
       </c>
       <c r="B75" s="0">
-        <v>-3.1956371369691778</v>
+        <v>-3.1956803064106407</v>
       </c>
       <c r="C75" s="0">
-        <v>-3.1193756672906181</v>
+        <v>-3.1186372848989645</v>
       </c>
       <c r="D75" s="0">
-        <v>-3.1193756672906181</v>
+        <v>-3.1186372848989645</v>
       </c>
       <c r="E75" s="0">
         <v>2.2822987156702057</v>
       </c>
       <c r="F75" s="0">
-        <v>2.282298715670616</v>
+        <v>2.2822987156706165</v>
       </c>
       <c r="G75" s="0">
-        <v>2.2822987156973542</v>
+        <v>2.2822987156973547</v>
       </c>
       <c r="H75" s="0">
         <v>0</v>
       </c>
       <c r="I75" s="0">
-        <v>-0.098033076283584805</v>
+        <v>-0.098842453581497083</v>
       </c>
       <c r="J75" s="0">
-        <v>0.098033076283584805</v>
+        <v>0.098842453581497083</v>
       </c>
       <c r="K75" s="0">
         <v>0</v>
@@ -6809,31 +6896,31 @@
         <v>0</v>
       </c>
       <c r="N75" s="0">
-        <v>1.9050067099658265e-09</v>
+        <v>1.904490062968447e-09</v>
       </c>
       <c r="O75" s="0">
-        <v>2.5107415386794696e-09</v>
+        <v>2.5133045642724694e-09</v>
       </c>
       <c r="P75" s="0">
-        <v>2.5107415386794696e-09</v>
+        <v>2.5133045642724694e-09</v>
       </c>
       <c r="Q75" s="0">
-        <v>1689774.6873117134</v>
+        <v>1689774.6873117099</v>
       </c>
       <c r="R75" s="0">
-        <v>1689774.6873160701</v>
+        <v>1689774.687316071</v>
       </c>
       <c r="S75" s="0">
-        <v>1689774.6875999519</v>
+        <v>1689774.6875999542</v>
       </c>
       <c r="T75" s="0">
         <v>0</v>
       </c>
       <c r="U75" s="0">
-        <v>-1.777171755223904e-09</v>
+        <v>-1.7982404363170351e-09</v>
       </c>
       <c r="V75" s="0">
-        <v>1.777171755223904e-09</v>
+        <v>1.7982404363170351e-09</v>
       </c>
       <c r="W75" s="0">
         <v>0</v>
@@ -6848,13 +6935,13 @@
         <v>-3.1929865652357146</v>
       </c>
       <c r="AA75" s="0">
-        <v>-2.0980330762835848</v>
+        <v>-2.0988424535814971</v>
       </c>
       <c r="AB75" s="0">
         <v>2.2822987156702057</v>
       </c>
       <c r="AC75" s="0">
-        <v>2.0980330762835848</v>
+        <v>2.0988424535814971</v>
       </c>
     </row>
     <row r="76">
@@ -6871,7 +6958,7 @@
         <v>-3.1216011419679441</v>
       </c>
       <c r="E76" s="0">
-        <v>2.3198640979801049</v>
+        <v>2.3198640979801048</v>
       </c>
       <c r="F76" s="0">
         <v>2.3198640980318368</v>
@@ -6940,7 +7027,7 @@
         <v>-2.0000000000000671</v>
       </c>
       <c r="AB76" s="0">
-        <v>2.3198640979801049</v>
+        <v>2.3198640979801048</v>
       </c>
       <c r="AC76" s="0">
         <v>2.0000000000000671</v>
@@ -7037,19 +7124,19 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>7.5999999999999997</v>
+        <v>7.5999999999999996</v>
       </c>
       <c r="B78" s="0">
         <v>-3.6569412377656132</v>
       </c>
       <c r="C78" s="0">
-        <v>-3.7088772113225042</v>
+        <v>-3.7088772113225041</v>
       </c>
       <c r="D78" s="0">
         <v>-2.9779322151885346</v>
       </c>
       <c r="E78" s="0">
-        <v>2.3871242477374604</v>
+        <v>2.3871242477374603</v>
       </c>
       <c r="F78" s="0">
         <v>2.3871242478936368</v>
@@ -7118,7 +7205,7 @@
         <v>-2</v>
       </c>
       <c r="AB78" s="0">
-        <v>2.3871242477374604</v>
+        <v>2.3871242477374603</v>
       </c>
       <c r="AC78" s="0">
         <v>2</v>
@@ -7150,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="I79" s="0">
-        <v>-0.095713209621855186</v>
+        <v>-0.095713209621855144</v>
       </c>
       <c r="J79" s="0">
-        <v>0.095713209621855186</v>
+        <v>0.095713209621855144</v>
       </c>
       <c r="K79" s="0">
         <v>0</v>
@@ -7168,10 +7255,10 @@
         <v>1.7999318235474629e-10</v>
       </c>
       <c r="O79" s="0">
-        <v>2.096092154589769e-09</v>
+        <v>2.0960921545897686e-09</v>
       </c>
       <c r="P79" s="0">
-        <v>2.096092154589769e-09</v>
+        <v>2.0960921545897686e-09</v>
       </c>
       <c r="Q79" s="0">
         <v>3930091.1397775635</v>
@@ -7186,10 +7273,10 @@
         <v>0</v>
       </c>
       <c r="U79" s="0">
-        <v>-1.4382760996977469e-09</v>
+        <v>-1.4382760996977461e-09</v>
       </c>
       <c r="V79" s="0">
-        <v>1.4382760996977469e-09</v>
+        <v>1.4382760996977461e-09</v>
       </c>
       <c r="W79" s="0">
         <v>0</v>
@@ -7204,13 +7291,13 @@
         <v>-3.3273240670282007</v>
       </c>
       <c r="AA79" s="0">
-        <v>-2.0957132096218554</v>
+        <v>-2.0957132096218549</v>
       </c>
       <c r="AB79" s="0">
         <v>2.4166362174626919</v>
       </c>
       <c r="AC79" s="0">
-        <v>2.0957132096218554</v>
+        <v>2.0957132096218549</v>
       </c>
     </row>
     <row r="80">
@@ -7227,10 +7314,10 @@
         <v>-3.0744761121859567</v>
       </c>
       <c r="E80" s="0">
-        <v>2.4431533501256118</v>
+        <v>2.4431533501256117</v>
       </c>
       <c r="F80" s="0">
-        <v>2.4431533501256118</v>
+        <v>2.4431533501256117</v>
       </c>
       <c r="G80" s="0">
         <v>2.4431533506805385</v>
@@ -7296,7 +7383,7 @@
         <v>-2.171329185717414</v>
       </c>
       <c r="AB80" s="0">
-        <v>2.4431533501256118</v>
+        <v>2.4431533501256117</v>
       </c>
       <c r="AC80" s="0">
         <v>2.171329185717414</v>
@@ -7307,13 +7394,13 @@
         <v>7.9000000000000004</v>
       </c>
       <c r="B81" s="0">
-        <v>-3.2084786868737618</v>
+        <v>-3.2042408525265507</v>
       </c>
       <c r="C81" s="0">
-        <v>-3.4472995091389098</v>
+        <v>-3.4429250476193705</v>
       </c>
       <c r="D81" s="0">
-        <v>-3.0560907252817913</v>
+        <v>-3.0540753010436799</v>
       </c>
       <c r="E81" s="0">
         <v>2.4663594895985193</v>
@@ -7343,19 +7430,19 @@
         <v>0</v>
       </c>
       <c r="N81" s="0">
-        <v>-1.7573371724962196e-09</v>
+        <v>-1.804758506979641e-09</v>
       </c>
       <c r="O81" s="0">
-        <v>-3.9189717262960796e-10</v>
+        <v>-4.0281807894037501e-10</v>
       </c>
       <c r="P81" s="0">
-        <v>4.5780882322673898e-09</v>
+        <v>4.6364304861746166e-09</v>
       </c>
       <c r="Q81" s="0">
-        <v>5371370.8179432722</v>
+        <v>5371370.8179432647</v>
       </c>
       <c r="R81" s="0">
-        <v>5371370.8179671597</v>
+        <v>5371370.8179671578</v>
       </c>
       <c r="S81" s="0">
         <v>5371370.818591767</v>
@@ -7482,16 +7569,16 @@
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>8.0999999999999997</v>
+        <v>8.0999999999999996</v>
       </c>
       <c r="B83" s="0">
-        <v>-2.9062175273192192</v>
+        <v>-2.9096585785158018</v>
       </c>
       <c r="C83" s="0">
-        <v>-3.1802869723668854</v>
+        <v>-3.1775205177912902</v>
       </c>
       <c r="D83" s="0">
-        <v>-3.1802869723668854</v>
+        <v>-3.1775205177912902</v>
       </c>
       <c r="E83" s="0">
         <v>2.5007167751364032</v>
@@ -7506,10 +7593,10 @@
         <v>-0</v>
       </c>
       <c r="I83" s="0">
-        <v>-0.03780877878415681</v>
+        <v>-0.073102041846176455</v>
       </c>
       <c r="J83" s="0">
-        <v>0.03780877878415681</v>
+        <v>0.073102041846176455</v>
       </c>
       <c r="K83" s="0">
         <v>0</v>
@@ -7521,31 +7608,31 @@
         <v>0</v>
       </c>
       <c r="N83" s="0">
-        <v>-1.1739539277748246e-08</v>
+        <v>-1.1488445687914502e-08</v>
       </c>
       <c r="O83" s="0">
-        <v>2.0389739544426804e-09</v>
+        <v>1.9134331227427087e-09</v>
       </c>
       <c r="P83" s="0">
-        <v>2.0389739544426804e-09</v>
+        <v>1.9134331227427087e-09</v>
       </c>
       <c r="Q83" s="0">
-        <v>6665575.7966222838</v>
+        <v>6665575.7966222782</v>
       </c>
       <c r="R83" s="0">
-        <v>6665575.8001222871</v>
+        <v>6665575.8001222936</v>
       </c>
       <c r="S83" s="0">
-        <v>6665575.8002524935</v>
+        <v>6665575.8002524888</v>
       </c>
       <c r="T83" s="0">
         <v>0</v>
       </c>
       <c r="U83" s="0">
-        <v>-4.9370014036686646e-10</v>
+        <v>-9.4637304518582357e-10</v>
       </c>
       <c r="V83" s="0">
-        <v>4.9370014036686646e-10</v>
+        <v>9.4637304518582357e-10</v>
       </c>
       <c r="W83" s="0">
         <v>0</v>
@@ -7560,13 +7647,13 @@
         <v>-3.4114046247019121</v>
       </c>
       <c r="AA83" s="0">
-        <v>-2.0378087787841568</v>
+        <v>-2.0731020418461763</v>
       </c>
       <c r="AB83" s="0">
         <v>2.5007167751364032</v>
       </c>
       <c r="AC83" s="0">
-        <v>2.0378087787841568</v>
+        <v>2.0731020418461763</v>
       </c>
     </row>
     <row r="84">
@@ -7841,16 +7928,16 @@
         <v>8.5</v>
       </c>
       <c r="B87" s="0">
-        <v>-2.8690151282522614</v>
+        <v>-2.8681390104921012</v>
       </c>
       <c r="C87" s="0">
         <v>-3.3095340022897739</v>
       </c>
       <c r="D87" s="0">
-        <v>-3.1266159899109463</v>
+        <v>-3.1281515802155719</v>
       </c>
       <c r="E87" s="0">
-        <v>2.4761351975956494</v>
+        <v>2.4761351975956489</v>
       </c>
       <c r="F87" s="0">
         <v>2.4761351997201375</v>
@@ -7871,28 +7958,28 @@
         <v>0</v>
       </c>
       <c r="L87" s="0">
-        <v>-8.8063918537493303e-13</v>
+        <v>-8.8058826224276742e-13</v>
       </c>
       <c r="M87" s="0">
-        <v>8.8063918537493303e-13</v>
+        <v>8.8058826224276742e-13</v>
       </c>
       <c r="N87" s="0">
-        <v>-1.4830889543217011e-08</v>
+        <v>-1.4912755898455878e-08</v>
       </c>
       <c r="O87" s="0">
         <v>9.3132257461547852e-10</v>
       </c>
       <c r="P87" s="0">
-        <v>2.9392609962823661e-09</v>
+        <v>2.9110382063742196e-09</v>
       </c>
       <c r="Q87" s="0">
-        <v>5711637.3516153963</v>
+        <v>5711637.3516153945</v>
       </c>
       <c r="R87" s="0">
-        <v>5711637.4278574903</v>
+        <v>5711637.4278574893</v>
       </c>
       <c r="S87" s="0">
-        <v>5711637.4278574903</v>
+        <v>5711637.4278574893</v>
       </c>
       <c r="T87" s="0">
         <v>0</v>
@@ -7907,19 +7994,19 @@
         <v>0</v>
       </c>
       <c r="X87" s="0">
-        <v>-3.1603741824852789e-05</v>
+        <v>-3.1601914332335299e-05</v>
       </c>
       <c r="Y87" s="0">
-        <v>3.1603741824852789e-05</v>
+        <v>3.1601914332335299e-05</v>
       </c>
       <c r="Z87" s="0">
-        <v>-3.3868230471611582</v>
+        <v>-3.3868230471611578</v>
       </c>
       <c r="AA87" s="0">
         <v>-2.0000000000008806</v>
       </c>
       <c r="AB87" s="0">
-        <v>2.4761351975956494</v>
+        <v>2.4761351975956489</v>
       </c>
       <c r="AC87" s="0">
         <v>2.0000000000008806</v>
@@ -7927,16 +8014,16 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>8.5999999999999997</v>
+        <v>8.5999999999999996</v>
       </c>
       <c r="B88" s="0">
-        <v>-2.8433085249062873</v>
+        <v>-2.8448205484885261</v>
       </c>
       <c r="C88" s="0">
-        <v>-3.325664754239114</v>
+        <v>-3.3281121000148519</v>
       </c>
       <c r="D88" s="0">
-        <v>-2.6331361934019348</v>
+        <v>-2.6335070998028298</v>
       </c>
       <c r="E88" s="0">
         <v>2.4101281143053406</v>
@@ -7966,22 +8053,22 @@
         <v>0</v>
       </c>
       <c r="N88" s="0">
-        <v>-1.7430673332943827e-08</v>
+        <v>-1.7265860410261883e-08</v>
       </c>
       <c r="O88" s="0">
-        <v>8.4155653543212402e-10</v>
+        <v>8.2871480122269899e-10</v>
       </c>
       <c r="P88" s="0">
-        <v>6.5286364072550003e-08</v>
+        <v>6.5134393072462771e-08</v>
       </c>
       <c r="Q88" s="0">
         <v>3772624.8212619983</v>
       </c>
       <c r="R88" s="0">
-        <v>3772624.9848113824</v>
+        <v>3772624.9848113819</v>
       </c>
       <c r="S88" s="0">
-        <v>3772624.9848179277</v>
+        <v>3772624.9848179286</v>
       </c>
       <c r="T88" s="0">
         <v>0</v>
@@ -8108,22 +8195,22 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B90" s="0">
-        <v>2.4099167444763423</v>
+        <v>2.4099167444763419</v>
       </c>
       <c r="C90" s="0">
-        <v>2.4099167435864986</v>
+        <v>2.4099167435864977</v>
       </c>
       <c r="D90" s="0">
-        <v>2.4099167435789361</v>
+        <v>2.4099167435789375</v>
       </c>
       <c r="E90" s="0">
-        <v>-3.152699326625962</v>
+        <v>-3.1519475407061255</v>
       </c>
       <c r="F90" s="0">
-        <v>-2.6465270091638136</v>
+        <v>-2.6458068545078581</v>
       </c>
       <c r="G90" s="0">
-        <v>-2.6465270091638136</v>
+        <v>-2.6458068545078581</v>
       </c>
       <c r="H90" s="0">
         <v>-0</v>
@@ -8138,28 +8225,28 @@
         <v>0</v>
       </c>
       <c r="L90" s="0">
-        <v>-0.078210222364993587</v>
+        <v>-0.079435362574666879</v>
       </c>
       <c r="M90" s="0">
-        <v>0.078210222364993587</v>
+        <v>0.079435362574666879</v>
       </c>
       <c r="N90" s="0">
-        <v>-3767617.8150973339</v>
+        <v>-3767617.815097332</v>
       </c>
       <c r="O90" s="0">
-        <v>-3767617.7940323851</v>
+        <v>-3767617.7940323562</v>
       </c>
       <c r="P90" s="0">
-        <v>-3767617.7938533612</v>
+        <v>-3767617.7938533933</v>
       </c>
       <c r="Q90" s="0">
-        <v>2.4949576370852658e-09</v>
+        <v>2.5067707227836595e-09</v>
       </c>
       <c r="R90" s="0">
-        <v>5.29160832363488e-08</v>
+        <v>5.2935496069349449e-08</v>
       </c>
       <c r="S90" s="0">
-        <v>5.29160832363488e-08</v>
+        <v>5.2935496069349449e-08</v>
       </c>
       <c r="T90" s="0">
         <v>0</v>
@@ -8174,22 +8261,22 @@
         <v>0</v>
       </c>
       <c r="X90" s="0">
-        <v>-2.83206763904482e-08</v>
+        <v>-2.8857450912350334e-08</v>
       </c>
       <c r="Y90" s="0">
-        <v>2.83206763904482e-08</v>
+        <v>2.8857450912350334e-08</v>
       </c>
       <c r="Z90" s="0">
-        <v>2.4099167444763423</v>
+        <v>2.4099167444763419</v>
       </c>
       <c r="AA90" s="0">
-        <v>-2.5782102223649934</v>
+        <v>-2.5794353625746669</v>
       </c>
       <c r="AB90" s="0">
-        <v>-3.3206045940418512</v>
+        <v>-3.3206045940418507</v>
       </c>
       <c r="AC90" s="0">
-        <v>2.5782102223649934</v>
+        <v>2.5794353625746669</v>
       </c>
     </row>
     <row r="91">
@@ -8206,13 +8293,13 @@
         <v>2.5632663817830386</v>
       </c>
       <c r="E91" s="0">
-        <v>-2.5906956977312161</v>
+        <v>-2.5923315132729732</v>
       </c>
       <c r="F91" s="0">
-        <v>-2.9249653391188559</v>
+        <v>-2.909594677613295</v>
       </c>
       <c r="G91" s="0">
-        <v>-2.9249653391188559</v>
+        <v>-2.909594677613295</v>
       </c>
       <c r="H91" s="0">
         <v>-0</v>
@@ -8227,10 +8314,10 @@
         <v>-0</v>
       </c>
       <c r="L91" s="0">
-        <v>-0.15133589255648625</v>
+        <v>-0.16858067120781475</v>
       </c>
       <c r="M91" s="0">
-        <v>0.15133589255648625</v>
+        <v>0.16858067120781475</v>
       </c>
       <c r="N91" s="0">
         <v>-9874613.7280138358</v>
@@ -8242,13 +8329,13 @@
         <v>-9874612.9041813742</v>
       </c>
       <c r="Q91" s="0">
-        <v>-8.5237774102206608e-08</v>
+        <v>-8.4366175867379541e-08</v>
       </c>
       <c r="R91" s="0">
-        <v>6.0624702071536376e-09</v>
+        <v>5.6264183510406027e-09</v>
       </c>
       <c r="S91" s="0">
-        <v>6.0624702071536376e-09</v>
+        <v>5.6264183510406027e-09</v>
       </c>
       <c r="T91" s="0">
         <v>0</v>
@@ -8263,22 +8350,22 @@
         <v>0</v>
       </c>
       <c r="X91" s="0">
-        <v>-8.4932861397228034e-09</v>
+        <v>-1.0021667885522806e-08</v>
       </c>
       <c r="Y91" s="0">
-        <v>8.4932861397228034e-09</v>
+        <v>1.0021667885522806e-08</v>
       </c>
       <c r="Z91" s="0">
         <v>2.56326639506123</v>
       </c>
       <c r="AA91" s="0">
-        <v>-2.6513358925564861</v>
+        <v>-2.6685806712078146</v>
       </c>
       <c r="AB91" s="0">
         <v>-3.4739542446267389</v>
       </c>
       <c r="AC91" s="0">
-        <v>2.6513358925564861</v>
+        <v>2.6685806712078146</v>
       </c>
     </row>
     <row r="92">
@@ -8286,22 +8373,22 @@
         <v>9</v>
       </c>
       <c r="B92" s="0">
-        <v>2.6571850492901046</v>
+        <v>2.657185049290105</v>
       </c>
       <c r="C92" s="0">
-        <v>2.6571850492782057</v>
+        <v>2.6571850492782065</v>
       </c>
       <c r="D92" s="0">
-        <v>2.6571850487064288</v>
+        <v>2.6571850487064279</v>
       </c>
       <c r="E92" s="0">
-        <v>-2.6334227047178778</v>
+        <v>-2.6127389889162851</v>
       </c>
       <c r="F92" s="0">
-        <v>-3.0625009064301474</v>
+        <v>-3.0389047294864158</v>
       </c>
       <c r="G92" s="0">
-        <v>-2.6703650305600664</v>
+        <v>-2.6475811680283932</v>
       </c>
       <c r="H92" s="0">
         <v>-0</v>
@@ -8322,22 +8409,22 @@
         <v>0</v>
       </c>
       <c r="N92" s="0">
-        <v>-17815618.247073531</v>
+        <v>-17815618.247073572</v>
       </c>
       <c r="O92" s="0">
-        <v>-17815618.245741569</v>
+        <v>-17815618.24574168</v>
       </c>
       <c r="P92" s="0">
-        <v>-17815618.18173758</v>
+        <v>-17815618.181737453</v>
       </c>
       <c r="Q92" s="0">
-        <v>-6.5168941043392906e-08</v>
+        <v>-7.4213242922463463e-08</v>
       </c>
       <c r="R92" s="0">
-        <v>4.397363419336416e-09</v>
+        <v>5.1001211314799901e-09</v>
       </c>
       <c r="S92" s="0">
-        <v>5.1669492077413182e-08</v>
+        <v>5.9621887251790182e-08</v>
       </c>
       <c r="T92" s="0">
         <v>0</v>
@@ -8358,13 +8445,13 @@
         <v>0</v>
       </c>
       <c r="Z92" s="0">
-        <v>2.6571850492901046</v>
+        <v>2.657185049290105</v>
       </c>
       <c r="AA92" s="0">
         <v>-2.5</v>
       </c>
       <c r="AB92" s="0">
-        <v>-3.5678728988556134</v>
+        <v>-3.5678728988556139</v>
       </c>
       <c r="AC92" s="0">
         <v>2.5</v>
@@ -8372,25 +8459,25 @@
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>9.0999999999999997</v>
+        <v>9.0999999999999996</v>
       </c>
       <c r="B93" s="0">
         <v>2.7272776893213981</v>
       </c>
       <c r="C93" s="0">
-        <v>2.7272776893192181</v>
+        <v>2.7272776893192177</v>
       </c>
       <c r="D93" s="0">
         <v>2.7272776834496999</v>
       </c>
       <c r="E93" s="0">
-        <v>-2.9776467475565185</v>
+        <v>-2.9689447738824222</v>
       </c>
       <c r="F93" s="0">
-        <v>-2.57833738983852</v>
+        <v>-2.5740601495535875</v>
       </c>
       <c r="G93" s="0">
-        <v>-2.57833738983852</v>
+        <v>-2.5740601495535875</v>
       </c>
       <c r="H93" s="0">
         <v>-0</v>
@@ -8405,28 +8492,28 @@
         <v>0</v>
       </c>
       <c r="L93" s="0">
-        <v>-0.19472503972348257</v>
+        <v>-0.19478679867384954</v>
       </c>
       <c r="M93" s="0">
-        <v>0.19472503972348257</v>
+        <v>0.19478679867384954</v>
       </c>
       <c r="N93" s="0">
-        <v>-27673645.883864105</v>
+        <v>-27673645.883864101</v>
       </c>
       <c r="O93" s="0">
-        <v>-27673645.883485079</v>
+        <v>-27673645.883485064</v>
       </c>
       <c r="P93" s="0">
-        <v>-27673644.862901248</v>
+        <v>-27673644.862901233</v>
       </c>
       <c r="Q93" s="0">
-        <v>7.4944259887282308e-09</v>
+        <v>7.9156012662439601e-09</v>
       </c>
       <c r="R93" s="0">
-        <v>3.1354298386367342e-08</v>
+        <v>3.2173830161050662e-08</v>
       </c>
       <c r="S93" s="0">
-        <v>3.1354298386367342e-08</v>
+        <v>3.2173830161050662e-08</v>
       </c>
       <c r="T93" s="0">
         <v>0</v>
@@ -8441,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="X93" s="0">
-        <v>-8.6620084191440171e-08</v>
+        <v>-8.8992026668729106e-08</v>
       </c>
       <c r="Y93" s="0">
-        <v>8.6620084191440171e-08</v>
+        <v>8.8992026668729106e-08</v>
       </c>
       <c r="Z93" s="0">
         <v>2.7272776893213981</v>
       </c>
       <c r="AA93" s="0">
-        <v>-2.6947250397234828</v>
+        <v>-2.6947867986738494</v>
       </c>
       <c r="AB93" s="0">
         <v>-3.637965538886907</v>
       </c>
       <c r="AC93" s="0">
-        <v>2.6947250397234828</v>
+        <v>2.6947867986738494</v>
       </c>
     </row>
     <row r="94">
@@ -8513,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="S94" s="0">
-        <v>9.2937863271491994e-08</v>
+        <v>9.2937863271492007e-08</v>
       </c>
       <c r="T94" s="0">
         <v>0</v>
@@ -8551,7 +8638,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B95" s="0">
-        <v>2.828826662812546</v>
+        <v>2.8288266628125469</v>
       </c>
       <c r="C95" s="0">
         <v>2.8288266614495949</v>
@@ -8560,79 +8647,79 @@
         <v>2.8288266614495949</v>
       </c>
       <c r="E95" s="0">
-        <v>-2.9093835159399588</v>
+        <v>-2.8107677903571369</v>
       </c>
       <c r="F95" s="0">
-        <v>-2.9093835159399588</v>
+        <v>-2.8107677903571369</v>
       </c>
       <c r="G95" s="0">
-        <v>-2.4063539754361543</v>
+        <v>-2.4034047749523628</v>
       </c>
       <c r="H95" s="0">
         <v>-0</v>
       </c>
       <c r="I95" s="0">
-        <v>1.3466689621601911e-12</v>
+        <v>1.3474622795651538e-12</v>
       </c>
       <c r="J95" s="0">
-        <v>-1.3466689621601911e-12</v>
+        <v>-1.3474622795651538e-12</v>
       </c>
       <c r="K95" s="0">
-        <v>-0.14473995446833771</v>
+        <v>-0.17780580562946566</v>
       </c>
       <c r="L95" s="0">
-        <v>0.14473995446833771</v>
+        <v>0.17780580562946566</v>
       </c>
       <c r="M95" s="0">
         <v>0</v>
       </c>
       <c r="N95" s="0">
-        <v>-52380352.377044648</v>
+        <v>-52380352.377044871</v>
       </c>
       <c r="O95" s="0">
-        <v>-52380351.928476378</v>
+        <v>-52380351.928476334</v>
       </c>
       <c r="P95" s="0">
-        <v>-52380351.928476378</v>
+        <v>-52380351.928476334</v>
       </c>
       <c r="Q95" s="0">
-        <v>7.0683776072157823e-09</v>
+        <v>9.3711933483984985e-09</v>
       </c>
       <c r="R95" s="0">
-        <v>7.0683776072157823e-09</v>
+        <v>9.3711933483984985e-09</v>
       </c>
       <c r="S95" s="0">
-        <v>2.714282670252806e-07</v>
+        <v>2.7650482408175001e-07</v>
       </c>
       <c r="T95" s="0">
         <v>0</v>
       </c>
       <c r="U95" s="0">
-        <v>-0.00044320957174655859</v>
+        <v>-0.00044347066476733196</v>
       </c>
       <c r="V95" s="0">
-        <v>0.00044320957174655859</v>
+        <v>0.00044347066476733196</v>
       </c>
       <c r="W95" s="0">
-        <v>-9.0818181419109435e-09</v>
+        <v>-1.922238459931735e-08</v>
       </c>
       <c r="X95" s="0">
-        <v>9.0818181419109435e-09</v>
+        <v>1.922238459931735e-08</v>
       </c>
       <c r="Y95" s="0">
         <v>0</v>
       </c>
       <c r="Z95" s="0">
-        <v>2.828826662812546</v>
+        <v>2.8288266628125469</v>
       </c>
       <c r="AA95" s="0">
-        <v>-2.6447399544683377</v>
+        <v>-2.6778058056294656</v>
       </c>
       <c r="AB95" s="0">
-        <v>-3.7395145123780549</v>
+        <v>-3.7395145123780558</v>
       </c>
       <c r="AC95" s="0">
-        <v>2.6447399544683377</v>
+        <v>2.6778058056294656</v>
       </c>
     </row>
     <row r="96">
@@ -8649,13 +8736,13 @@
         <v>2.8653978161197848</v>
       </c>
       <c r="E96" s="0">
-        <v>-2.5772620686348335</v>
+        <v>-2.5791506316709443</v>
       </c>
       <c r="F96" s="0">
-        <v>-2.7510345380806478</v>
+        <v>-2.7511903125986419</v>
       </c>
       <c r="G96" s="0">
-        <v>-2.7510345380806478</v>
+        <v>-2.7511903125986419</v>
       </c>
       <c r="H96" s="0">
         <v>-0</v>
@@ -8670,28 +8757,28 @@
         <v>-0</v>
       </c>
       <c r="L96" s="0">
-        <v>-0.0089136976809565723</v>
+        <v>-0.01245219617510619</v>
       </c>
       <c r="M96" s="0">
-        <v>0.0089136976809565723</v>
+        <v>0.01245219617510619</v>
       </c>
       <c r="N96" s="0">
         <v>-65911630.872779429</v>
       </c>
       <c r="O96" s="0">
-        <v>-65911629.60989622</v>
+        <v>-65911629.60989625</v>
       </c>
       <c r="P96" s="0">
-        <v>-65911629.607946537</v>
+        <v>-65911629.607946545</v>
       </c>
       <c r="Q96" s="0">
-        <v>-9.2744710902239426e-08</v>
+        <v>-9.165068817886772e-08</v>
       </c>
       <c r="R96" s="0">
-        <v>3.1076032655346298e-08</v>
+        <v>3.0999263730765658e-08</v>
       </c>
       <c r="S96" s="0">
-        <v>3.1076032655346298e-08</v>
+        <v>3.0999263730765658e-08</v>
       </c>
       <c r="T96" s="0">
         <v>0</v>
@@ -8706,22 +8793,22 @@
         <v>0</v>
       </c>
       <c r="X96" s="0">
-        <v>-1.7422792205878069e-09</v>
+        <v>-2.4303265676181508e-09</v>
       </c>
       <c r="Y96" s="0">
-        <v>1.7422792205878069e-09</v>
+        <v>2.4303265676181508e-09</v>
       </c>
       <c r="Z96" s="0">
         <v>2.8653978191739409</v>
       </c>
       <c r="AA96" s="0">
-        <v>-2.5089136976809567</v>
+        <v>-2.5124521961751061</v>
       </c>
       <c r="AB96" s="0">
         <v>-3.7760856687394497</v>
       </c>
       <c r="AC96" s="0">
-        <v>2.5089136976809567</v>
+        <v>2.5124521961751061</v>
       </c>
     </row>
     <row r="97">
@@ -8738,13 +8825,13 @@
         <v>2.8929324476966696</v>
       </c>
       <c r="E97" s="0">
-        <v>-2.5348424072926203</v>
+        <v>-2.5328207508394458</v>
       </c>
       <c r="F97" s="0">
-        <v>-2.7452437814682553</v>
+        <v>-2.7367177829428924</v>
       </c>
       <c r="G97" s="0">
-        <v>-2.7452437814682553</v>
+        <v>-2.7367177829428924</v>
       </c>
       <c r="H97" s="0">
         <v>-0</v>
@@ -8759,28 +8846,28 @@
         <v>-0</v>
       </c>
       <c r="L97" s="0">
-        <v>-0.17931765732874144</v>
+        <v>-0.17844573713684697</v>
       </c>
       <c r="M97" s="0">
-        <v>0.17931765732874144</v>
+        <v>0.17844573713684697</v>
       </c>
       <c r="N97" s="0">
-        <v>-78360513.989291459</v>
+        <v>-78360513.98929143</v>
       </c>
       <c r="O97" s="0">
-        <v>-78360509.263362467</v>
+        <v>-78360509.263362542</v>
       </c>
       <c r="P97" s="0">
-        <v>-78360509.262525067</v>
+        <v>-78360509.262525007</v>
       </c>
       <c r="Q97" s="0">
-        <v>-1.2107149845755719e-07</v>
+        <v>-1.2261921121479553e-07</v>
       </c>
       <c r="R97" s="0">
-        <v>1.3868455028173803e-08</v>
+        <v>1.4799900724279511e-08</v>
       </c>
       <c r="S97" s="0">
-        <v>1.3868455028173803e-08</v>
+        <v>1.4799900724279511e-08</v>
       </c>
       <c r="T97" s="0">
         <v>0</v>
@@ -8795,30 +8882,30 @@
         <v>0</v>
       </c>
       <c r="X97" s="0">
-        <v>-2.9146950836680577e-08</v>
+        <v>-3.0670325597294941e-08</v>
       </c>
       <c r="Y97" s="0">
-        <v>2.9146950836680577e-08</v>
+        <v>3.0670325597294941e-08</v>
       </c>
       <c r="Z97" s="0">
         <v>2.8929324572970181</v>
       </c>
       <c r="AA97" s="0">
-        <v>-2.6793176573287414</v>
+        <v>-2.6784457371368471</v>
       </c>
       <c r="AB97" s="0">
         <v>-3.8036203068625269</v>
       </c>
       <c r="AC97" s="0">
-        <v>2.6793176573287414</v>
+        <v>2.6784457371368471</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>9.5999999999999997</v>
+        <v>9.5999999999999996</v>
       </c>
       <c r="B98" s="0">
-        <v>2.9099695507457315</v>
+        <v>2.909969550745731</v>
       </c>
       <c r="C98" s="0">
         <v>2.9099695507394698</v>
@@ -8827,13 +8914,13 @@
         <v>2.9099695447697922</v>
       </c>
       <c r="E98" s="0">
-        <v>-2.2582052938914901</v>
+        <v>-2.2568026971280832</v>
       </c>
       <c r="F98" s="0">
-        <v>-2.7352827170670984</v>
+        <v>-2.7151724601614764</v>
       </c>
       <c r="G98" s="0">
-        <v>-2.8086451698655255</v>
+        <v>-2.8744571614045702</v>
       </c>
       <c r="H98" s="0">
         <v>-0</v>
@@ -8854,22 +8941,22 @@
         <v>-0</v>
       </c>
       <c r="N98" s="0">
-        <v>-87214217.959787071</v>
+        <v>-87214217.959786892</v>
       </c>
       <c r="O98" s="0">
-        <v>-87214217.95635581</v>
+        <v>-87214217.956355751</v>
       </c>
       <c r="P98" s="0">
-        <v>-87214214.685073286</v>
+        <v>-87214214.685073301</v>
       </c>
       <c r="Q98" s="0">
-        <v>-6.8851941294671132e-07</v>
+        <v>-6.9461399552387477e-07</v>
       </c>
       <c r="R98" s="0">
-        <v>-3.436290563785163e-08</v>
+        <v>-3.8991127833513619e-08</v>
       </c>
       <c r="S98" s="0">
-        <v>-2.1672144504688657e-08</v>
+        <v>-1.4332344471600798e-08</v>
       </c>
       <c r="T98" s="0">
         <v>0</v>
@@ -8890,13 +8977,13 @@
         <v>0</v>
       </c>
       <c r="Z98" s="0">
-        <v>2.9099695507457315</v>
+        <v>2.909969550745731</v>
       </c>
       <c r="AA98" s="0">
         <v>-2.5</v>
       </c>
       <c r="AB98" s="0">
-        <v>-3.8206574003112403</v>
+        <v>-3.8206574003112399</v>
       </c>
       <c r="AC98" s="0">
         <v>2.5</v>
@@ -8916,13 +9003,13 @@
         <v>2.9126258833756218</v>
       </c>
       <c r="E99" s="0">
-        <v>-2.2279630459684352</v>
+        <v>-2.2262515843159263</v>
       </c>
       <c r="F99" s="0">
-        <v>-2.702426996388537</v>
+        <v>-2.7393615968069813</v>
       </c>
       <c r="G99" s="0">
-        <v>-2.8517653456048424</v>
+        <v>-2.8610594765419308</v>
       </c>
       <c r="H99" s="0">
         <v>-0</v>
@@ -8949,16 +9036,16 @@
         <v>-88682058.561094627</v>
       </c>
       <c r="P99" s="0">
-        <v>-88682058.554886237</v>
+        <v>-88682058.554886192</v>
       </c>
       <c r="Q99" s="0">
-        <v>-8.3260651663382555e-07</v>
+        <v>-8.4160820589573557e-07</v>
       </c>
       <c r="R99" s="0">
-        <v>-4.2242052918721732e-08</v>
+        <v>-3.3493430021525065e-08</v>
       </c>
       <c r="S99" s="0">
-        <v>1.6528657919073799e-08</v>
+        <v>1.5591080235808364e-08</v>
       </c>
       <c r="T99" s="0">
         <v>0</v>
@@ -9044,10 +9131,10 @@
         <v>-8.2215376758844612e-07</v>
       </c>
       <c r="R100" s="0">
-        <v>6.9962916918106942e-08</v>
+        <v>6.9962916918106941e-08</v>
       </c>
       <c r="S100" s="0">
-        <v>6.9962916918106942e-08</v>
+        <v>6.9962916918106941e-08</v>
       </c>
       <c r="T100" s="0">
         <v>0</v>
@@ -9189,7 +9276,7 @@
         <v>2.6547720524691947</v>
       </c>
       <c r="G102" s="0">
-        <v>2.6547720535411386</v>
+        <v>2.6547720535411385</v>
       </c>
       <c r="H102" s="0">
         <v>-0</v>
